--- a/BackTest/2020-01-19 BackTest REP.xlsx
+++ b/BackTest/2020-01-19 BackTest REP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>2025.471048636621</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>2025.471048636621</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>1434.278948636621</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>1221.792048636621</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>1234.920048636621</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>876.016048636621</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>474.787148636621</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>81.97074863662101</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>273.002648636621</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>1.178548636621031</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-119.626951363379</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-1139.850951363379</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-797.006451363379</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-647.238451363379</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-725.681951363379</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-650.209851363379</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-101.390051363379</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-158.959151363379</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-330.714251363379</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-330.714251363379</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-330.714251363379</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-786.897851363379</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-1305.999351363379</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-692.8754985115935</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-640.1549985115935</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-629.3437985115935</v>
       </c>
       <c r="H153" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-319.1594985115935</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-815.9550985115934</v>
       </c>
       <c r="H155" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-774.9381985115934</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-774.9381985115934</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-506.2835985115934</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-423.0279606019889</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-569.0800606019889</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-766.2096606019888</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-772.2840606019888</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-788.4099606019888</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-888.7627606019888</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-888.7627606019888</v>
       </c>
       <c r="H165" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-886.8520606019888</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-628.8822606019887</v>
       </c>
       <c r="H167" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-628.8822606019887</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-680.8856606019888</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-684.7653606019887</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-688.5922606019888</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-695.6010606019887</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-703.9122606019887</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-718.2186606019887</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-728.3552606019888</v>
       </c>
       <c r="H175" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-739.1664606019888</v>
       </c>
       <c r="H176" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-739.1664606019888</v>
       </c>
       <c r="H177" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-760.8228606019887</v>
       </c>
       <c r="H178" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-738.3103606019887</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-724.3103606019887</v>
       </c>
       <c r="H180" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-367.2440053840988</v>
       </c>
       <c r="H181" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-357.4375053840988</v>
       </c>
       <c r="H182" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-410.5807053840988</v>
       </c>
       <c r="H183" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-436.0987053840988</v>
       </c>
       <c r="H184" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-436.0987053840988</v>
       </c>
       <c r="H185" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-461.7835053840988</v>
       </c>
       <c r="H186" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-351.3455745970618</v>
       </c>
       <c r="H197" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-388.8136745970618</v>
       </c>
       <c r="H198" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-388.8136745970618</v>
       </c>
       <c r="H199" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-388.8136745970618</v>
       </c>
       <c r="H200" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-449.5136745970618</v>
       </c>
       <c r="H201" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-467.6312745970617</v>
       </c>
       <c r="H202" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-490.6320745970618</v>
       </c>
       <c r="H203" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-492.4989745970618</v>
       </c>
       <c r="H204" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-554.4181745970618</v>
       </c>
       <c r="H205" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-1015.256088427871</v>
       </c>
       <c r="H244" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-1004.209988427871</v>
       </c>
       <c r="H245" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-1004.209988427871</v>
       </c>
       <c r="H246" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-997.4790163348475</v>
       </c>
       <c r="H247" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-1028.721116334847</v>
       </c>
       <c r="H248" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-1027.721116334847</v>
       </c>
       <c r="H249" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-1034.933216334847</v>
       </c>
       <c r="H250" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-1034.933216334847</v>
       </c>
       <c r="H251" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-1148.621516334847</v>
       </c>
       <c r="H252" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-1151.542077082511</v>
       </c>
       <c r="H253" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-1151.542077082511</v>
       </c>
       <c r="H254" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-1163.588177082511</v>
       </c>
       <c r="H255" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-1175.425077082511</v>
       </c>
       <c r="H256" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-1178.117577082511</v>
       </c>
       <c r="H257" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-1159.973577082511</v>
       </c>
       <c r="H258" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-1222.520377082511</v>
       </c>
       <c r="H259" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-1222.520377082511</v>
       </c>
       <c r="H260" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-1328.504577082511</v>
       </c>
       <c r="H261" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-1512.742677082511</v>
       </c>
       <c r="H262" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-2465.688477082511</v>
       </c>
       <c r="H292" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-3369.156577082511</v>
       </c>
       <c r="H293" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -16852,11 +16852,17 @@
         <v>-11165.78781549181</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
-      </c>
-      <c r="I499" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I499" t="n">
+        <v>16030</v>
+      </c>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -16885,11 +16891,17 @@
         <v>-11152.58661549181</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
-      </c>
-      <c r="I500" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I500" t="n">
+        <v>16010</v>
+      </c>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -16918,11 +16930,17 @@
         <v>-11163.36181549181</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
-      </c>
-      <c r="I501" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I501" t="n">
+        <v>16060</v>
+      </c>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -16951,11 +16969,17 @@
         <v>-11163.36181549181</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
-      </c>
-      <c r="I502" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I502" t="n">
+        <v>16040</v>
+      </c>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -16984,11 +17008,17 @@
         <v>-11163.36181549181</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
-      </c>
-      <c r="I503" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I503" t="n">
+        <v>16040</v>
+      </c>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17017,11 +17047,17 @@
         <v>-11163.36181549181</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
-      </c>
-      <c r="I504" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I504" t="n">
+        <v>16040</v>
+      </c>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17050,11 +17086,17 @@
         <v>-11587.33961549181</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
-      </c>
-      <c r="I505" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I505" t="n">
+        <v>16040</v>
+      </c>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17083,11 +17125,17 @@
         <v>-11881.45891549181</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
-      </c>
-      <c r="I506" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I506" t="n">
+        <v>15950</v>
+      </c>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17116,11 +17164,17 @@
         <v>-11366.13261549181</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
-      </c>
-      <c r="I507" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I507" t="n">
+        <v>15860</v>
+      </c>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17149,11 +17203,17 @@
         <v>-11360.22621549181</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
-      </c>
-      <c r="I508" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I508" t="n">
+        <v>15900</v>
+      </c>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17182,11 +17242,17 @@
         <v>-11360.22621549181</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
-      </c>
-      <c r="I509" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I509" t="n">
+        <v>15910</v>
+      </c>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17215,11 +17281,17 @@
         <v>-11042.80781549181</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
-      </c>
-      <c r="I510" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I510" t="n">
+        <v>15910</v>
+      </c>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17248,11 +17320,17 @@
         <v>-11042.80781549181</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
-      </c>
-      <c r="I511" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I511" t="n">
+        <v>16000</v>
+      </c>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17281,11 +17359,17 @@
         <v>-11042.80781549181</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
-      </c>
-      <c r="I512" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I512" t="n">
+        <v>16000</v>
+      </c>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17314,11 +17398,17 @@
         <v>-10832.09781549181</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
-      </c>
-      <c r="I513" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I513" t="n">
+        <v>16000</v>
+      </c>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17347,11 +17437,17 @@
         <v>-10873.32371549181</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
-      </c>
-      <c r="I514" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I514" t="n">
+        <v>16100</v>
+      </c>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17380,11 +17476,17 @@
         <v>-10872.07371549181</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
-      </c>
-      <c r="I515" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I515" t="n">
+        <v>15980</v>
+      </c>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17413,11 +17515,17 @@
         <v>-10873.15551549181</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
-      </c>
-      <c r="I516" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I516" t="n">
+        <v>16080</v>
+      </c>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -17446,11 +17554,17 @@
         <v>-11089.24001549181</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
-      </c>
-      <c r="I517" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I517" t="n">
+        <v>16010</v>
+      </c>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -17479,11 +17593,17 @@
         <v>-11073.42861549181</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
-      </c>
-      <c r="I518" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I518" t="n">
+        <v>15960</v>
+      </c>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -17512,11 +17632,17 @@
         <v>-11100.71191549181</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
-      </c>
-      <c r="I519" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I519" t="n">
+        <v>16070</v>
+      </c>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -17545,11 +17671,17 @@
         <v>-11099.32131549181</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
-      </c>
-      <c r="I520" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I520" t="n">
+        <v>16020</v>
+      </c>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -17578,11 +17710,17 @@
         <v>-11099.32131549181</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
-      </c>
-      <c r="I521" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I521" t="n">
+        <v>16090</v>
+      </c>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -17611,11 +17749,17 @@
         <v>-11100.37131549181</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
-      </c>
-      <c r="I522" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I522" t="n">
+        <v>16090</v>
+      </c>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -17644,11 +17788,17 @@
         <v>-11163.33941549181</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
-      </c>
-      <c r="I523" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I523" t="n">
+        <v>16030</v>
+      </c>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -17677,11 +17827,17 @@
         <v>-11173.33941549181</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
-      </c>
-      <c r="I524" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I524" t="n">
+        <v>16020</v>
+      </c>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -17710,11 +17866,17 @@
         <v>-11157.52321549181</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
-      </c>
-      <c r="I525" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I525" t="n">
+        <v>15960</v>
+      </c>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -17743,11 +17905,17 @@
         <v>-11224.35321549181</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
-      </c>
-      <c r="I526" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I526" t="n">
+        <v>15980</v>
+      </c>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -17776,11 +17944,17 @@
         <v>-11197.36511549181</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
-      </c>
-      <c r="I527" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I527" t="n">
+        <v>15970</v>
+      </c>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -17809,11 +17983,17 @@
         <v>-11222.78511549181</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
-      </c>
-      <c r="I528" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I528" t="n">
+        <v>15980</v>
+      </c>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -17842,11 +18022,17 @@
         <v>-11404.52371549181</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
-      </c>
-      <c r="I529" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I529" t="n">
+        <v>15960</v>
+      </c>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -17875,11 +18061,17 @@
         <v>-11991.68451549181</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
-      </c>
-      <c r="I530" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I530" t="n">
+        <v>15930</v>
+      </c>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -17908,11 +18100,17 @@
         <v>-11981.77901549181</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
-      </c>
-      <c r="I531" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I531" t="n">
+        <v>15900</v>
+      </c>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -17941,11 +18139,17 @@
         <v>-11951.65451549181</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
-      </c>
-      <c r="I532" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I532" t="n">
+        <v>15960</v>
+      </c>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -17974,11 +18178,17 @@
         <v>-11770.27291549181</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
-      </c>
-      <c r="I533" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I533" t="n">
+        <v>15980</v>
+      </c>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18007,11 +18217,17 @@
         <v>-11770.27291549181</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
-      </c>
-      <c r="I534" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I534" t="n">
+        <v>16000</v>
+      </c>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18040,11 +18256,17 @@
         <v>-11799.40911549181</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
-      </c>
-      <c r="I535" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I535" t="n">
+        <v>16000</v>
+      </c>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18073,11 +18295,17 @@
         <v>-11886.46541549181</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
-      </c>
-      <c r="I536" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I536" t="n">
+        <v>15990</v>
+      </c>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18106,11 +18334,17 @@
         <v>-11381.61771549181</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
-      </c>
-      <c r="I537" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I537" t="n">
+        <v>15890</v>
+      </c>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18139,11 +18373,17 @@
         <v>-11325.49651549181</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
-      </c>
-      <c r="I538" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I538" t="n">
+        <v>15900</v>
+      </c>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18172,11 +18412,17 @@
         <v>-11074.62671549181</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
-      </c>
-      <c r="I539" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I539" t="n">
+        <v>15950</v>
+      </c>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18205,11 +18451,17 @@
         <v>-11133.53261549181</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
-      </c>
-      <c r="I540" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I540" t="n">
+        <v>15960</v>
+      </c>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18238,11 +18490,17 @@
         <v>-11133.53261549181</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
-      </c>
-      <c r="I541" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I541" t="n">
+        <v>15950</v>
+      </c>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18271,11 +18529,17 @@
         <v>-11133.53261549181</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
-      </c>
-      <c r="I542" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I542" t="n">
+        <v>15950</v>
+      </c>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18304,11 +18568,17 @@
         <v>-11133.53261549181</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
-      </c>
-      <c r="I543" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I543" t="n">
+        <v>15950</v>
+      </c>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -18337,11 +18607,17 @@
         <v>-10968.04501549181</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
-      </c>
-      <c r="I544" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I544" t="n">
+        <v>15950</v>
+      </c>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -18370,11 +18646,17 @@
         <v>-10824.34461549181</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
-      </c>
-      <c r="I545" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I545" t="n">
+        <v>15990</v>
+      </c>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -18403,11 +18685,17 @@
         <v>-10824.34461549181</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
-      </c>
-      <c r="I546" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I546" t="n">
+        <v>16000</v>
+      </c>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -18436,7 +18724,7 @@
         <v>-10824.34461549181</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I547" t="n">
         <v>16000</v>
@@ -18444,7 +18732,7 @@
       <c r="J547" t="inlineStr"/>
       <c r="K547" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L547" t="n">
@@ -18475,7 +18763,7 @@
         <v>-10817.79811549181</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I548" t="n">
         <v>16000</v>
@@ -18514,7 +18802,7 @@
         <v>-10981.99741549181</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I549" t="n">
         <v>16090</v>
@@ -18553,9 +18841,11 @@
         <v>-10981.99741549181</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
-      </c>
-      <c r="I550" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I550" t="n">
+        <v>16020</v>
+      </c>
       <c r="J550" t="inlineStr"/>
       <c r="K550" t="inlineStr">
         <is>
@@ -18590,9 +18880,11 @@
         <v>-10981.99741549181</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
-      </c>
-      <c r="I551" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I551" t="n">
+        <v>16020</v>
+      </c>
       <c r="J551" t="inlineStr"/>
       <c r="K551" t="inlineStr">
         <is>
@@ -18627,9 +18919,11 @@
         <v>-10981.99741549181</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
-      </c>
-      <c r="I552" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I552" t="n">
+        <v>16020</v>
+      </c>
       <c r="J552" t="inlineStr"/>
       <c r="K552" t="inlineStr">
         <is>
@@ -18664,9 +18958,11 @@
         <v>-10926.38911549181</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
-      </c>
-      <c r="I553" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I553" t="n">
+        <v>16020</v>
+      </c>
       <c r="J553" t="inlineStr"/>
       <c r="K553" t="inlineStr">
         <is>
@@ -18701,9 +18997,11 @@
         <v>-10932.86211549181</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
-      </c>
-      <c r="I554" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I554" t="n">
+        <v>16100</v>
+      </c>
       <c r="J554" t="inlineStr"/>
       <c r="K554" t="inlineStr">
         <is>
@@ -18738,9 +19036,11 @@
         <v>-10932.86211549181</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
-      </c>
-      <c r="I555" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I555" t="n">
+        <v>16090</v>
+      </c>
       <c r="J555" t="inlineStr"/>
       <c r="K555" t="inlineStr">
         <is>
@@ -18775,9 +19075,11 @@
         <v>-10934.77201549181</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
-      </c>
-      <c r="I556" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I556" t="n">
+        <v>16090</v>
+      </c>
       <c r="J556" t="inlineStr"/>
       <c r="K556" t="inlineStr">
         <is>
@@ -18812,9 +19114,11 @@
         <v>-10924.77201549181</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
-      </c>
-      <c r="I557" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I557" t="n">
+        <v>16080</v>
+      </c>
       <c r="J557" t="inlineStr"/>
       <c r="K557" t="inlineStr">
         <is>
@@ -18849,9 +19153,11 @@
         <v>-10924.77201549181</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
-      </c>
-      <c r="I558" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I558" t="n">
+        <v>16090</v>
+      </c>
       <c r="J558" t="inlineStr"/>
       <c r="K558" t="inlineStr">
         <is>
@@ -18886,9 +19192,11 @@
         <v>-10959.64281549181</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
-      </c>
-      <c r="I559" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I559" t="n">
+        <v>16090</v>
+      </c>
       <c r="J559" t="inlineStr"/>
       <c r="K559" t="inlineStr">
         <is>
@@ -18923,9 +19231,11 @@
         <v>-11159.64281549181</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
-      </c>
-      <c r="I560" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I560" t="n">
+        <v>16030</v>
+      </c>
       <c r="J560" t="inlineStr"/>
       <c r="K560" t="inlineStr">
         <is>
@@ -18960,9 +19270,11 @@
         <v>-11513.83131549181</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
-      </c>
-      <c r="I561" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I561" t="n">
+        <v>16020</v>
+      </c>
       <c r="J561" t="inlineStr"/>
       <c r="K561" t="inlineStr">
         <is>
@@ -18997,9 +19309,11 @@
         <v>-11596.17241549181</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
-      </c>
-      <c r="I562" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I562" t="n">
+        <v>16010</v>
+      </c>
       <c r="J562" t="inlineStr"/>
       <c r="K562" t="inlineStr">
         <is>
@@ -19034,9 +19348,11 @@
         <v>-11590.42121549181</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
-      </c>
-      <c r="I563" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I563" t="n">
+        <v>16000</v>
+      </c>
       <c r="J563" t="inlineStr"/>
       <c r="K563" t="inlineStr">
         <is>
@@ -19071,9 +19387,11 @@
         <v>-11349.46161549181</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
-      </c>
-      <c r="I564" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I564" t="n">
+        <v>16060</v>
+      </c>
       <c r="J564" t="inlineStr"/>
       <c r="K564" t="inlineStr">
         <is>
@@ -19108,9 +19426,11 @@
         <v>-11351.95851549181</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
-      </c>
-      <c r="I565" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I565" t="n">
+        <v>16070</v>
+      </c>
       <c r="J565" t="inlineStr"/>
       <c r="K565" t="inlineStr">
         <is>
@@ -19145,9 +19465,11 @@
         <v>-11264.58871549181</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
-      </c>
-      <c r="I566" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I566" t="n">
+        <v>16010</v>
+      </c>
       <c r="J566" t="inlineStr"/>
       <c r="K566" t="inlineStr">
         <is>
@@ -19182,9 +19504,11 @@
         <v>-11267.30661549181</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
-      </c>
-      <c r="I567" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I567" t="n">
+        <v>16020</v>
+      </c>
       <c r="J567" t="inlineStr"/>
       <c r="K567" t="inlineStr">
         <is>
@@ -19219,9 +19543,11 @@
         <v>-11267.30661549181</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
-      </c>
-      <c r="I568" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I568" t="n">
+        <v>16000</v>
+      </c>
       <c r="J568" t="inlineStr"/>
       <c r="K568" t="inlineStr">
         <is>
@@ -19256,9 +19582,11 @@
         <v>-11267.30661549181</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
-      </c>
-      <c r="I569" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I569" t="n">
+        <v>16000</v>
+      </c>
       <c r="J569" t="inlineStr"/>
       <c r="K569" t="inlineStr">
         <is>
@@ -19293,9 +19621,11 @@
         <v>-11267.30661549181</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
-      </c>
-      <c r="I570" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I570" t="n">
+        <v>16000</v>
+      </c>
       <c r="J570" t="inlineStr"/>
       <c r="K570" t="inlineStr">
         <is>
@@ -19330,9 +19660,11 @@
         <v>-11262.05051549181</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
-      </c>
-      <c r="I571" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I571" t="n">
+        <v>16000</v>
+      </c>
       <c r="J571" t="inlineStr"/>
       <c r="K571" t="inlineStr">
         <is>
@@ -19367,9 +19699,11 @@
         <v>-11581.76991549181</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
-      </c>
-      <c r="I572" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I572" t="n">
+        <v>16060</v>
+      </c>
       <c r="J572" t="inlineStr"/>
       <c r="K572" t="inlineStr">
         <is>
@@ -19404,9 +19738,11 @@
         <v>-11586.22111549181</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
-      </c>
-      <c r="I573" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I573" t="n">
+        <v>16000</v>
+      </c>
       <c r="J573" t="inlineStr"/>
       <c r="K573" t="inlineStr">
         <is>
@@ -19441,9 +19777,11 @@
         <v>-11358.52223778321</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
-      </c>
-      <c r="I574" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I574" t="n">
+        <v>15990</v>
+      </c>
       <c r="J574" t="inlineStr"/>
       <c r="K574" t="inlineStr">
         <is>
@@ -19478,9 +19816,11 @@
         <v>-10887.63213778321</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
-      </c>
-      <c r="I575" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I575" t="n">
+        <v>16060</v>
+      </c>
       <c r="J575" t="inlineStr"/>
       <c r="K575" t="inlineStr">
         <is>
@@ -19515,9 +19855,11 @@
         <v>-10955.00233778321</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
-      </c>
-      <c r="I576" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I576" t="n">
+        <v>16100</v>
+      </c>
       <c r="J576" t="inlineStr"/>
       <c r="K576" t="inlineStr">
         <is>
@@ -19552,9 +19894,11 @@
         <v>-10966.09203778321</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
-      </c>
-      <c r="I577" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I577" t="n">
+        <v>16090</v>
+      </c>
       <c r="J577" t="inlineStr"/>
       <c r="K577" t="inlineStr">
         <is>
@@ -19626,9 +19970,11 @@
         <v>-10866.65413778321</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
-      </c>
-      <c r="I579" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I579" t="n">
+        <v>16050</v>
+      </c>
       <c r="J579" t="inlineStr"/>
       <c r="K579" t="inlineStr">
         <is>
@@ -19700,9 +20046,11 @@
         <v>-11263.10813778321</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
-      </c>
-      <c r="I581" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I581" t="n">
+        <v>16050</v>
+      </c>
       <c r="J581" t="inlineStr"/>
       <c r="K581" t="inlineStr">
         <is>
@@ -19737,9 +20085,11 @@
         <v>-11159.01533778321</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
-      </c>
-      <c r="I582" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I582" t="n">
+        <v>16040</v>
+      </c>
       <c r="J582" t="inlineStr"/>
       <c r="K582" t="inlineStr">
         <is>
@@ -19774,9 +20124,11 @@
         <v>-11159.74033778321</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
-      </c>
-      <c r="I583" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I583" t="n">
+        <v>16090</v>
+      </c>
       <c r="J583" t="inlineStr"/>
       <c r="K583" t="inlineStr">
         <is>
@@ -19811,9 +20163,11 @@
         <v>-11204.17423778321</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
-      </c>
-      <c r="I584" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I584" t="n">
+        <v>16080</v>
+      </c>
       <c r="J584" t="inlineStr"/>
       <c r="K584" t="inlineStr">
         <is>
@@ -19848,9 +20202,11 @@
         <v>-11254.63813778321</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
-      </c>
-      <c r="I585" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I585" t="n">
+        <v>16040</v>
+      </c>
       <c r="J585" t="inlineStr"/>
       <c r="K585" t="inlineStr">
         <is>
@@ -19885,9 +20241,11 @@
         <v>-11246.47413778321</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
-      </c>
-      <c r="I586" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I586" t="n">
+        <v>16020</v>
+      </c>
       <c r="J586" t="inlineStr"/>
       <c r="K586" t="inlineStr">
         <is>
@@ -19922,9 +20280,11 @@
         <v>-11266.17613778321</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
-      </c>
-      <c r="I587" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I587" t="n">
+        <v>16050</v>
+      </c>
       <c r="J587" t="inlineStr"/>
       <c r="K587" t="inlineStr">
         <is>
@@ -19959,9 +20319,11 @@
         <v>-11266.17613778321</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
-      </c>
-      <c r="I588" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I588" t="n">
+        <v>16020</v>
+      </c>
       <c r="J588" t="inlineStr"/>
       <c r="K588" t="inlineStr">
         <is>
@@ -19996,9 +20358,11 @@
         <v>-11266.17613778321</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
-      </c>
-      <c r="I589" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I589" t="n">
+        <v>16020</v>
+      </c>
       <c r="J589" t="inlineStr"/>
       <c r="K589" t="inlineStr">
         <is>
@@ -20033,9 +20397,11 @@
         <v>-11263.32453778321</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
-      </c>
-      <c r="I590" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I590" t="n">
+        <v>16020</v>
+      </c>
       <c r="J590" t="inlineStr"/>
       <c r="K590" t="inlineStr">
         <is>
@@ -20070,9 +20436,11 @@
         <v>-11263.32453778321</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
-      </c>
-      <c r="I591" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I591" t="n">
+        <v>16030</v>
+      </c>
       <c r="J591" t="inlineStr"/>
       <c r="K591" t="inlineStr">
         <is>
@@ -20107,9 +20475,11 @@
         <v>-11263.32453778321</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
-      </c>
-      <c r="I592" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I592" t="n">
+        <v>16030</v>
+      </c>
       <c r="J592" t="inlineStr"/>
       <c r="K592" t="inlineStr">
         <is>
@@ -20144,9 +20514,11 @@
         <v>-11263.32453778321</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
-      </c>
-      <c r="I593" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I593" t="n">
+        <v>16030</v>
+      </c>
       <c r="J593" t="inlineStr"/>
       <c r="K593" t="inlineStr">
         <is>
@@ -20181,9 +20553,11 @@
         <v>-11263.32453778321</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
-      </c>
-      <c r="I594" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I594" t="n">
+        <v>16030</v>
+      </c>
       <c r="J594" t="inlineStr"/>
       <c r="K594" t="inlineStr">
         <is>
@@ -20218,9 +20592,11 @@
         <v>-11318.42143778321</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
-      </c>
-      <c r="I595" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I595" t="n">
+        <v>16030</v>
+      </c>
       <c r="J595" t="inlineStr"/>
       <c r="K595" t="inlineStr">
         <is>
@@ -20255,9 +20631,11 @@
         <v>-11318.42143778321</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
-      </c>
-      <c r="I596" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I596" t="n">
+        <v>16020</v>
+      </c>
       <c r="J596" t="inlineStr"/>
       <c r="K596" t="inlineStr">
         <is>
@@ -20292,9 +20670,11 @@
         <v>-11320.43213778321</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
-      </c>
-      <c r="I597" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I597" t="n">
+        <v>16020</v>
+      </c>
       <c r="J597" t="inlineStr"/>
       <c r="K597" t="inlineStr">
         <is>
@@ -20329,9 +20709,11 @@
         <v>-11320.43213778321</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
-      </c>
-      <c r="I598" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I598" t="n">
+        <v>15970</v>
+      </c>
       <c r="J598" t="inlineStr"/>
       <c r="K598" t="inlineStr">
         <is>
@@ -20366,9 +20748,11 @@
         <v>-11320.43213778321</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
-      </c>
-      <c r="I599" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I599" t="n">
+        <v>15970</v>
+      </c>
       <c r="J599" t="inlineStr"/>
       <c r="K599" t="inlineStr">
         <is>
@@ -20403,9 +20787,11 @@
         <v>-11320.43213778321</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
-      </c>
-      <c r="I600" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I600" t="n">
+        <v>15970</v>
+      </c>
       <c r="J600" t="inlineStr"/>
       <c r="K600" t="inlineStr">
         <is>
@@ -20440,9 +20826,11 @@
         <v>-11220.43213778321</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
-      </c>
-      <c r="I601" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I601" t="n">
+        <v>15970</v>
+      </c>
       <c r="J601" t="inlineStr"/>
       <c r="K601" t="inlineStr">
         <is>
@@ -20477,9 +20865,11 @@
         <v>-11232.05823778321</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
-      </c>
-      <c r="I602" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I602" t="n">
+        <v>16070</v>
+      </c>
       <c r="J602" t="inlineStr"/>
       <c r="K602" t="inlineStr">
         <is>
@@ -20514,9 +20904,11 @@
         <v>-11082.36243778321</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
-      </c>
-      <c r="I603" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I603" t="n">
+        <v>16060</v>
+      </c>
       <c r="J603" t="inlineStr"/>
       <c r="K603" t="inlineStr">
         <is>
@@ -20551,9 +20943,11 @@
         <v>-11075.96653778321</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
-      </c>
-      <c r="I604" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I604" t="n">
+        <v>16070</v>
+      </c>
       <c r="J604" t="inlineStr"/>
       <c r="K604" t="inlineStr">
         <is>
@@ -20588,9 +20982,11 @@
         <v>-11075.96653778321</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
-      </c>
-      <c r="I605" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I605" t="n">
+        <v>16140</v>
+      </c>
       <c r="J605" t="inlineStr"/>
       <c r="K605" t="inlineStr">
         <is>
@@ -20625,9 +21021,11 @@
         <v>-11073.99332790667</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
-      </c>
-      <c r="I606" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I606" t="n">
+        <v>16140</v>
+      </c>
       <c r="J606" t="inlineStr"/>
       <c r="K606" t="inlineStr">
         <is>
@@ -20662,9 +21060,11 @@
         <v>-11080.87012790667</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
-      </c>
-      <c r="I607" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I607" t="n">
+        <v>16200</v>
+      </c>
       <c r="J607" t="inlineStr"/>
       <c r="K607" t="inlineStr">
         <is>
@@ -20699,9 +21099,11 @@
         <v>-11111.77172790667</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
-      </c>
-      <c r="I608" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I608" t="n">
+        <v>16150</v>
+      </c>
       <c r="J608" t="inlineStr"/>
       <c r="K608" t="inlineStr">
         <is>
@@ -20736,9 +21138,11 @@
         <v>-11165.94902790667</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
-      </c>
-      <c r="I609" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I609" t="n">
+        <v>16120</v>
+      </c>
       <c r="J609" t="inlineStr"/>
       <c r="K609" t="inlineStr">
         <is>
@@ -20773,9 +21177,11 @@
         <v>-11165.94902790667</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
-      </c>
-      <c r="I610" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I610" t="n">
+        <v>16050</v>
+      </c>
       <c r="J610" t="inlineStr"/>
       <c r="K610" t="inlineStr">
         <is>
@@ -20810,9 +21216,11 @@
         <v>-11336.21192790667</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
-      </c>
-      <c r="I611" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I611" t="n">
+        <v>16050</v>
+      </c>
       <c r="J611" t="inlineStr"/>
       <c r="K611" t="inlineStr">
         <is>
@@ -20847,9 +21255,11 @@
         <v>-11336.21192790667</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
-      </c>
-      <c r="I612" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I612" t="n">
+        <v>15960</v>
+      </c>
       <c r="J612" t="inlineStr"/>
       <c r="K612" t="inlineStr">
         <is>
@@ -20884,9 +21294,11 @@
         <v>-11308.69032790667</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
-      </c>
-      <c r="I613" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I613" t="n">
+        <v>15960</v>
+      </c>
       <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr">
         <is>
@@ -20921,9 +21333,11 @@
         <v>-11315.69002790667</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
-      </c>
-      <c r="I614" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I614" t="n">
+        <v>16000</v>
+      </c>
       <c r="J614" t="inlineStr"/>
       <c r="K614" t="inlineStr">
         <is>
@@ -20958,9 +21372,11 @@
         <v>-11299.83602790667</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
-      </c>
-      <c r="I615" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I615" t="n">
+        <v>15960</v>
+      </c>
       <c r="J615" t="inlineStr"/>
       <c r="K615" t="inlineStr">
         <is>
@@ -20995,9 +21411,11 @@
         <v>-11299.83602790667</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
-      </c>
-      <c r="I616" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I616" t="n">
+        <v>16000</v>
+      </c>
       <c r="J616" t="inlineStr"/>
       <c r="K616" t="inlineStr">
         <is>
@@ -21032,9 +21450,11 @@
         <v>-11299.83602790667</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
-      </c>
-      <c r="I617" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I617" t="n">
+        <v>16000</v>
+      </c>
       <c r="J617" t="inlineStr"/>
       <c r="K617" t="inlineStr">
         <is>
@@ -21069,9 +21489,11 @@
         <v>-11299.83602790667</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
-      </c>
-      <c r="I618" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I618" t="n">
+        <v>16000</v>
+      </c>
       <c r="J618" t="inlineStr"/>
       <c r="K618" t="inlineStr">
         <is>
@@ -21106,9 +21528,11 @@
         <v>-11243.78832790667</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
-      </c>
-      <c r="I619" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I619" t="n">
+        <v>16000</v>
+      </c>
       <c r="J619" t="inlineStr"/>
       <c r="K619" t="inlineStr">
         <is>
@@ -21143,9 +21567,11 @@
         <v>-11445.14602790667</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
-      </c>
-      <c r="I620" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I620" t="n">
+        <v>16030</v>
+      </c>
       <c r="J620" t="inlineStr"/>
       <c r="K620" t="inlineStr">
         <is>
@@ -21180,9 +21606,11 @@
         <v>-11445.14602790667</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
-      </c>
-      <c r="I621" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I621" t="n">
+        <v>16000</v>
+      </c>
       <c r="J621" t="inlineStr"/>
       <c r="K621" t="inlineStr">
         <is>
@@ -21217,9 +21645,11 @@
         <v>-11445.14602790667</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
-      </c>
-      <c r="I622" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I622" t="n">
+        <v>16000</v>
+      </c>
       <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr">
         <is>
@@ -21254,9 +21684,11 @@
         <v>-11445.14602790667</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
-      </c>
-      <c r="I623" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I623" t="n">
+        <v>16000</v>
+      </c>
       <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr">
         <is>
@@ -21291,9 +21723,11 @@
         <v>-11461.13892790667</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
-      </c>
-      <c r="I624" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I624" t="n">
+        <v>16000</v>
+      </c>
       <c r="J624" t="inlineStr"/>
       <c r="K624" t="inlineStr">
         <is>
@@ -21328,9 +21762,11 @@
         <v>-11461.13892790667</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
-      </c>
-      <c r="I625" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I625" t="n">
+        <v>15950</v>
+      </c>
       <c r="J625" t="inlineStr"/>
       <c r="K625" t="inlineStr">
         <is>
@@ -21365,9 +21801,11 @@
         <v>-11076.70882790667</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
-      </c>
-      <c r="I626" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I626" t="n">
+        <v>15950</v>
+      </c>
       <c r="J626" t="inlineStr"/>
       <c r="K626" t="inlineStr">
         <is>
@@ -21402,9 +21840,11 @@
         <v>-11228.69942790667</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
-      </c>
-      <c r="I627" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I627" t="n">
+        <v>16030</v>
+      </c>
       <c r="J627" t="inlineStr"/>
       <c r="K627" t="inlineStr">
         <is>
@@ -21439,9 +21879,11 @@
         <v>-10941.22852790667</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
-      </c>
-      <c r="I628" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I628" t="n">
+        <v>15900</v>
+      </c>
       <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr">
         <is>
@@ -21476,9 +21918,11 @@
         <v>-10951.91242790667</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
-      </c>
-      <c r="I629" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I629" t="n">
+        <v>16040</v>
+      </c>
       <c r="J629" t="inlineStr"/>
       <c r="K629" t="inlineStr">
         <is>
@@ -21513,9 +21957,11 @@
         <v>-10855.31452790667</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
-      </c>
-      <c r="I630" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I630" t="n">
+        <v>16030</v>
+      </c>
       <c r="J630" t="inlineStr"/>
       <c r="K630" t="inlineStr">
         <is>
@@ -21550,9 +21996,11 @@
         <v>-10855.31452790667</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
-      </c>
-      <c r="I631" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I631" t="n">
+        <v>16040</v>
+      </c>
       <c r="J631" t="inlineStr"/>
       <c r="K631" t="inlineStr">
         <is>
@@ -21587,9 +22035,11 @@
         <v>-10755.31452790667</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
-      </c>
-      <c r="I632" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I632" t="n">
+        <v>16040</v>
+      </c>
       <c r="J632" t="inlineStr"/>
       <c r="K632" t="inlineStr">
         <is>
@@ -21624,9 +22074,11 @@
         <v>-10873.33552790667</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
-      </c>
-      <c r="I633" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I633" t="n">
+        <v>16090</v>
+      </c>
       <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr">
         <is>
@@ -21661,7 +22113,7 @@
         <v>-10710.00468650381</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I634" t="n">
         <v>16080</v>
@@ -21700,9 +22152,11 @@
         <v>-10832.53878650381</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
-      </c>
-      <c r="I635" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I635" t="n">
+        <v>16110</v>
+      </c>
       <c r="J635" t="inlineStr"/>
       <c r="K635" t="inlineStr">
         <is>
@@ -21737,9 +22191,11 @@
         <v>-10062.37959638036</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
-      </c>
-      <c r="I636" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I636" t="n">
+        <v>16090</v>
+      </c>
       <c r="J636" t="inlineStr"/>
       <c r="K636" t="inlineStr">
         <is>
@@ -21774,9 +22230,11 @@
         <v>-9974.812696380357</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
-      </c>
-      <c r="I637" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I637" t="n">
+        <v>16110</v>
+      </c>
       <c r="J637" t="inlineStr"/>
       <c r="K637" t="inlineStr">
         <is>
@@ -21811,9 +22269,11 @@
         <v>-10003.96329638036</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
-      </c>
-      <c r="I638" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I638" t="n">
+        <v>16200</v>
+      </c>
       <c r="J638" t="inlineStr"/>
       <c r="K638" t="inlineStr">
         <is>
@@ -21848,9 +22308,11 @@
         <v>-9989.387996380357</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
-      </c>
-      <c r="I639" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I639" t="n">
+        <v>16120</v>
+      </c>
       <c r="J639" t="inlineStr"/>
       <c r="K639" t="inlineStr">
         <is>
@@ -21885,9 +22347,11 @@
         <v>-9989.387996380357</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
-      </c>
-      <c r="I640" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I640" t="n">
+        <v>16130</v>
+      </c>
       <c r="J640" t="inlineStr"/>
       <c r="K640" t="inlineStr">
         <is>
@@ -21922,9 +22386,11 @@
         <v>-9956.225796380357</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
-      </c>
-      <c r="I641" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I641" t="n">
+        <v>16130</v>
+      </c>
       <c r="J641" t="inlineStr"/>
       <c r="K641" t="inlineStr">
         <is>
@@ -21959,9 +22425,11 @@
         <v>-9956.225796380357</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
-      </c>
-      <c r="I642" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I642" t="n">
+        <v>16230</v>
+      </c>
       <c r="J642" t="inlineStr"/>
       <c r="K642" t="inlineStr">
         <is>
@@ -21996,9 +22464,11 @@
         <v>-9956.225796380357</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
-      </c>
-      <c r="I643" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I643" t="n">
+        <v>16230</v>
+      </c>
       <c r="J643" t="inlineStr"/>
       <c r="K643" t="inlineStr">
         <is>
@@ -22033,9 +22503,11 @@
         <v>-10084.17579638036</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
-      </c>
-      <c r="I644" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I644" t="n">
+        <v>16230</v>
+      </c>
       <c r="J644" t="inlineStr"/>
       <c r="K644" t="inlineStr">
         <is>
@@ -22070,9 +22542,11 @@
         <v>-10040.93709638036</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
-      </c>
-      <c r="I645" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I645" t="n">
+        <v>16220</v>
+      </c>
       <c r="J645" t="inlineStr"/>
       <c r="K645" t="inlineStr">
         <is>
@@ -22107,9 +22581,11 @@
         <v>-10039.95919638036</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
-      </c>
-      <c r="I646" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I646" t="n">
+        <v>16310</v>
+      </c>
       <c r="J646" t="inlineStr"/>
       <c r="K646" t="inlineStr">
         <is>
@@ -22144,9 +22620,11 @@
         <v>-10039.95919638036</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
-      </c>
-      <c r="I647" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I647" t="n">
+        <v>16320</v>
+      </c>
       <c r="J647" t="inlineStr"/>
       <c r="K647" t="inlineStr">
         <is>
@@ -22218,9 +22696,11 @@
         <v>-10200.63319638036</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
-      </c>
-      <c r="I649" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I649" t="n">
+        <v>16150</v>
+      </c>
       <c r="J649" t="inlineStr"/>
       <c r="K649" t="inlineStr">
         <is>
@@ -22255,9 +22735,11 @@
         <v>-10200.63319638036</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
-      </c>
-      <c r="I650" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I650" t="n">
+        <v>16180</v>
+      </c>
       <c r="J650" t="inlineStr"/>
       <c r="K650" t="inlineStr">
         <is>
@@ -22366,9 +22848,11 @@
         <v>-10245.63319638036</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
-      </c>
-      <c r="I653" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I653" t="n">
+        <v>16160</v>
+      </c>
       <c r="J653" t="inlineStr"/>
       <c r="K653" t="inlineStr">
         <is>
@@ -22403,9 +22887,11 @@
         <v>-10225.20599638036</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
-      </c>
-      <c r="I654" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I654" t="n">
+        <v>16160</v>
+      </c>
       <c r="J654" t="inlineStr"/>
       <c r="K654" t="inlineStr">
         <is>
@@ -22440,9 +22926,11 @@
         <v>-11063.04899638036</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
-      </c>
-      <c r="I655" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I655" t="n">
+        <v>16170</v>
+      </c>
       <c r="J655" t="inlineStr"/>
       <c r="K655" t="inlineStr">
         <is>
@@ -22588,9 +23076,11 @@
         <v>-11115.46489638036</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
-      </c>
-      <c r="I659" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I659" t="n">
+        <v>16110</v>
+      </c>
       <c r="J659" t="inlineStr"/>
       <c r="K659" t="inlineStr">
         <is>
@@ -22625,9 +23115,11 @@
         <v>-11115.46489638036</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
-      </c>
-      <c r="I660" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I660" t="n">
+        <v>16060</v>
+      </c>
       <c r="J660" t="inlineStr"/>
       <c r="K660" t="inlineStr">
         <is>
@@ -22662,9 +23154,11 @@
         <v>-11116.59869638036</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
-      </c>
-      <c r="I661" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I661" t="n">
+        <v>16060</v>
+      </c>
       <c r="J661" t="inlineStr"/>
       <c r="K661" t="inlineStr">
         <is>
@@ -22699,9 +23193,11 @@
         <v>-11110.59869638036</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
-      </c>
-      <c r="I662" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I662" t="n">
+        <v>15980</v>
+      </c>
       <c r="J662" t="inlineStr"/>
       <c r="K662" t="inlineStr">
         <is>
@@ -22736,9 +23232,11 @@
         <v>-11110.59869638036</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
-      </c>
-      <c r="I663" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I663" t="n">
+        <v>16000</v>
+      </c>
       <c r="J663" t="inlineStr"/>
       <c r="K663" t="inlineStr">
         <is>
@@ -22773,9 +23271,11 @@
         <v>-11181.12709638036</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
-      </c>
-      <c r="I664" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I664" t="n">
+        <v>16000</v>
+      </c>
       <c r="J664" t="inlineStr"/>
       <c r="K664" t="inlineStr">
         <is>
@@ -22810,9 +23310,11 @@
         <v>-11120.76079638036</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
-      </c>
-      <c r="I665" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I665" t="n">
+        <v>15950</v>
+      </c>
       <c r="J665" t="inlineStr"/>
       <c r="K665" t="inlineStr">
         <is>
@@ -22847,9 +23349,11 @@
         <v>-11238.72219638036</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
-      </c>
-      <c r="I666" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I666" t="n">
+        <v>16000</v>
+      </c>
       <c r="J666" t="inlineStr"/>
       <c r="K666" t="inlineStr">
         <is>
@@ -22884,9 +23388,11 @@
         <v>-11238.72219638036</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
-      </c>
-      <c r="I667" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I667" t="n">
+        <v>15960</v>
+      </c>
       <c r="J667" t="inlineStr"/>
       <c r="K667" t="inlineStr">
         <is>
@@ -22921,9 +23427,11 @@
         <v>-11238.72219638036</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
-      </c>
-      <c r="I668" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I668" t="n">
+        <v>15960</v>
+      </c>
       <c r="J668" t="inlineStr"/>
       <c r="K668" t="inlineStr">
         <is>
@@ -22958,9 +23466,11 @@
         <v>-11047.55689638036</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
-      </c>
-      <c r="I669" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I669" t="n">
+        <v>15960</v>
+      </c>
       <c r="J669" t="inlineStr"/>
       <c r="K669" t="inlineStr">
         <is>
@@ -22995,9 +23505,11 @@
         <v>-11047.55689638036</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
-      </c>
-      <c r="I670" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I670" t="n">
+        <v>15970</v>
+      </c>
       <c r="J670" t="inlineStr"/>
       <c r="K670" t="inlineStr">
         <is>
@@ -23032,9 +23544,11 @@
         <v>-10978.13889638036</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
-      </c>
-      <c r="I671" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I671" t="n">
+        <v>15970</v>
+      </c>
       <c r="J671" t="inlineStr"/>
       <c r="K671" t="inlineStr">
         <is>
@@ -23069,9 +23583,11 @@
         <v>-10979.25869638036</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
-      </c>
-      <c r="I672" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I672" t="n">
+        <v>16000</v>
+      </c>
       <c r="J672" t="inlineStr"/>
       <c r="K672" t="inlineStr">
         <is>
@@ -23106,9 +23622,11 @@
         <v>-10979.25869638036</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
-      </c>
-      <c r="I673" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I673" t="n">
+        <v>15960</v>
+      </c>
       <c r="J673" t="inlineStr"/>
       <c r="K673" t="inlineStr">
         <is>
@@ -23143,9 +23661,11 @@
         <v>-11007.25869638036</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
-      </c>
-      <c r="I674" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I674" t="n">
+        <v>15960</v>
+      </c>
       <c r="J674" t="inlineStr"/>
       <c r="K674" t="inlineStr">
         <is>
@@ -23180,9 +23700,11 @@
         <v>-11007.25869638036</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
-      </c>
-      <c r="I675" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I675" t="n">
+        <v>15950</v>
+      </c>
       <c r="J675" t="inlineStr"/>
       <c r="K675" t="inlineStr">
         <is>
@@ -23217,9 +23739,11 @@
         <v>-11261.87129638036</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
-      </c>
-      <c r="I676" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I676" t="n">
+        <v>15950</v>
+      </c>
       <c r="J676" t="inlineStr"/>
       <c r="K676" t="inlineStr">
         <is>
@@ -23254,9 +23778,11 @@
         <v>-11168.90209638036</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
-      </c>
-      <c r="I677" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I677" t="n">
+        <v>15850</v>
+      </c>
       <c r="J677" t="inlineStr"/>
       <c r="K677" t="inlineStr">
         <is>
@@ -23291,7 +23817,7 @@
         <v>-11168.90209638036</v>
       </c>
       <c r="H678" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I678" t="n">
         <v>15960</v>
@@ -23330,7 +23856,7 @@
         <v>-11180.33579638036</v>
       </c>
       <c r="H679" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I679" t="n">
         <v>15960</v>
@@ -23369,7 +23895,7 @@
         <v>-11196.64819638036</v>
       </c>
       <c r="H680" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I680" t="n">
         <v>15860</v>
@@ -23408,7 +23934,7 @@
         <v>-11161.66199638036</v>
       </c>
       <c r="H681" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I681" t="n">
         <v>15850</v>
@@ -23447,7 +23973,7 @@
         <v>-11107.68019638036</v>
       </c>
       <c r="H682" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I682" t="n">
         <v>15950</v>
@@ -23486,7 +24012,7 @@
         <v>-11155.26869638036</v>
       </c>
       <c r="H683" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I683" t="n">
         <v>15960</v>
@@ -23525,7 +24051,7 @@
         <v>-11155.26869638036</v>
       </c>
       <c r="H684" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I684" t="n">
         <v>15950</v>
@@ -23564,7 +24090,7 @@
         <v>-11158.61209638036</v>
       </c>
       <c r="H685" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I685" t="n">
         <v>15950</v>
@@ -23603,7 +24129,7 @@
         <v>-11158.61209638036</v>
       </c>
       <c r="H686" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I686" t="n">
         <v>15870</v>
@@ -23642,7 +24168,7 @@
         <v>-11158.61209638036</v>
       </c>
       <c r="H687" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I687" t="n">
         <v>15870</v>
@@ -23681,7 +24207,7 @@
         <v>-11249.73089638036</v>
       </c>
       <c r="H688" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I688" t="n">
         <v>15870</v>
@@ -23720,7 +24246,7 @@
         <v>-11153.05139638036</v>
       </c>
       <c r="H689" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I689" t="n">
         <v>15860</v>
@@ -23759,7 +24285,7 @@
         <v>-11201.45839638036</v>
       </c>
       <c r="H690" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I690" t="n">
         <v>15950</v>
@@ -23798,7 +24324,7 @@
         <v>-11201.45839638036</v>
       </c>
       <c r="H691" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I691" t="n">
         <v>15890</v>
@@ -23837,7 +24363,7 @@
         <v>-11201.45839638036</v>
       </c>
       <c r="H692" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I692" t="n">
         <v>15890</v>
@@ -23876,7 +24402,7 @@
         <v>-11258.83369638036</v>
       </c>
       <c r="H693" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I693" t="n">
         <v>15890</v>
@@ -23915,7 +24441,7 @@
         <v>-11311.50919638036</v>
       </c>
       <c r="H694" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I694" t="n">
         <v>15860</v>
@@ -23954,7 +24480,7 @@
         <v>-11311.50919638036</v>
       </c>
       <c r="H695" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I695" t="n">
         <v>15850</v>
@@ -23993,7 +24519,7 @@
         <v>-11349.56669638036</v>
       </c>
       <c r="H696" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I696" t="n">
         <v>15850</v>
@@ -24032,7 +24558,7 @@
         <v>-11581.71669638036</v>
       </c>
       <c r="H697" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I697" t="n">
         <v>15820</v>
@@ -24071,7 +24597,7 @@
         <v>-11553.71669638036</v>
       </c>
       <c r="H698" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I698" t="n">
         <v>15800</v>
@@ -24110,7 +24636,7 @@
         <v>-11314.12559638036</v>
       </c>
       <c r="H699" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I699" t="n">
         <v>15810</v>
@@ -24149,7 +24675,7 @@
         <v>-11313.18220015395</v>
       </c>
       <c r="H700" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I700" t="n">
         <v>15820</v>
@@ -24188,7 +24714,7 @@
         <v>-11346.15370015395</v>
       </c>
       <c r="H701" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I701" t="n">
         <v>15900</v>
@@ -24227,7 +24753,7 @@
         <v>-11247.38919638036</v>
       </c>
       <c r="H702" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I702" t="n">
         <v>15810</v>
@@ -24266,7 +24792,7 @@
         <v>-11247.38919638036</v>
       </c>
       <c r="H703" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I703" t="n">
         <v>15900</v>
@@ -24305,7 +24831,7 @@
         <v>-11209.66349638036</v>
       </c>
       <c r="H704" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I704" t="n">
         <v>15900</v>
@@ -24344,7 +24870,7 @@
         <v>-11209.66349638036</v>
       </c>
       <c r="H705" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I705" t="n">
         <v>15930</v>
@@ -24383,7 +24909,7 @@
         <v>-11215.04929638036</v>
       </c>
       <c r="H706" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I706" t="n">
         <v>15930</v>
@@ -24422,7 +24948,7 @@
         <v>-11247.56539638036</v>
       </c>
       <c r="H707" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I707" t="n">
         <v>15920</v>
@@ -24461,7 +24987,7 @@
         <v>-11557.46749260677</v>
       </c>
       <c r="H708" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I708" t="n">
         <v>15910</v>
@@ -24500,7 +25026,7 @@
         <v>-11532.23039260677</v>
       </c>
       <c r="H709" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I709" t="n">
         <v>15830</v>
@@ -24539,7 +25065,7 @@
         <v>-11479.30159260677</v>
       </c>
       <c r="H710" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I710" t="n">
         <v>15890</v>
@@ -24578,7 +25104,7 @@
         <v>-11442.97439260677</v>
       </c>
       <c r="H711" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I711" t="n">
         <v>15970</v>
@@ -24617,9 +25143,11 @@
         <v>-11442.97439260677</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
-      </c>
-      <c r="I712" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I712" t="n">
+        <v>15990</v>
+      </c>
       <c r="J712" t="inlineStr"/>
       <c r="K712" t="inlineStr">
         <is>
@@ -24654,9 +25182,11 @@
         <v>-11442.97439260677</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
-      </c>
-      <c r="I713" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I713" t="n">
+        <v>15990</v>
+      </c>
       <c r="J713" t="inlineStr"/>
       <c r="K713" t="inlineStr">
         <is>
@@ -24691,9 +25221,11 @@
         <v>-11446.54329260678</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
-      </c>
-      <c r="I714" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I714" t="n">
+        <v>15990</v>
+      </c>
       <c r="J714" t="inlineStr"/>
       <c r="K714" t="inlineStr">
         <is>
@@ -24728,9 +25260,11 @@
         <v>-11450.11219260678</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
-      </c>
-      <c r="I715" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I715" t="n">
+        <v>15900</v>
+      </c>
       <c r="J715" t="inlineStr"/>
       <c r="K715" t="inlineStr">
         <is>
@@ -24765,9 +25299,11 @@
         <v>-11450.11219260678</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
-      </c>
-      <c r="I716" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I716" t="n">
+        <v>15890</v>
+      </c>
       <c r="J716" t="inlineStr"/>
       <c r="K716" t="inlineStr">
         <is>
@@ -24802,9 +25338,11 @@
         <v>-11479.00599260678</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
-      </c>
-      <c r="I717" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I717" t="n">
+        <v>15890</v>
+      </c>
       <c r="J717" t="inlineStr"/>
       <c r="K717" t="inlineStr">
         <is>
@@ -24839,9 +25377,11 @@
         <v>-11263.76739260677</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
-      </c>
-      <c r="I718" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I718" t="n">
+        <v>15840</v>
+      </c>
       <c r="J718" t="inlineStr"/>
       <c r="K718" t="inlineStr">
         <is>
@@ -24876,7 +25416,7 @@
         <v>-11183.76739260677</v>
       </c>
       <c r="H719" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I719" t="n">
         <v>15900</v>
@@ -24915,9 +25455,11 @@
         <v>-11256.08139260677</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
-      </c>
-      <c r="I720" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I720" t="n">
+        <v>15930</v>
+      </c>
       <c r="J720" t="inlineStr"/>
       <c r="K720" t="inlineStr">
         <is>
@@ -24952,9 +25494,11 @@
         <v>-11328.45889260678</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
-      </c>
-      <c r="I721" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I721" t="n">
+        <v>15910</v>
+      </c>
       <c r="J721" t="inlineStr"/>
       <c r="K721" t="inlineStr">
         <is>
@@ -24989,9 +25533,11 @@
         <v>-11328.45889260678</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
-      </c>
-      <c r="I722" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I722" t="n">
+        <v>15870</v>
+      </c>
       <c r="J722" t="inlineStr"/>
       <c r="K722" t="inlineStr">
         <is>
@@ -25026,9 +25572,11 @@
         <v>-11322.76479260677</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
-      </c>
-      <c r="I723" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I723" t="n">
+        <v>15870</v>
+      </c>
       <c r="J723" t="inlineStr"/>
       <c r="K723" t="inlineStr">
         <is>
@@ -25063,9 +25611,11 @@
         <v>-11275.87399260678</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
-      </c>
-      <c r="I724" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I724" t="n">
+        <v>15990</v>
+      </c>
       <c r="J724" t="inlineStr"/>
       <c r="K724" t="inlineStr">
         <is>
@@ -25100,9 +25650,11 @@
         <v>-11275.87399260678</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
-      </c>
-      <c r="I725" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I725" t="n">
+        <v>16040</v>
+      </c>
       <c r="J725" t="inlineStr"/>
       <c r="K725" t="inlineStr">
         <is>
@@ -25137,9 +25689,11 @@
         <v>-11275.87399260678</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
-      </c>
-      <c r="I726" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I726" t="n">
+        <v>16040</v>
+      </c>
       <c r="J726" t="inlineStr"/>
       <c r="K726" t="inlineStr">
         <is>
@@ -25174,9 +25728,11 @@
         <v>-11275.87399260678</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
-      </c>
-      <c r="I727" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I727" t="n">
+        <v>16040</v>
+      </c>
       <c r="J727" t="inlineStr"/>
       <c r="K727" t="inlineStr">
         <is>
@@ -25211,9 +25767,11 @@
         <v>-11425.40459260678</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
-      </c>
-      <c r="I728" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I728" t="n">
+        <v>16040</v>
+      </c>
       <c r="J728" t="inlineStr"/>
       <c r="K728" t="inlineStr">
         <is>
@@ -25248,9 +25806,11 @@
         <v>-11421.59459260678</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
-      </c>
-      <c r="I729" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I729" t="n">
+        <v>15980</v>
+      </c>
       <c r="J729" t="inlineStr"/>
       <c r="K729" t="inlineStr">
         <is>
@@ -25285,9 +25845,11 @@
         <v>-11421.59459260678</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
-      </c>
-      <c r="I730" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I730" t="n">
+        <v>16040</v>
+      </c>
       <c r="J730" t="inlineStr"/>
       <c r="K730" t="inlineStr">
         <is>
@@ -25322,9 +25884,11 @@
         <v>-11421.59459260678</v>
       </c>
       <c r="H731" t="n">
-        <v>0</v>
-      </c>
-      <c r="I731" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I731" t="n">
+        <v>16040</v>
+      </c>
       <c r="J731" t="inlineStr"/>
       <c r="K731" t="inlineStr">
         <is>
@@ -25359,9 +25923,11 @@
         <v>-11377.00459260678</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
-      </c>
-      <c r="I732" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I732" t="n">
+        <v>16040</v>
+      </c>
       <c r="J732" t="inlineStr"/>
       <c r="K732" t="inlineStr">
         <is>
@@ -25396,9 +25962,11 @@
         <v>-11377.00459260678</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
-      </c>
-      <c r="I733" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I733" t="n">
+        <v>16050</v>
+      </c>
       <c r="J733" t="inlineStr"/>
       <c r="K733" t="inlineStr">
         <is>
@@ -25433,9 +26001,11 @@
         <v>-11473.68409260678</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
-      </c>
-      <c r="I734" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I734" t="n">
+        <v>16050</v>
+      </c>
       <c r="J734" t="inlineStr"/>
       <c r="K734" t="inlineStr">
         <is>
@@ -25470,9 +26040,11 @@
         <v>-11466.64149260678</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
-      </c>
-      <c r="I735" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I735" t="n">
+        <v>15980</v>
+      </c>
       <c r="J735" t="inlineStr"/>
       <c r="K735" t="inlineStr">
         <is>
@@ -25507,9 +26079,11 @@
         <v>-11416.96809260678</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
-      </c>
-      <c r="I736" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I736" t="n">
+        <v>16000</v>
+      </c>
       <c r="J736" t="inlineStr"/>
       <c r="K736" t="inlineStr">
         <is>
@@ -25544,9 +26118,11 @@
         <v>-11424.01069260678</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
-      </c>
-      <c r="I737" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I737" t="n">
+        <v>16050</v>
+      </c>
       <c r="J737" t="inlineStr"/>
       <c r="K737" t="inlineStr">
         <is>
@@ -25581,9 +26157,11 @@
         <v>-11369.73859260678</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
-      </c>
-      <c r="I738" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I738" t="n">
+        <v>16010</v>
+      </c>
       <c r="J738" t="inlineStr"/>
       <c r="K738" t="inlineStr">
         <is>
@@ -25618,9 +26196,11 @@
         <v>-11381.79719260678</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
-      </c>
-      <c r="I739" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I739" t="n">
+        <v>16060</v>
+      </c>
       <c r="J739" t="inlineStr"/>
       <c r="K739" t="inlineStr">
         <is>
@@ -25655,9 +26235,11 @@
         <v>-10880.16786079985</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
-      </c>
-      <c r="I740" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I740" t="n">
+        <v>16050</v>
+      </c>
       <c r="J740" t="inlineStr"/>
       <c r="K740" t="inlineStr">
         <is>
@@ -25692,9 +26274,11 @@
         <v>-10910.83764531997</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
-      </c>
-      <c r="I741" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I741" t="n">
+        <v>16160</v>
+      </c>
       <c r="J741" t="inlineStr"/>
       <c r="K741" t="inlineStr">
         <is>
@@ -25729,9 +26313,11 @@
         <v>-11071.50974531997</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
-      </c>
-      <c r="I742" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I742" t="n">
+        <v>16150</v>
+      </c>
       <c r="J742" t="inlineStr"/>
       <c r="K742" t="inlineStr">
         <is>
@@ -25766,9 +26352,11 @@
         <v>-11071.50974531997</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
-      </c>
-      <c r="I743" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I743" t="n">
+        <v>16000</v>
+      </c>
       <c r="J743" t="inlineStr"/>
       <c r="K743" t="inlineStr">
         <is>
@@ -25803,9 +26391,11 @@
         <v>-11071.20858817711</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
-      </c>
-      <c r="I744" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I744" t="n">
+        <v>16000</v>
+      </c>
       <c r="J744" t="inlineStr"/>
       <c r="K744" t="inlineStr">
         <is>
@@ -25840,9 +26430,11 @@
         <v>-11071.12338817711</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
-      </c>
-      <c r="I745" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I745" t="n">
+        <v>16010</v>
+      </c>
       <c r="J745" t="inlineStr"/>
       <c r="K745" t="inlineStr">
         <is>
@@ -25877,9 +26469,11 @@
         <v>-11107.37638817711</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
-      </c>
-      <c r="I746" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I746" t="n">
+        <v>16090</v>
+      </c>
       <c r="J746" t="inlineStr"/>
       <c r="K746" t="inlineStr">
         <is>
@@ -25914,9 +26508,11 @@
         <v>-11107.29378817711</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
-      </c>
-      <c r="I747" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I747" t="n">
+        <v>16010</v>
+      </c>
       <c r="J747" t="inlineStr"/>
       <c r="K747" t="inlineStr">
         <is>
@@ -25951,9 +26547,11 @@
         <v>-11107.29378817711</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
-      </c>
-      <c r="I748" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I748" t="n">
+        <v>16100</v>
+      </c>
       <c r="J748" t="inlineStr"/>
       <c r="K748" t="inlineStr">
         <is>
@@ -25988,9 +26586,11 @@
         <v>-11364.93898817711</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
-      </c>
-      <c r="I749" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I749" t="n">
+        <v>16100</v>
+      </c>
       <c r="J749" t="inlineStr"/>
       <c r="K749" t="inlineStr">
         <is>
@@ -26025,9 +26625,11 @@
         <v>-11364.61898817711</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
-      </c>
-      <c r="I750" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I750" t="n">
+        <v>16000</v>
+      </c>
       <c r="J750" t="inlineStr"/>
       <c r="K750" t="inlineStr">
         <is>
@@ -26062,9 +26664,11 @@
         <v>-11365.83538817711</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
-      </c>
-      <c r="I751" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I751" t="n">
+        <v>16100</v>
+      </c>
       <c r="J751" t="inlineStr"/>
       <c r="K751" t="inlineStr">
         <is>
@@ -26099,9 +26703,11 @@
         <v>-11365.83538817711</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
-      </c>
-      <c r="I752" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I752" t="n">
+        <v>16030</v>
+      </c>
       <c r="J752" t="inlineStr"/>
       <c r="K752" t="inlineStr">
         <is>
@@ -26136,9 +26742,11 @@
         <v>-11356.82998817711</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
-      </c>
-      <c r="I753" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I753" t="n">
+        <v>16030</v>
+      </c>
       <c r="J753" t="inlineStr"/>
       <c r="K753" t="inlineStr">
         <is>
@@ -26151,6 +26759,6 @@
       <c r="M753" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest REP.xlsx
+++ b/BackTest/2020-01-19 BackTest REP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>2025.471048636621</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>1434.278948636621</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>1221.792048636621</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>876.016048636621</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>474.787148636621</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>81.97074863662101</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>273.002648636621</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-119.626951363379</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-1139.850951363379</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-797.006451363379</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-647.238451363379</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-725.681951363379</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-650.209851363379</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-101.390051363379</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-158.959151363379</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-330.714251363379</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-330.714251363379</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-330.714251363379</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-786.897851363379</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-1305.999351363379</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -16852,2084 +16852,1788 @@
         <v>-11165.78781549181</v>
       </c>
       <c r="H499" t="n">
-        <v>1</v>
-      </c>
-      <c r="I499" t="n">
+        <v>0</v>
+      </c>
+      <c r="I499" t="inlineStr"/>
+      <c r="J499" t="inlineStr"/>
+      <c r="K499" t="inlineStr"/>
+      <c r="L499" t="n">
+        <v>1</v>
+      </c>
+      <c r="M499" t="inlineStr"/>
+    </row>
+    <row r="500">
+      <c r="A500" s="1" t="n">
+        <v>498</v>
+      </c>
+      <c r="B500" t="n">
+        <v>16010</v>
+      </c>
+      <c r="C500" t="n">
+        <v>16060</v>
+      </c>
+      <c r="D500" t="n">
+        <v>16060</v>
+      </c>
+      <c r="E500" t="n">
+        <v>16010</v>
+      </c>
+      <c r="F500" t="n">
+        <v>13.2012</v>
+      </c>
+      <c r="G500" t="n">
+        <v>-11152.58661549181</v>
+      </c>
+      <c r="H500" t="n">
+        <v>0</v>
+      </c>
+      <c r="I500" t="inlineStr"/>
+      <c r="J500" t="inlineStr"/>
+      <c r="K500" t="inlineStr"/>
+      <c r="L500" t="n">
+        <v>1</v>
+      </c>
+      <c r="M500" t="inlineStr"/>
+    </row>
+    <row r="501">
+      <c r="A501" s="1" t="n">
+        <v>499</v>
+      </c>
+      <c r="B501" t="n">
+        <v>16060</v>
+      </c>
+      <c r="C501" t="n">
+        <v>16040</v>
+      </c>
+      <c r="D501" t="n">
+        <v>16060</v>
+      </c>
+      <c r="E501" t="n">
+        <v>16040</v>
+      </c>
+      <c r="F501" t="n">
+        <v>10.7752</v>
+      </c>
+      <c r="G501" t="n">
+        <v>-11163.36181549181</v>
+      </c>
+      <c r="H501" t="n">
+        <v>0</v>
+      </c>
+      <c r="I501" t="inlineStr"/>
+      <c r="J501" t="inlineStr"/>
+      <c r="K501" t="inlineStr"/>
+      <c r="L501" t="n">
+        <v>1</v>
+      </c>
+      <c r="M501" t="inlineStr"/>
+    </row>
+    <row r="502">
+      <c r="A502" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="B502" t="n">
+        <v>16040</v>
+      </c>
+      <c r="C502" t="n">
+        <v>16040</v>
+      </c>
+      <c r="D502" t="n">
+        <v>16040</v>
+      </c>
+      <c r="E502" t="n">
+        <v>16040</v>
+      </c>
+      <c r="F502" t="n">
+        <v>272.7295</v>
+      </c>
+      <c r="G502" t="n">
+        <v>-11163.36181549181</v>
+      </c>
+      <c r="H502" t="n">
+        <v>0</v>
+      </c>
+      <c r="I502" t="inlineStr"/>
+      <c r="J502" t="inlineStr"/>
+      <c r="K502" t="inlineStr"/>
+      <c r="L502" t="n">
+        <v>1</v>
+      </c>
+      <c r="M502" t="inlineStr"/>
+    </row>
+    <row r="503">
+      <c r="A503" s="1" t="n">
+        <v>501</v>
+      </c>
+      <c r="B503" t="n">
+        <v>16040</v>
+      </c>
+      <c r="C503" t="n">
+        <v>16040</v>
+      </c>
+      <c r="D503" t="n">
+        <v>16040</v>
+      </c>
+      <c r="E503" t="n">
+        <v>16040</v>
+      </c>
+      <c r="F503" t="n">
+        <v>44.9941</v>
+      </c>
+      <c r="G503" t="n">
+        <v>-11163.36181549181</v>
+      </c>
+      <c r="H503" t="n">
+        <v>0</v>
+      </c>
+      <c r="I503" t="inlineStr"/>
+      <c r="J503" t="inlineStr"/>
+      <c r="K503" t="inlineStr"/>
+      <c r="L503" t="n">
+        <v>1</v>
+      </c>
+      <c r="M503" t="inlineStr"/>
+    </row>
+    <row r="504">
+      <c r="A504" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="B504" t="n">
+        <v>16040</v>
+      </c>
+      <c r="C504" t="n">
+        <v>16040</v>
+      </c>
+      <c r="D504" t="n">
+        <v>16040</v>
+      </c>
+      <c r="E504" t="n">
+        <v>16040</v>
+      </c>
+      <c r="F504" t="n">
+        <v>227.5277</v>
+      </c>
+      <c r="G504" t="n">
+        <v>-11163.36181549181</v>
+      </c>
+      <c r="H504" t="n">
+        <v>0</v>
+      </c>
+      <c r="I504" t="inlineStr"/>
+      <c r="J504" t="inlineStr"/>
+      <c r="K504" t="inlineStr"/>
+      <c r="L504" t="n">
+        <v>1</v>
+      </c>
+      <c r="M504" t="inlineStr"/>
+    </row>
+    <row r="505">
+      <c r="A505" s="1" t="n">
+        <v>503</v>
+      </c>
+      <c r="B505" t="n">
+        <v>16000</v>
+      </c>
+      <c r="C505" t="n">
+        <v>15950</v>
+      </c>
+      <c r="D505" t="n">
+        <v>16040</v>
+      </c>
+      <c r="E505" t="n">
+        <v>15950</v>
+      </c>
+      <c r="F505" t="n">
+        <v>423.9778</v>
+      </c>
+      <c r="G505" t="n">
+        <v>-11587.33961549181</v>
+      </c>
+      <c r="H505" t="n">
+        <v>0</v>
+      </c>
+      <c r="I505" t="inlineStr"/>
+      <c r="J505" t="inlineStr"/>
+      <c r="K505" t="inlineStr"/>
+      <c r="L505" t="n">
+        <v>1</v>
+      </c>
+      <c r="M505" t="inlineStr"/>
+    </row>
+    <row r="506">
+      <c r="A506" s="1" t="n">
+        <v>504</v>
+      </c>
+      <c r="B506" t="n">
+        <v>15980</v>
+      </c>
+      <c r="C506" t="n">
+        <v>15860</v>
+      </c>
+      <c r="D506" t="n">
+        <v>15980</v>
+      </c>
+      <c r="E506" t="n">
+        <v>15860</v>
+      </c>
+      <c r="F506" t="n">
+        <v>294.1193</v>
+      </c>
+      <c r="G506" t="n">
+        <v>-11881.45891549181</v>
+      </c>
+      <c r="H506" t="n">
+        <v>0</v>
+      </c>
+      <c r="I506" t="inlineStr"/>
+      <c r="J506" t="inlineStr"/>
+      <c r="K506" t="inlineStr"/>
+      <c r="L506" t="n">
+        <v>1</v>
+      </c>
+      <c r="M506" t="inlineStr"/>
+    </row>
+    <row r="507">
+      <c r="A507" s="1" t="n">
+        <v>505</v>
+      </c>
+      <c r="B507" t="n">
+        <v>15900</v>
+      </c>
+      <c r="C507" t="n">
+        <v>15900</v>
+      </c>
+      <c r="D507" t="n">
+        <v>15900</v>
+      </c>
+      <c r="E507" t="n">
+        <v>15900</v>
+      </c>
+      <c r="F507" t="n">
+        <v>515.3262999999999</v>
+      </c>
+      <c r="G507" t="n">
+        <v>-11366.13261549181</v>
+      </c>
+      <c r="H507" t="n">
+        <v>0</v>
+      </c>
+      <c r="I507" t="inlineStr"/>
+      <c r="J507" t="inlineStr"/>
+      <c r="K507" t="inlineStr"/>
+      <c r="L507" t="n">
+        <v>1</v>
+      </c>
+      <c r="M507" t="inlineStr"/>
+    </row>
+    <row r="508">
+      <c r="A508" s="1" t="n">
+        <v>506</v>
+      </c>
+      <c r="B508" t="n">
+        <v>15910</v>
+      </c>
+      <c r="C508" t="n">
+        <v>15910</v>
+      </c>
+      <c r="D508" t="n">
+        <v>15910</v>
+      </c>
+      <c r="E508" t="n">
+        <v>15910</v>
+      </c>
+      <c r="F508" t="n">
+        <v>5.9064</v>
+      </c>
+      <c r="G508" t="n">
+        <v>-11360.22621549181</v>
+      </c>
+      <c r="H508" t="n">
+        <v>0</v>
+      </c>
+      <c r="I508" t="inlineStr"/>
+      <c r="J508" t="inlineStr"/>
+      <c r="K508" t="inlineStr"/>
+      <c r="L508" t="n">
+        <v>1</v>
+      </c>
+      <c r="M508" t="inlineStr"/>
+    </row>
+    <row r="509">
+      <c r="A509" s="1" t="n">
+        <v>507</v>
+      </c>
+      <c r="B509" t="n">
+        <v>15910</v>
+      </c>
+      <c r="C509" t="n">
+        <v>15910</v>
+      </c>
+      <c r="D509" t="n">
+        <v>15910</v>
+      </c>
+      <c r="E509" t="n">
+        <v>15900</v>
+      </c>
+      <c r="F509" t="n">
+        <v>217.9769</v>
+      </c>
+      <c r="G509" t="n">
+        <v>-11360.22621549181</v>
+      </c>
+      <c r="H509" t="n">
+        <v>0</v>
+      </c>
+      <c r="I509" t="inlineStr"/>
+      <c r="J509" t="inlineStr"/>
+      <c r="K509" t="inlineStr"/>
+      <c r="L509" t="n">
+        <v>1</v>
+      </c>
+      <c r="M509" t="inlineStr"/>
+    </row>
+    <row r="510">
+      <c r="A510" s="1" t="n">
+        <v>508</v>
+      </c>
+      <c r="B510" t="n">
+        <v>15910</v>
+      </c>
+      <c r="C510" t="n">
+        <v>16000</v>
+      </c>
+      <c r="D510" t="n">
+        <v>16000</v>
+      </c>
+      <c r="E510" t="n">
+        <v>15910</v>
+      </c>
+      <c r="F510" t="n">
+        <v>317.4184</v>
+      </c>
+      <c r="G510" t="n">
+        <v>-11042.80781549181</v>
+      </c>
+      <c r="H510" t="n">
+        <v>0</v>
+      </c>
+      <c r="I510" t="inlineStr"/>
+      <c r="J510" t="inlineStr"/>
+      <c r="K510" t="inlineStr"/>
+      <c r="L510" t="n">
+        <v>1</v>
+      </c>
+      <c r="M510" t="inlineStr"/>
+    </row>
+    <row r="511">
+      <c r="A511" s="1" t="n">
+        <v>509</v>
+      </c>
+      <c r="B511" t="n">
+        <v>16000</v>
+      </c>
+      <c r="C511" t="n">
+        <v>16000</v>
+      </c>
+      <c r="D511" t="n">
+        <v>16000</v>
+      </c>
+      <c r="E511" t="n">
+        <v>16000</v>
+      </c>
+      <c r="F511" t="n">
+        <v>113.5987</v>
+      </c>
+      <c r="G511" t="n">
+        <v>-11042.80781549181</v>
+      </c>
+      <c r="H511" t="n">
+        <v>0</v>
+      </c>
+      <c r="I511" t="inlineStr"/>
+      <c r="J511" t="inlineStr"/>
+      <c r="K511" t="inlineStr"/>
+      <c r="L511" t="n">
+        <v>1</v>
+      </c>
+      <c r="M511" t="inlineStr"/>
+    </row>
+    <row r="512">
+      <c r="A512" s="1" t="n">
+        <v>510</v>
+      </c>
+      <c r="B512" t="n">
+        <v>16000</v>
+      </c>
+      <c r="C512" t="n">
+        <v>16000</v>
+      </c>
+      <c r="D512" t="n">
+        <v>16000</v>
+      </c>
+      <c r="E512" t="n">
+        <v>16000</v>
+      </c>
+      <c r="F512" t="n">
+        <v>2.8656</v>
+      </c>
+      <c r="G512" t="n">
+        <v>-11042.80781549181</v>
+      </c>
+      <c r="H512" t="n">
+        <v>0</v>
+      </c>
+      <c r="I512" t="inlineStr"/>
+      <c r="J512" t="inlineStr"/>
+      <c r="K512" t="inlineStr"/>
+      <c r="L512" t="n">
+        <v>1</v>
+      </c>
+      <c r="M512" t="inlineStr"/>
+    </row>
+    <row r="513">
+      <c r="A513" s="1" t="n">
+        <v>511</v>
+      </c>
+      <c r="B513" t="n">
+        <v>15970</v>
+      </c>
+      <c r="C513" t="n">
+        <v>16100</v>
+      </c>
+      <c r="D513" t="n">
+        <v>16100</v>
+      </c>
+      <c r="E513" t="n">
+        <v>15970</v>
+      </c>
+      <c r="F513" t="n">
+        <v>210.71</v>
+      </c>
+      <c r="G513" t="n">
+        <v>-10832.09781549181</v>
+      </c>
+      <c r="H513" t="n">
+        <v>0</v>
+      </c>
+      <c r="I513" t="inlineStr"/>
+      <c r="J513" t="inlineStr"/>
+      <c r="K513" t="inlineStr"/>
+      <c r="L513" t="n">
+        <v>1</v>
+      </c>
+      <c r="M513" t="inlineStr"/>
+    </row>
+    <row r="514">
+      <c r="A514" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="B514" t="n">
+        <v>15990</v>
+      </c>
+      <c r="C514" t="n">
+        <v>15980</v>
+      </c>
+      <c r="D514" t="n">
+        <v>15990</v>
+      </c>
+      <c r="E514" t="n">
+        <v>15980</v>
+      </c>
+      <c r="F514" t="n">
+        <v>41.2259</v>
+      </c>
+      <c r="G514" t="n">
+        <v>-10873.32371549181</v>
+      </c>
+      <c r="H514" t="n">
+        <v>0</v>
+      </c>
+      <c r="I514" t="inlineStr"/>
+      <c r="J514" t="inlineStr"/>
+      <c r="K514" t="inlineStr"/>
+      <c r="L514" t="n">
+        <v>1</v>
+      </c>
+      <c r="M514" t="inlineStr"/>
+    </row>
+    <row r="515">
+      <c r="A515" s="1" t="n">
+        <v>513</v>
+      </c>
+      <c r="B515" t="n">
+        <v>16080</v>
+      </c>
+      <c r="C515" t="n">
+        <v>16080</v>
+      </c>
+      <c r="D515" t="n">
+        <v>16080</v>
+      </c>
+      <c r="E515" t="n">
+        <v>16080</v>
+      </c>
+      <c r="F515" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G515" t="n">
+        <v>-10872.07371549181</v>
+      </c>
+      <c r="H515" t="n">
+        <v>0</v>
+      </c>
+      <c r="I515" t="inlineStr"/>
+      <c r="J515" t="inlineStr"/>
+      <c r="K515" t="inlineStr"/>
+      <c r="L515" t="n">
+        <v>1</v>
+      </c>
+      <c r="M515" t="inlineStr"/>
+    </row>
+    <row r="516">
+      <c r="A516" s="1" t="n">
+        <v>514</v>
+      </c>
+      <c r="B516" t="n">
+        <v>16010</v>
+      </c>
+      <c r="C516" t="n">
+        <v>16010</v>
+      </c>
+      <c r="D516" t="n">
+        <v>16010</v>
+      </c>
+      <c r="E516" t="n">
+        <v>16010</v>
+      </c>
+      <c r="F516" t="n">
+        <v>1.0818</v>
+      </c>
+      <c r="G516" t="n">
+        <v>-10873.15551549181</v>
+      </c>
+      <c r="H516" t="n">
+        <v>0</v>
+      </c>
+      <c r="I516" t="inlineStr"/>
+      <c r="J516" t="inlineStr"/>
+      <c r="K516" t="inlineStr"/>
+      <c r="L516" t="n">
+        <v>1</v>
+      </c>
+      <c r="M516" t="inlineStr"/>
+    </row>
+    <row r="517">
+      <c r="A517" s="1" t="n">
+        <v>515</v>
+      </c>
+      <c r="B517" t="n">
+        <v>16010</v>
+      </c>
+      <c r="C517" t="n">
+        <v>15960</v>
+      </c>
+      <c r="D517" t="n">
+        <v>16090</v>
+      </c>
+      <c r="E517" t="n">
+        <v>15960</v>
+      </c>
+      <c r="F517" t="n">
+        <v>216.0845</v>
+      </c>
+      <c r="G517" t="n">
+        <v>-11089.24001549181</v>
+      </c>
+      <c r="H517" t="n">
+        <v>0</v>
+      </c>
+      <c r="I517" t="inlineStr"/>
+      <c r="J517" t="inlineStr"/>
+      <c r="K517" t="inlineStr"/>
+      <c r="L517" t="n">
+        <v>1</v>
+      </c>
+      <c r="M517" t="inlineStr"/>
+    </row>
+    <row r="518">
+      <c r="A518" s="1" t="n">
+        <v>516</v>
+      </c>
+      <c r="B518" t="n">
+        <v>16070</v>
+      </c>
+      <c r="C518" t="n">
+        <v>16070</v>
+      </c>
+      <c r="D518" t="n">
+        <v>16070</v>
+      </c>
+      <c r="E518" t="n">
+        <v>16070</v>
+      </c>
+      <c r="F518" t="n">
+        <v>15.8114</v>
+      </c>
+      <c r="G518" t="n">
+        <v>-11073.42861549181</v>
+      </c>
+      <c r="H518" t="n">
+        <v>0</v>
+      </c>
+      <c r="I518" t="inlineStr"/>
+      <c r="J518" t="inlineStr"/>
+      <c r="K518" t="inlineStr"/>
+      <c r="L518" t="n">
+        <v>1</v>
+      </c>
+      <c r="M518" t="inlineStr"/>
+    </row>
+    <row r="519">
+      <c r="A519" s="1" t="n">
+        <v>517</v>
+      </c>
+      <c r="B519" t="n">
+        <v>16040</v>
+      </c>
+      <c r="C519" t="n">
+        <v>16020</v>
+      </c>
+      <c r="D519" t="n">
+        <v>16040</v>
+      </c>
+      <c r="E519" t="n">
+        <v>16020</v>
+      </c>
+      <c r="F519" t="n">
+        <v>27.2833</v>
+      </c>
+      <c r="G519" t="n">
+        <v>-11100.71191549181</v>
+      </c>
+      <c r="H519" t="n">
+        <v>0</v>
+      </c>
+      <c r="I519" t="inlineStr"/>
+      <c r="J519" t="inlineStr"/>
+      <c r="K519" t="inlineStr"/>
+      <c r="L519" t="n">
+        <v>1</v>
+      </c>
+      <c r="M519" t="inlineStr"/>
+    </row>
+    <row r="520">
+      <c r="A520" s="1" t="n">
+        <v>518</v>
+      </c>
+      <c r="B520" t="n">
+        <v>16090</v>
+      </c>
+      <c r="C520" t="n">
+        <v>16090</v>
+      </c>
+      <c r="D520" t="n">
+        <v>16090</v>
+      </c>
+      <c r="E520" t="n">
+        <v>16090</v>
+      </c>
+      <c r="F520" t="n">
+        <v>1.3906</v>
+      </c>
+      <c r="G520" t="n">
+        <v>-11099.32131549181</v>
+      </c>
+      <c r="H520" t="n">
+        <v>0</v>
+      </c>
+      <c r="I520" t="inlineStr"/>
+      <c r="J520" t="inlineStr"/>
+      <c r="K520" t="inlineStr"/>
+      <c r="L520" t="n">
+        <v>1</v>
+      </c>
+      <c r="M520" t="inlineStr"/>
+    </row>
+    <row r="521">
+      <c r="A521" s="1" t="n">
+        <v>519</v>
+      </c>
+      <c r="B521" t="n">
+        <v>16090</v>
+      </c>
+      <c r="C521" t="n">
+        <v>16090</v>
+      </c>
+      <c r="D521" t="n">
+        <v>16090</v>
+      </c>
+      <c r="E521" t="n">
+        <v>16090</v>
+      </c>
+      <c r="F521" t="n">
+        <v>3.6094</v>
+      </c>
+      <c r="G521" t="n">
+        <v>-11099.32131549181</v>
+      </c>
+      <c r="H521" t="n">
+        <v>0</v>
+      </c>
+      <c r="I521" t="inlineStr"/>
+      <c r="J521" t="inlineStr"/>
+      <c r="K521" t="inlineStr"/>
+      <c r="L521" t="n">
+        <v>1</v>
+      </c>
+      <c r="M521" t="inlineStr"/>
+    </row>
+    <row r="522">
+      <c r="A522" s="1" t="n">
+        <v>520</v>
+      </c>
+      <c r="B522" t="n">
         <v>16030</v>
       </c>
-      <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr">
+      <c r="C522" t="n">
+        <v>16030</v>
+      </c>
+      <c r="D522" t="n">
+        <v>16030</v>
+      </c>
+      <c r="E522" t="n">
+        <v>16030</v>
+      </c>
+      <c r="F522" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="G522" t="n">
+        <v>-11100.37131549181</v>
+      </c>
+      <c r="H522" t="n">
+        <v>0</v>
+      </c>
+      <c r="I522" t="inlineStr"/>
+      <c r="J522" t="inlineStr"/>
+      <c r="K522" t="inlineStr"/>
+      <c r="L522" t="n">
+        <v>1</v>
+      </c>
+      <c r="M522" t="inlineStr"/>
+    </row>
+    <row r="523">
+      <c r="A523" s="1" t="n">
+        <v>521</v>
+      </c>
+      <c r="B523" t="n">
+        <v>16020</v>
+      </c>
+      <c r="C523" t="n">
+        <v>16020</v>
+      </c>
+      <c r="D523" t="n">
+        <v>16020</v>
+      </c>
+      <c r="E523" t="n">
+        <v>16020</v>
+      </c>
+      <c r="F523" t="n">
+        <v>62.9681</v>
+      </c>
+      <c r="G523" t="n">
+        <v>-11163.33941549181</v>
+      </c>
+      <c r="H523" t="n">
+        <v>0</v>
+      </c>
+      <c r="I523" t="inlineStr"/>
+      <c r="J523" t="inlineStr"/>
+      <c r="K523" t="inlineStr"/>
+      <c r="L523" t="n">
+        <v>1</v>
+      </c>
+      <c r="M523" t="inlineStr"/>
+    </row>
+    <row r="524">
+      <c r="A524" s="1" t="n">
+        <v>522</v>
+      </c>
+      <c r="B524" t="n">
+        <v>15960</v>
+      </c>
+      <c r="C524" t="n">
+        <v>15960</v>
+      </c>
+      <c r="D524" t="n">
+        <v>15960</v>
+      </c>
+      <c r="E524" t="n">
+        <v>15960</v>
+      </c>
+      <c r="F524" t="n">
+        <v>10</v>
+      </c>
+      <c r="G524" t="n">
+        <v>-11173.33941549181</v>
+      </c>
+      <c r="H524" t="n">
+        <v>0</v>
+      </c>
+      <c r="I524" t="inlineStr"/>
+      <c r="J524" t="inlineStr"/>
+      <c r="K524" t="inlineStr"/>
+      <c r="L524" t="n">
+        <v>1</v>
+      </c>
+      <c r="M524" t="inlineStr"/>
+    </row>
+    <row r="525">
+      <c r="A525" s="1" t="n">
+        <v>523</v>
+      </c>
+      <c r="B525" t="n">
+        <v>15980</v>
+      </c>
+      <c r="C525" t="n">
+        <v>15980</v>
+      </c>
+      <c r="D525" t="n">
+        <v>15980</v>
+      </c>
+      <c r="E525" t="n">
+        <v>15980</v>
+      </c>
+      <c r="F525" t="n">
+        <v>15.8162</v>
+      </c>
+      <c r="G525" t="n">
+        <v>-11157.52321549181</v>
+      </c>
+      <c r="H525" t="n">
+        <v>0</v>
+      </c>
+      <c r="I525" t="inlineStr"/>
+      <c r="J525" t="inlineStr"/>
+      <c r="K525" t="inlineStr"/>
+      <c r="L525" t="n">
+        <v>1</v>
+      </c>
+      <c r="M525" t="inlineStr"/>
+    </row>
+    <row r="526">
+      <c r="A526" s="1" t="n">
+        <v>524</v>
+      </c>
+      <c r="B526" t="n">
+        <v>15970</v>
+      </c>
+      <c r="C526" t="n">
+        <v>15970</v>
+      </c>
+      <c r="D526" t="n">
+        <v>15970</v>
+      </c>
+      <c r="E526" t="n">
+        <v>15970</v>
+      </c>
+      <c r="F526" t="n">
+        <v>66.83</v>
+      </c>
+      <c r="G526" t="n">
+        <v>-11224.35321549181</v>
+      </c>
+      <c r="H526" t="n">
+        <v>0</v>
+      </c>
+      <c r="I526" t="inlineStr"/>
+      <c r="J526" t="inlineStr"/>
+      <c r="K526" t="inlineStr"/>
+      <c r="L526" t="n">
+        <v>1</v>
+      </c>
+      <c r="M526" t="inlineStr"/>
+    </row>
+    <row r="527">
+      <c r="A527" s="1" t="n">
+        <v>525</v>
+      </c>
+      <c r="B527" t="n">
+        <v>16000</v>
+      </c>
+      <c r="C527" t="n">
+        <v>15980</v>
+      </c>
+      <c r="D527" t="n">
+        <v>16000</v>
+      </c>
+      <c r="E527" t="n">
+        <v>15970</v>
+      </c>
+      <c r="F527" t="n">
+        <v>26.9881</v>
+      </c>
+      <c r="G527" t="n">
+        <v>-11197.36511549181</v>
+      </c>
+      <c r="H527" t="n">
+        <v>0</v>
+      </c>
+      <c r="I527" t="inlineStr"/>
+      <c r="J527" t="inlineStr"/>
+      <c r="K527" t="inlineStr"/>
+      <c r="L527" t="n">
+        <v>1</v>
+      </c>
+      <c r="M527" t="inlineStr"/>
+    </row>
+    <row r="528">
+      <c r="A528" s="1" t="n">
+        <v>526</v>
+      </c>
+      <c r="B528" t="n">
+        <v>15960</v>
+      </c>
+      <c r="C528" t="n">
+        <v>15960</v>
+      </c>
+      <c r="D528" t="n">
+        <v>15960</v>
+      </c>
+      <c r="E528" t="n">
+        <v>15960</v>
+      </c>
+      <c r="F528" t="n">
+        <v>25.42</v>
+      </c>
+      <c r="G528" t="n">
+        <v>-11222.78511549181</v>
+      </c>
+      <c r="H528" t="n">
+        <v>0</v>
+      </c>
+      <c r="I528" t="inlineStr"/>
+      <c r="J528" t="inlineStr"/>
+      <c r="K528" t="inlineStr"/>
+      <c r="L528" t="n">
+        <v>1</v>
+      </c>
+      <c r="M528" t="inlineStr"/>
+    </row>
+    <row r="529">
+      <c r="A529" s="1" t="n">
+        <v>527</v>
+      </c>
+      <c r="B529" t="n">
+        <v>15960</v>
+      </c>
+      <c r="C529" t="n">
+        <v>15930</v>
+      </c>
+      <c r="D529" t="n">
+        <v>15980</v>
+      </c>
+      <c r="E529" t="n">
+        <v>15930</v>
+      </c>
+      <c r="F529" t="n">
+        <v>181.7386</v>
+      </c>
+      <c r="G529" t="n">
+        <v>-11404.52371549181</v>
+      </c>
+      <c r="H529" t="n">
+        <v>0</v>
+      </c>
+      <c r="I529" t="inlineStr"/>
+      <c r="J529" t="inlineStr"/>
+      <c r="K529" t="inlineStr"/>
+      <c r="L529" t="n">
+        <v>1</v>
+      </c>
+      <c r="M529" t="inlineStr"/>
+    </row>
+    <row r="530">
+      <c r="A530" s="1" t="n">
+        <v>528</v>
+      </c>
+      <c r="B530" t="n">
+        <v>15930</v>
+      </c>
+      <c r="C530" t="n">
+        <v>15900</v>
+      </c>
+      <c r="D530" t="n">
+        <v>15930</v>
+      </c>
+      <c r="E530" t="n">
+        <v>15860</v>
+      </c>
+      <c r="F530" t="n">
+        <v>587.1608</v>
+      </c>
+      <c r="G530" t="n">
+        <v>-11991.68451549181</v>
+      </c>
+      <c r="H530" t="n">
+        <v>0</v>
+      </c>
+      <c r="I530" t="inlineStr"/>
+      <c r="J530" t="inlineStr"/>
+      <c r="K530" t="inlineStr"/>
+      <c r="L530" t="n">
+        <v>1</v>
+      </c>
+      <c r="M530" t="inlineStr"/>
+    </row>
+    <row r="531">
+      <c r="A531" s="1" t="n">
+        <v>529</v>
+      </c>
+      <c r="B531" t="n">
+        <v>15960</v>
+      </c>
+      <c r="C531" t="n">
+        <v>15960</v>
+      </c>
+      <c r="D531" t="n">
+        <v>15960</v>
+      </c>
+      <c r="E531" t="n">
+        <v>15960</v>
+      </c>
+      <c r="F531" t="n">
+        <v>9.9055</v>
+      </c>
+      <c r="G531" t="n">
+        <v>-11981.77901549181</v>
+      </c>
+      <c r="H531" t="n">
+        <v>0</v>
+      </c>
+      <c r="I531" t="inlineStr"/>
+      <c r="J531" t="inlineStr"/>
+      <c r="K531" t="inlineStr"/>
+      <c r="L531" t="n">
+        <v>1</v>
+      </c>
+      <c r="M531" t="inlineStr"/>
+    </row>
+    <row r="532">
+      <c r="A532" s="1" t="n">
+        <v>530</v>
+      </c>
+      <c r="B532" t="n">
+        <v>15990</v>
+      </c>
+      <c r="C532" t="n">
+        <v>15980</v>
+      </c>
+      <c r="D532" t="n">
+        <v>15990</v>
+      </c>
+      <c r="E532" t="n">
+        <v>15970</v>
+      </c>
+      <c r="F532" t="n">
+        <v>30.1245</v>
+      </c>
+      <c r="G532" t="n">
+        <v>-11951.65451549181</v>
+      </c>
+      <c r="H532" t="n">
+        <v>0</v>
+      </c>
+      <c r="I532" t="inlineStr"/>
+      <c r="J532" t="inlineStr"/>
+      <c r="K532" t="inlineStr"/>
+      <c r="L532" t="n">
+        <v>1</v>
+      </c>
+      <c r="M532" t="inlineStr"/>
+    </row>
+    <row r="533">
+      <c r="A533" s="1" t="n">
+        <v>531</v>
+      </c>
+      <c r="B533" t="n">
+        <v>15870</v>
+      </c>
+      <c r="C533" t="n">
+        <v>16000</v>
+      </c>
+      <c r="D533" t="n">
+        <v>16000</v>
+      </c>
+      <c r="E533" t="n">
+        <v>15870</v>
+      </c>
+      <c r="F533" t="n">
+        <v>181.3816</v>
+      </c>
+      <c r="G533" t="n">
+        <v>-11770.27291549181</v>
+      </c>
+      <c r="H533" t="n">
+        <v>0</v>
+      </c>
+      <c r="I533" t="inlineStr"/>
+      <c r="J533" t="inlineStr"/>
+      <c r="K533" t="inlineStr"/>
+      <c r="L533" t="n">
+        <v>1</v>
+      </c>
+      <c r="M533" t="inlineStr"/>
+    </row>
+    <row r="534">
+      <c r="A534" s="1" t="n">
+        <v>532</v>
+      </c>
+      <c r="B534" t="n">
+        <v>16000</v>
+      </c>
+      <c r="C534" t="n">
+        <v>16000</v>
+      </c>
+      <c r="D534" t="n">
+        <v>16000</v>
+      </c>
+      <c r="E534" t="n">
+        <v>16000</v>
+      </c>
+      <c r="F534" t="n">
+        <v>92.9958</v>
+      </c>
+      <c r="G534" t="n">
+        <v>-11770.27291549181</v>
+      </c>
+      <c r="H534" t="n">
+        <v>0</v>
+      </c>
+      <c r="I534" t="inlineStr"/>
+      <c r="J534" t="inlineStr"/>
+      <c r="K534" t="inlineStr"/>
+      <c r="L534" t="n">
+        <v>1</v>
+      </c>
+      <c r="M534" t="inlineStr"/>
+    </row>
+    <row r="535">
+      <c r="A535" s="1" t="n">
+        <v>533</v>
+      </c>
+      <c r="B535" t="n">
+        <v>16000</v>
+      </c>
+      <c r="C535" t="n">
+        <v>15990</v>
+      </c>
+      <c r="D535" t="n">
+        <v>16000</v>
+      </c>
+      <c r="E535" t="n">
+        <v>15990</v>
+      </c>
+      <c r="F535" t="n">
+        <v>29.1362</v>
+      </c>
+      <c r="G535" t="n">
+        <v>-11799.40911549181</v>
+      </c>
+      <c r="H535" t="n">
+        <v>0</v>
+      </c>
+      <c r="I535" t="inlineStr"/>
+      <c r="J535" t="inlineStr"/>
+      <c r="K535" t="inlineStr"/>
+      <c r="L535" t="n">
+        <v>1</v>
+      </c>
+      <c r="M535" t="inlineStr"/>
+    </row>
+    <row r="536">
+      <c r="A536" s="1" t="n">
+        <v>534</v>
+      </c>
+      <c r="B536" t="n">
+        <v>15900</v>
+      </c>
+      <c r="C536" t="n">
+        <v>15890</v>
+      </c>
+      <c r="D536" t="n">
+        <v>15900</v>
+      </c>
+      <c r="E536" t="n">
+        <v>15890</v>
+      </c>
+      <c r="F536" t="n">
+        <v>87.05629999999999</v>
+      </c>
+      <c r="G536" t="n">
+        <v>-11886.46541549181</v>
+      </c>
+      <c r="H536" t="n">
+        <v>0</v>
+      </c>
+      <c r="I536" t="inlineStr"/>
+      <c r="J536" t="inlineStr"/>
+      <c r="K536" t="inlineStr"/>
+      <c r="L536" t="n">
+        <v>1</v>
+      </c>
+      <c r="M536" t="inlineStr"/>
+    </row>
+    <row r="537">
+      <c r="A537" s="1" t="n">
+        <v>535</v>
+      </c>
+      <c r="B537" t="n">
+        <v>15900</v>
+      </c>
+      <c r="C537" t="n">
+        <v>15900</v>
+      </c>
+      <c r="D537" t="n">
+        <v>15980</v>
+      </c>
+      <c r="E537" t="n">
+        <v>15900</v>
+      </c>
+      <c r="F537" t="n">
+        <v>504.8477</v>
+      </c>
+      <c r="G537" t="n">
+        <v>-11381.61771549181</v>
+      </c>
+      <c r="H537" t="n">
+        <v>0</v>
+      </c>
+      <c r="I537" t="inlineStr"/>
+      <c r="J537" t="inlineStr"/>
+      <c r="K537" t="inlineStr"/>
+      <c r="L537" t="n">
+        <v>1</v>
+      </c>
+      <c r="M537" t="inlineStr"/>
+    </row>
+    <row r="538">
+      <c r="A538" s="1" t="n">
+        <v>536</v>
+      </c>
+      <c r="B538" t="n">
+        <v>15880</v>
+      </c>
+      <c r="C538" t="n">
+        <v>15950</v>
+      </c>
+      <c r="D538" t="n">
+        <v>15960</v>
+      </c>
+      <c r="E538" t="n">
+        <v>15880</v>
+      </c>
+      <c r="F538" t="n">
+        <v>56.1212</v>
+      </c>
+      <c r="G538" t="n">
+        <v>-11325.49651549181</v>
+      </c>
+      <c r="H538" t="n">
+        <v>0</v>
+      </c>
+      <c r="I538" t="inlineStr"/>
+      <c r="J538" t="inlineStr"/>
+      <c r="K538" t="inlineStr"/>
+      <c r="L538" t="n">
+        <v>1</v>
+      </c>
+      <c r="M538" t="inlineStr"/>
+    </row>
+    <row r="539">
+      <c r="A539" s="1" t="n">
+        <v>537</v>
+      </c>
+      <c r="B539" t="n">
+        <v>15950</v>
+      </c>
+      <c r="C539" t="n">
+        <v>15960</v>
+      </c>
+      <c r="D539" t="n">
+        <v>15960</v>
+      </c>
+      <c r="E539" t="n">
+        <v>15950</v>
+      </c>
+      <c r="F539" t="n">
+        <v>250.8698</v>
+      </c>
+      <c r="G539" t="n">
+        <v>-11074.62671549181</v>
+      </c>
+      <c r="H539" t="n">
+        <v>0</v>
+      </c>
+      <c r="I539" t="inlineStr"/>
+      <c r="J539" t="inlineStr"/>
+      <c r="K539" t="inlineStr"/>
+      <c r="L539" t="n">
+        <v>1</v>
+      </c>
+      <c r="M539" t="inlineStr"/>
+    </row>
+    <row r="540">
+      <c r="A540" s="1" t="n">
+        <v>538</v>
+      </c>
+      <c r="B540" t="n">
+        <v>15960</v>
+      </c>
+      <c r="C540" t="n">
+        <v>15950</v>
+      </c>
+      <c r="D540" t="n">
+        <v>15960</v>
+      </c>
+      <c r="E540" t="n">
+        <v>15950</v>
+      </c>
+      <c r="F540" t="n">
+        <v>58.9059</v>
+      </c>
+      <c r="G540" t="n">
+        <v>-11133.53261549181</v>
+      </c>
+      <c r="H540" t="n">
+        <v>0</v>
+      </c>
+      <c r="I540" t="inlineStr"/>
+      <c r="J540" t="inlineStr"/>
+      <c r="K540" t="inlineStr"/>
+      <c r="L540" t="n">
+        <v>1</v>
+      </c>
+      <c r="M540" t="inlineStr"/>
+    </row>
+    <row r="541">
+      <c r="A541" s="1" t="n">
+        <v>539</v>
+      </c>
+      <c r="B541" t="n">
+        <v>15950</v>
+      </c>
+      <c r="C541" t="n">
+        <v>15950</v>
+      </c>
+      <c r="D541" t="n">
+        <v>15950</v>
+      </c>
+      <c r="E541" t="n">
+        <v>15950</v>
+      </c>
+      <c r="F541" t="n">
+        <v>13.3122</v>
+      </c>
+      <c r="G541" t="n">
+        <v>-11133.53261549181</v>
+      </c>
+      <c r="H541" t="n">
+        <v>0</v>
+      </c>
+      <c r="I541" t="inlineStr"/>
+      <c r="J541" t="inlineStr"/>
+      <c r="K541" t="inlineStr"/>
+      <c r="L541" t="n">
+        <v>1</v>
+      </c>
+      <c r="M541" t="inlineStr"/>
+    </row>
+    <row r="542">
+      <c r="A542" s="1" t="n">
+        <v>540</v>
+      </c>
+      <c r="B542" t="n">
+        <v>15950</v>
+      </c>
+      <c r="C542" t="n">
+        <v>15950</v>
+      </c>
+      <c r="D542" t="n">
+        <v>15950</v>
+      </c>
+      <c r="E542" t="n">
+        <v>15950</v>
+      </c>
+      <c r="F542" t="n">
+        <v>103.592</v>
+      </c>
+      <c r="G542" t="n">
+        <v>-11133.53261549181</v>
+      </c>
+      <c r="H542" t="n">
+        <v>0</v>
+      </c>
+      <c r="I542" t="inlineStr"/>
+      <c r="J542" t="inlineStr"/>
+      <c r="K542" t="inlineStr"/>
+      <c r="L542" t="n">
+        <v>1</v>
+      </c>
+      <c r="M542" t="inlineStr"/>
+    </row>
+    <row r="543">
+      <c r="A543" s="1" t="n">
+        <v>541</v>
+      </c>
+      <c r="B543" t="n">
+        <v>15950</v>
+      </c>
+      <c r="C543" t="n">
+        <v>15950</v>
+      </c>
+      <c r="D543" t="n">
+        <v>15950</v>
+      </c>
+      <c r="E543" t="n">
+        <v>15950</v>
+      </c>
+      <c r="F543" t="n">
+        <v>201.4573</v>
+      </c>
+      <c r="G543" t="n">
+        <v>-11133.53261549181</v>
+      </c>
+      <c r="H543" t="n">
+        <v>1</v>
+      </c>
+      <c r="I543" t="n">
+        <v>15950</v>
+      </c>
+      <c r="J543" t="n">
+        <v>15950</v>
+      </c>
+      <c r="K543" t="inlineStr"/>
+      <c r="L543" t="n">
+        <v>1</v>
+      </c>
+      <c r="M543" t="inlineStr"/>
+    </row>
+    <row r="544">
+      <c r="A544" s="1" t="n">
+        <v>542</v>
+      </c>
+      <c r="B544" t="n">
+        <v>15960</v>
+      </c>
+      <c r="C544" t="n">
+        <v>15990</v>
+      </c>
+      <c r="D544" t="n">
+        <v>15990</v>
+      </c>
+      <c r="E544" t="n">
+        <v>15960</v>
+      </c>
+      <c r="F544" t="n">
+        <v>165.4876</v>
+      </c>
+      <c r="G544" t="n">
+        <v>-10968.04501549181</v>
+      </c>
+      <c r="H544" t="n">
+        <v>0</v>
+      </c>
+      <c r="I544" t="inlineStr"/>
+      <c r="J544" t="n">
+        <v>15950</v>
+      </c>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L544" t="n">
+        <v>1</v>
+      </c>
+      <c r="M544" t="inlineStr"/>
+    </row>
+    <row r="545">
+      <c r="A545" s="1" t="n">
+        <v>543</v>
+      </c>
+      <c r="B545" t="n">
+        <v>16000</v>
+      </c>
+      <c r="C545" t="n">
+        <v>16000</v>
+      </c>
+      <c r="D545" t="n">
+        <v>16000</v>
+      </c>
+      <c r="E545" t="n">
+        <v>16000</v>
+      </c>
+      <c r="F545" t="n">
+        <v>143.7004</v>
+      </c>
+      <c r="G545" t="n">
+        <v>-10824.34461549181</v>
+      </c>
+      <c r="H545" t="n">
+        <v>0</v>
+      </c>
+      <c r="I545" t="inlineStr"/>
+      <c r="J545" t="n">
+        <v>15950</v>
+      </c>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L545" t="n">
+        <v>1</v>
+      </c>
+      <c r="M545" t="inlineStr"/>
+    </row>
+    <row r="546">
+      <c r="A546" s="1" t="n">
+        <v>544</v>
+      </c>
+      <c r="B546" t="n">
+        <v>16010</v>
+      </c>
+      <c r="C546" t="n">
+        <v>16000</v>
+      </c>
+      <c r="D546" t="n">
+        <v>16010</v>
+      </c>
+      <c r="E546" t="n">
+        <v>16000</v>
+      </c>
+      <c r="F546" t="n">
+        <v>85.2152</v>
+      </c>
+      <c r="G546" t="n">
+        <v>-10824.34461549181</v>
+      </c>
+      <c r="H546" t="n">
+        <v>0</v>
+      </c>
+      <c r="I546" t="inlineStr"/>
+      <c r="J546" t="inlineStr"/>
+      <c r="K546" t="inlineStr"/>
+      <c r="L546" t="n">
+        <v>1</v>
+      </c>
+      <c r="M546" t="inlineStr"/>
+    </row>
+    <row r="547">
+      <c r="A547" s="1" t="n">
+        <v>545</v>
+      </c>
+      <c r="B547" t="n">
+        <v>16010</v>
+      </c>
+      <c r="C547" t="n">
+        <v>16000</v>
+      </c>
+      <c r="D547" t="n">
+        <v>16010</v>
+      </c>
+      <c r="E547" t="n">
+        <v>16000</v>
+      </c>
+      <c r="F547" t="n">
+        <v>200</v>
+      </c>
+      <c r="G547" t="n">
+        <v>-10824.34461549181</v>
+      </c>
+      <c r="H547" t="n">
+        <v>0</v>
+      </c>
+      <c r="I547" t="inlineStr"/>
+      <c r="J547" t="inlineStr"/>
+      <c r="K547" t="inlineStr"/>
+      <c r="L547" t="n">
+        <v>1</v>
+      </c>
+      <c r="M547" t="inlineStr"/>
+    </row>
+    <row r="548">
+      <c r="A548" s="1" t="n">
+        <v>546</v>
+      </c>
+      <c r="B548" t="n">
+        <v>16090</v>
+      </c>
+      <c r="C548" t="n">
+        <v>16090</v>
+      </c>
+      <c r="D548" t="n">
+        <v>16090</v>
+      </c>
+      <c r="E548" t="n">
+        <v>16090</v>
+      </c>
+      <c r="F548" t="n">
+        <v>6.5465</v>
+      </c>
+      <c r="G548" t="n">
+        <v>-10817.79811549181</v>
+      </c>
+      <c r="H548" t="n">
+        <v>0</v>
+      </c>
+      <c r="I548" t="inlineStr"/>
+      <c r="J548" t="inlineStr"/>
+      <c r="K548" t="inlineStr"/>
+      <c r="L548" t="n">
+        <v>1</v>
+      </c>
+      <c r="M548" t="inlineStr"/>
+    </row>
+    <row r="549">
+      <c r="A549" s="1" t="n">
+        <v>547</v>
+      </c>
+      <c r="B549" t="n">
+        <v>16020</v>
+      </c>
+      <c r="C549" t="n">
+        <v>16020</v>
+      </c>
+      <c r="D549" t="n">
+        <v>16020</v>
+      </c>
+      <c r="E549" t="n">
+        <v>16020</v>
+      </c>
+      <c r="F549" t="n">
+        <v>164.1993</v>
+      </c>
+      <c r="G549" t="n">
+        <v>-10981.99741549181</v>
+      </c>
+      <c r="H549" t="n">
+        <v>0</v>
+      </c>
+      <c r="I549" t="inlineStr"/>
+      <c r="J549" t="inlineStr"/>
+      <c r="K549" t="inlineStr"/>
+      <c r="L549" t="n">
+        <v>1</v>
+      </c>
+      <c r="M549" t="inlineStr"/>
+    </row>
+    <row r="550">
+      <c r="A550" s="1" t="n">
+        <v>548</v>
+      </c>
+      <c r="B550" t="n">
+        <v>15980</v>
+      </c>
+      <c r="C550" t="n">
+        <v>16020</v>
+      </c>
+      <c r="D550" t="n">
+        <v>16020</v>
+      </c>
+      <c r="E550" t="n">
+        <v>15970</v>
+      </c>
+      <c r="F550" t="n">
+        <v>140.8007</v>
+      </c>
+      <c r="G550" t="n">
+        <v>-10981.99741549181</v>
+      </c>
+      <c r="H550" t="n">
+        <v>0</v>
+      </c>
+      <c r="I550" t="inlineStr"/>
+      <c r="J550" t="inlineStr"/>
+      <c r="K550" t="inlineStr"/>
+      <c r="L550" t="n">
+        <v>1</v>
+      </c>
+      <c r="M550" t="inlineStr"/>
+    </row>
+    <row r="551">
+      <c r="A551" s="1" t="n">
+        <v>549</v>
+      </c>
+      <c r="B551" t="n">
+        <v>16020</v>
+      </c>
+      <c r="C551" t="n">
+        <v>16020</v>
+      </c>
+      <c r="D551" t="n">
+        <v>16020</v>
+      </c>
+      <c r="E551" t="n">
+        <v>16020</v>
+      </c>
+      <c r="F551" t="n">
+        <v>179.214</v>
+      </c>
+      <c r="G551" t="n">
+        <v>-10981.99741549181</v>
+      </c>
+      <c r="H551" t="n">
+        <v>1</v>
+      </c>
+      <c r="I551" t="n">
+        <v>16020</v>
+      </c>
+      <c r="J551" t="n">
+        <v>16020</v>
+      </c>
+      <c r="K551" t="inlineStr"/>
+      <c r="L551" t="n">
+        <v>1</v>
+      </c>
+      <c r="M551" t="inlineStr"/>
+    </row>
+    <row r="552">
+      <c r="A552" s="1" t="n">
+        <v>550</v>
+      </c>
+      <c r="B552" t="n">
+        <v>16020</v>
+      </c>
+      <c r="C552" t="n">
+        <v>16020</v>
+      </c>
+      <c r="D552" t="n">
+        <v>16020</v>
+      </c>
+      <c r="E552" t="n">
+        <v>16010</v>
+      </c>
+      <c r="F552" t="n">
+        <v>585.2866</v>
+      </c>
+      <c r="G552" t="n">
+        <v>-10981.99741549181</v>
+      </c>
+      <c r="H552" t="n">
+        <v>1</v>
+      </c>
+      <c r="I552" t="n">
+        <v>16020</v>
+      </c>
+      <c r="J552" t="n">
+        <v>16020</v>
+      </c>
+      <c r="K552" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L499" t="n">
-        <v>1</v>
-      </c>
-      <c r="M499" t="inlineStr"/>
-    </row>
-    <row r="500">
-      <c r="A500" s="1" t="n">
-        <v>498</v>
-      </c>
-      <c r="B500" t="n">
-        <v>16010</v>
-      </c>
-      <c r="C500" t="n">
-        <v>16060</v>
-      </c>
-      <c r="D500" t="n">
-        <v>16060</v>
-      </c>
-      <c r="E500" t="n">
-        <v>16010</v>
-      </c>
-      <c r="F500" t="n">
-        <v>13.2012</v>
-      </c>
-      <c r="G500" t="n">
-        <v>-11152.58661549181</v>
-      </c>
-      <c r="H500" t="n">
-        <v>1</v>
-      </c>
-      <c r="I500" t="n">
-        <v>16010</v>
-      </c>
-      <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L500" t="n">
-        <v>1</v>
-      </c>
-      <c r="M500" t="inlineStr"/>
-    </row>
-    <row r="501">
-      <c r="A501" s="1" t="n">
-        <v>499</v>
-      </c>
-      <c r="B501" t="n">
-        <v>16060</v>
-      </c>
-      <c r="C501" t="n">
-        <v>16040</v>
-      </c>
-      <c r="D501" t="n">
-        <v>16060</v>
-      </c>
-      <c r="E501" t="n">
-        <v>16040</v>
-      </c>
-      <c r="F501" t="n">
-        <v>10.7752</v>
-      </c>
-      <c r="G501" t="n">
-        <v>-11163.36181549181</v>
-      </c>
-      <c r="H501" t="n">
-        <v>1</v>
-      </c>
-      <c r="I501" t="n">
-        <v>16060</v>
-      </c>
-      <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L501" t="n">
-        <v>1</v>
-      </c>
-      <c r="M501" t="inlineStr"/>
-    </row>
-    <row r="502">
-      <c r="A502" s="1" t="n">
-        <v>500</v>
-      </c>
-      <c r="B502" t="n">
-        <v>16040</v>
-      </c>
-      <c r="C502" t="n">
-        <v>16040</v>
-      </c>
-      <c r="D502" t="n">
-        <v>16040</v>
-      </c>
-      <c r="E502" t="n">
-        <v>16040</v>
-      </c>
-      <c r="F502" t="n">
-        <v>272.7295</v>
-      </c>
-      <c r="G502" t="n">
-        <v>-11163.36181549181</v>
-      </c>
-      <c r="H502" t="n">
-        <v>1</v>
-      </c>
-      <c r="I502" t="n">
-        <v>16040</v>
-      </c>
-      <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L502" t="n">
-        <v>1</v>
-      </c>
-      <c r="M502" t="inlineStr"/>
-    </row>
-    <row r="503">
-      <c r="A503" s="1" t="n">
-        <v>501</v>
-      </c>
-      <c r="B503" t="n">
-        <v>16040</v>
-      </c>
-      <c r="C503" t="n">
-        <v>16040</v>
-      </c>
-      <c r="D503" t="n">
-        <v>16040</v>
-      </c>
-      <c r="E503" t="n">
-        <v>16040</v>
-      </c>
-      <c r="F503" t="n">
-        <v>44.9941</v>
-      </c>
-      <c r="G503" t="n">
-        <v>-11163.36181549181</v>
-      </c>
-      <c r="H503" t="n">
-        <v>1</v>
-      </c>
-      <c r="I503" t="n">
-        <v>16040</v>
-      </c>
-      <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L503" t="n">
-        <v>1</v>
-      </c>
-      <c r="M503" t="inlineStr"/>
-    </row>
-    <row r="504">
-      <c r="A504" s="1" t="n">
-        <v>502</v>
-      </c>
-      <c r="B504" t="n">
-        <v>16040</v>
-      </c>
-      <c r="C504" t="n">
-        <v>16040</v>
-      </c>
-      <c r="D504" t="n">
-        <v>16040</v>
-      </c>
-      <c r="E504" t="n">
-        <v>16040</v>
-      </c>
-      <c r="F504" t="n">
-        <v>227.5277</v>
-      </c>
-      <c r="G504" t="n">
-        <v>-11163.36181549181</v>
-      </c>
-      <c r="H504" t="n">
-        <v>1</v>
-      </c>
-      <c r="I504" t="n">
-        <v>16040</v>
-      </c>
-      <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L504" t="n">
-        <v>1</v>
-      </c>
-      <c r="M504" t="inlineStr"/>
-    </row>
-    <row r="505">
-      <c r="A505" s="1" t="n">
-        <v>503</v>
-      </c>
-      <c r="B505" t="n">
-        <v>16000</v>
-      </c>
-      <c r="C505" t="n">
-        <v>15950</v>
-      </c>
-      <c r="D505" t="n">
-        <v>16040</v>
-      </c>
-      <c r="E505" t="n">
-        <v>15950</v>
-      </c>
-      <c r="F505" t="n">
-        <v>423.9778</v>
-      </c>
-      <c r="G505" t="n">
-        <v>-11587.33961549181</v>
-      </c>
-      <c r="H505" t="n">
-        <v>1</v>
-      </c>
-      <c r="I505" t="n">
-        <v>16040</v>
-      </c>
-      <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L505" t="n">
-        <v>1</v>
-      </c>
-      <c r="M505" t="inlineStr"/>
-    </row>
-    <row r="506">
-      <c r="A506" s="1" t="n">
-        <v>504</v>
-      </c>
-      <c r="B506" t="n">
-        <v>15980</v>
-      </c>
-      <c r="C506" t="n">
-        <v>15860</v>
-      </c>
-      <c r="D506" t="n">
-        <v>15980</v>
-      </c>
-      <c r="E506" t="n">
-        <v>15860</v>
-      </c>
-      <c r="F506" t="n">
-        <v>294.1193</v>
-      </c>
-      <c r="G506" t="n">
-        <v>-11881.45891549181</v>
-      </c>
-      <c r="H506" t="n">
-        <v>1</v>
-      </c>
-      <c r="I506" t="n">
-        <v>15950</v>
-      </c>
-      <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L506" t="n">
-        <v>1</v>
-      </c>
-      <c r="M506" t="inlineStr"/>
-    </row>
-    <row r="507">
-      <c r="A507" s="1" t="n">
-        <v>505</v>
-      </c>
-      <c r="B507" t="n">
-        <v>15900</v>
-      </c>
-      <c r="C507" t="n">
-        <v>15900</v>
-      </c>
-      <c r="D507" t="n">
-        <v>15900</v>
-      </c>
-      <c r="E507" t="n">
-        <v>15900</v>
-      </c>
-      <c r="F507" t="n">
-        <v>515.3262999999999</v>
-      </c>
-      <c r="G507" t="n">
-        <v>-11366.13261549181</v>
-      </c>
-      <c r="H507" t="n">
-        <v>1</v>
-      </c>
-      <c r="I507" t="n">
-        <v>15860</v>
-      </c>
-      <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L507" t="n">
-        <v>1</v>
-      </c>
-      <c r="M507" t="inlineStr"/>
-    </row>
-    <row r="508">
-      <c r="A508" s="1" t="n">
-        <v>506</v>
-      </c>
-      <c r="B508" t="n">
-        <v>15910</v>
-      </c>
-      <c r="C508" t="n">
-        <v>15910</v>
-      </c>
-      <c r="D508" t="n">
-        <v>15910</v>
-      </c>
-      <c r="E508" t="n">
-        <v>15910</v>
-      </c>
-      <c r="F508" t="n">
-        <v>5.9064</v>
-      </c>
-      <c r="G508" t="n">
-        <v>-11360.22621549181</v>
-      </c>
-      <c r="H508" t="n">
-        <v>1</v>
-      </c>
-      <c r="I508" t="n">
-        <v>15900</v>
-      </c>
-      <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L508" t="n">
-        <v>1</v>
-      </c>
-      <c r="M508" t="inlineStr"/>
-    </row>
-    <row r="509">
-      <c r="A509" s="1" t="n">
-        <v>507</v>
-      </c>
-      <c r="B509" t="n">
-        <v>15910</v>
-      </c>
-      <c r="C509" t="n">
-        <v>15910</v>
-      </c>
-      <c r="D509" t="n">
-        <v>15910</v>
-      </c>
-      <c r="E509" t="n">
-        <v>15900</v>
-      </c>
-      <c r="F509" t="n">
-        <v>217.9769</v>
-      </c>
-      <c r="G509" t="n">
-        <v>-11360.22621549181</v>
-      </c>
-      <c r="H509" t="n">
-        <v>1</v>
-      </c>
-      <c r="I509" t="n">
-        <v>15910</v>
-      </c>
-      <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L509" t="n">
-        <v>1</v>
-      </c>
-      <c r="M509" t="inlineStr"/>
-    </row>
-    <row r="510">
-      <c r="A510" s="1" t="n">
-        <v>508</v>
-      </c>
-      <c r="B510" t="n">
-        <v>15910</v>
-      </c>
-      <c r="C510" t="n">
-        <v>16000</v>
-      </c>
-      <c r="D510" t="n">
-        <v>16000</v>
-      </c>
-      <c r="E510" t="n">
-        <v>15910</v>
-      </c>
-      <c r="F510" t="n">
-        <v>317.4184</v>
-      </c>
-      <c r="G510" t="n">
-        <v>-11042.80781549181</v>
-      </c>
-      <c r="H510" t="n">
-        <v>1</v>
-      </c>
-      <c r="I510" t="n">
-        <v>15910</v>
-      </c>
-      <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L510" t="n">
-        <v>1</v>
-      </c>
-      <c r="M510" t="inlineStr"/>
-    </row>
-    <row r="511">
-      <c r="A511" s="1" t="n">
-        <v>509</v>
-      </c>
-      <c r="B511" t="n">
-        <v>16000</v>
-      </c>
-      <c r="C511" t="n">
-        <v>16000</v>
-      </c>
-      <c r="D511" t="n">
-        <v>16000</v>
-      </c>
-      <c r="E511" t="n">
-        <v>16000</v>
-      </c>
-      <c r="F511" t="n">
-        <v>113.5987</v>
-      </c>
-      <c r="G511" t="n">
-        <v>-11042.80781549181</v>
-      </c>
-      <c r="H511" t="n">
-        <v>1</v>
-      </c>
-      <c r="I511" t="n">
-        <v>16000</v>
-      </c>
-      <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L511" t="n">
-        <v>1</v>
-      </c>
-      <c r="M511" t="inlineStr"/>
-    </row>
-    <row r="512">
-      <c r="A512" s="1" t="n">
-        <v>510</v>
-      </c>
-      <c r="B512" t="n">
-        <v>16000</v>
-      </c>
-      <c r="C512" t="n">
-        <v>16000</v>
-      </c>
-      <c r="D512" t="n">
-        <v>16000</v>
-      </c>
-      <c r="E512" t="n">
-        <v>16000</v>
-      </c>
-      <c r="F512" t="n">
-        <v>2.8656</v>
-      </c>
-      <c r="G512" t="n">
-        <v>-11042.80781549181</v>
-      </c>
-      <c r="H512" t="n">
-        <v>1</v>
-      </c>
-      <c r="I512" t="n">
-        <v>16000</v>
-      </c>
-      <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L512" t="n">
-        <v>1</v>
-      </c>
-      <c r="M512" t="inlineStr"/>
-    </row>
-    <row r="513">
-      <c r="A513" s="1" t="n">
-        <v>511</v>
-      </c>
-      <c r="B513" t="n">
-        <v>15970</v>
-      </c>
-      <c r="C513" t="n">
-        <v>16100</v>
-      </c>
-      <c r="D513" t="n">
-        <v>16100</v>
-      </c>
-      <c r="E513" t="n">
-        <v>15970</v>
-      </c>
-      <c r="F513" t="n">
-        <v>210.71</v>
-      </c>
-      <c r="G513" t="n">
-        <v>-10832.09781549181</v>
-      </c>
-      <c r="H513" t="n">
-        <v>1</v>
-      </c>
-      <c r="I513" t="n">
-        <v>16000</v>
-      </c>
-      <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L513" t="n">
-        <v>1</v>
-      </c>
-      <c r="M513" t="inlineStr"/>
-    </row>
-    <row r="514">
-      <c r="A514" s="1" t="n">
-        <v>512</v>
-      </c>
-      <c r="B514" t="n">
-        <v>15990</v>
-      </c>
-      <c r="C514" t="n">
-        <v>15980</v>
-      </c>
-      <c r="D514" t="n">
-        <v>15990</v>
-      </c>
-      <c r="E514" t="n">
-        <v>15980</v>
-      </c>
-      <c r="F514" t="n">
-        <v>41.2259</v>
-      </c>
-      <c r="G514" t="n">
-        <v>-10873.32371549181</v>
-      </c>
-      <c r="H514" t="n">
-        <v>1</v>
-      </c>
-      <c r="I514" t="n">
-        <v>16100</v>
-      </c>
-      <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L514" t="n">
-        <v>1</v>
-      </c>
-      <c r="M514" t="inlineStr"/>
-    </row>
-    <row r="515">
-      <c r="A515" s="1" t="n">
-        <v>513</v>
-      </c>
-      <c r="B515" t="n">
-        <v>16080</v>
-      </c>
-      <c r="C515" t="n">
-        <v>16080</v>
-      </c>
-      <c r="D515" t="n">
-        <v>16080</v>
-      </c>
-      <c r="E515" t="n">
-        <v>16080</v>
-      </c>
-      <c r="F515" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="G515" t="n">
-        <v>-10872.07371549181</v>
-      </c>
-      <c r="H515" t="n">
-        <v>1</v>
-      </c>
-      <c r="I515" t="n">
-        <v>15980</v>
-      </c>
-      <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L515" t="n">
-        <v>1</v>
-      </c>
-      <c r="M515" t="inlineStr"/>
-    </row>
-    <row r="516">
-      <c r="A516" s="1" t="n">
-        <v>514</v>
-      </c>
-      <c r="B516" t="n">
-        <v>16010</v>
-      </c>
-      <c r="C516" t="n">
-        <v>16010</v>
-      </c>
-      <c r="D516" t="n">
-        <v>16010</v>
-      </c>
-      <c r="E516" t="n">
-        <v>16010</v>
-      </c>
-      <c r="F516" t="n">
-        <v>1.0818</v>
-      </c>
-      <c r="G516" t="n">
-        <v>-10873.15551549181</v>
-      </c>
-      <c r="H516" t="n">
-        <v>1</v>
-      </c>
-      <c r="I516" t="n">
-        <v>16080</v>
-      </c>
-      <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L516" t="n">
-        <v>1</v>
-      </c>
-      <c r="M516" t="inlineStr"/>
-    </row>
-    <row r="517">
-      <c r="A517" s="1" t="n">
-        <v>515</v>
-      </c>
-      <c r="B517" t="n">
-        <v>16010</v>
-      </c>
-      <c r="C517" t="n">
-        <v>15960</v>
-      </c>
-      <c r="D517" t="n">
-        <v>16090</v>
-      </c>
-      <c r="E517" t="n">
-        <v>15960</v>
-      </c>
-      <c r="F517" t="n">
-        <v>216.0845</v>
-      </c>
-      <c r="G517" t="n">
-        <v>-11089.24001549181</v>
-      </c>
-      <c r="H517" t="n">
-        <v>1</v>
-      </c>
-      <c r="I517" t="n">
-        <v>16010</v>
-      </c>
-      <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L517" t="n">
-        <v>1</v>
-      </c>
-      <c r="M517" t="inlineStr"/>
-    </row>
-    <row r="518">
-      <c r="A518" s="1" t="n">
-        <v>516</v>
-      </c>
-      <c r="B518" t="n">
-        <v>16070</v>
-      </c>
-      <c r="C518" t="n">
-        <v>16070</v>
-      </c>
-      <c r="D518" t="n">
-        <v>16070</v>
-      </c>
-      <c r="E518" t="n">
-        <v>16070</v>
-      </c>
-      <c r="F518" t="n">
-        <v>15.8114</v>
-      </c>
-      <c r="G518" t="n">
-        <v>-11073.42861549181</v>
-      </c>
-      <c r="H518" t="n">
-        <v>1</v>
-      </c>
-      <c r="I518" t="n">
-        <v>15960</v>
-      </c>
-      <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L518" t="n">
-        <v>1</v>
-      </c>
-      <c r="M518" t="inlineStr"/>
-    </row>
-    <row r="519">
-      <c r="A519" s="1" t="n">
-        <v>517</v>
-      </c>
-      <c r="B519" t="n">
-        <v>16040</v>
-      </c>
-      <c r="C519" t="n">
-        <v>16020</v>
-      </c>
-      <c r="D519" t="n">
-        <v>16040</v>
-      </c>
-      <c r="E519" t="n">
-        <v>16020</v>
-      </c>
-      <c r="F519" t="n">
-        <v>27.2833</v>
-      </c>
-      <c r="G519" t="n">
-        <v>-11100.71191549181</v>
-      </c>
-      <c r="H519" t="n">
-        <v>1</v>
-      </c>
-      <c r="I519" t="n">
-        <v>16070</v>
-      </c>
-      <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L519" t="n">
-        <v>1</v>
-      </c>
-      <c r="M519" t="inlineStr"/>
-    </row>
-    <row r="520">
-      <c r="A520" s="1" t="n">
-        <v>518</v>
-      </c>
-      <c r="B520" t="n">
-        <v>16090</v>
-      </c>
-      <c r="C520" t="n">
-        <v>16090</v>
-      </c>
-      <c r="D520" t="n">
-        <v>16090</v>
-      </c>
-      <c r="E520" t="n">
-        <v>16090</v>
-      </c>
-      <c r="F520" t="n">
-        <v>1.3906</v>
-      </c>
-      <c r="G520" t="n">
-        <v>-11099.32131549181</v>
-      </c>
-      <c r="H520" t="n">
-        <v>1</v>
-      </c>
-      <c r="I520" t="n">
-        <v>16020</v>
-      </c>
-      <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L520" t="n">
-        <v>1</v>
-      </c>
-      <c r="M520" t="inlineStr"/>
-    </row>
-    <row r="521">
-      <c r="A521" s="1" t="n">
-        <v>519</v>
-      </c>
-      <c r="B521" t="n">
-        <v>16090</v>
-      </c>
-      <c r="C521" t="n">
-        <v>16090</v>
-      </c>
-      <c r="D521" t="n">
-        <v>16090</v>
-      </c>
-      <c r="E521" t="n">
-        <v>16090</v>
-      </c>
-      <c r="F521" t="n">
-        <v>3.6094</v>
-      </c>
-      <c r="G521" t="n">
-        <v>-11099.32131549181</v>
-      </c>
-      <c r="H521" t="n">
-        <v>1</v>
-      </c>
-      <c r="I521" t="n">
-        <v>16090</v>
-      </c>
-      <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L521" t="n">
-        <v>1</v>
-      </c>
-      <c r="M521" t="inlineStr"/>
-    </row>
-    <row r="522">
-      <c r="A522" s="1" t="n">
-        <v>520</v>
-      </c>
-      <c r="B522" t="n">
-        <v>16030</v>
-      </c>
-      <c r="C522" t="n">
-        <v>16030</v>
-      </c>
-      <c r="D522" t="n">
-        <v>16030</v>
-      </c>
-      <c r="E522" t="n">
-        <v>16030</v>
-      </c>
-      <c r="F522" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="G522" t="n">
-        <v>-11100.37131549181</v>
-      </c>
-      <c r="H522" t="n">
-        <v>1</v>
-      </c>
-      <c r="I522" t="n">
-        <v>16090</v>
-      </c>
-      <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L522" t="n">
-        <v>1</v>
-      </c>
-      <c r="M522" t="inlineStr"/>
-    </row>
-    <row r="523">
-      <c r="A523" s="1" t="n">
-        <v>521</v>
-      </c>
-      <c r="B523" t="n">
-        <v>16020</v>
-      </c>
-      <c r="C523" t="n">
-        <v>16020</v>
-      </c>
-      <c r="D523" t="n">
-        <v>16020</v>
-      </c>
-      <c r="E523" t="n">
-        <v>16020</v>
-      </c>
-      <c r="F523" t="n">
-        <v>62.9681</v>
-      </c>
-      <c r="G523" t="n">
-        <v>-11163.33941549181</v>
-      </c>
-      <c r="H523" t="n">
-        <v>1</v>
-      </c>
-      <c r="I523" t="n">
-        <v>16030</v>
-      </c>
-      <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L523" t="n">
-        <v>1</v>
-      </c>
-      <c r="M523" t="inlineStr"/>
-    </row>
-    <row r="524">
-      <c r="A524" s="1" t="n">
-        <v>522</v>
-      </c>
-      <c r="B524" t="n">
-        <v>15960</v>
-      </c>
-      <c r="C524" t="n">
-        <v>15960</v>
-      </c>
-      <c r="D524" t="n">
-        <v>15960</v>
-      </c>
-      <c r="E524" t="n">
-        <v>15960</v>
-      </c>
-      <c r="F524" t="n">
-        <v>10</v>
-      </c>
-      <c r="G524" t="n">
-        <v>-11173.33941549181</v>
-      </c>
-      <c r="H524" t="n">
-        <v>1</v>
-      </c>
-      <c r="I524" t="n">
-        <v>16020</v>
-      </c>
-      <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L524" t="n">
-        <v>1</v>
-      </c>
-      <c r="M524" t="inlineStr"/>
-    </row>
-    <row r="525">
-      <c r="A525" s="1" t="n">
-        <v>523</v>
-      </c>
-      <c r="B525" t="n">
-        <v>15980</v>
-      </c>
-      <c r="C525" t="n">
-        <v>15980</v>
-      </c>
-      <c r="D525" t="n">
-        <v>15980</v>
-      </c>
-      <c r="E525" t="n">
-        <v>15980</v>
-      </c>
-      <c r="F525" t="n">
-        <v>15.8162</v>
-      </c>
-      <c r="G525" t="n">
-        <v>-11157.52321549181</v>
-      </c>
-      <c r="H525" t="n">
-        <v>1</v>
-      </c>
-      <c r="I525" t="n">
-        <v>15960</v>
-      </c>
-      <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L525" t="n">
-        <v>1</v>
-      </c>
-      <c r="M525" t="inlineStr"/>
-    </row>
-    <row r="526">
-      <c r="A526" s="1" t="n">
-        <v>524</v>
-      </c>
-      <c r="B526" t="n">
-        <v>15970</v>
-      </c>
-      <c r="C526" t="n">
-        <v>15970</v>
-      </c>
-      <c r="D526" t="n">
-        <v>15970</v>
-      </c>
-      <c r="E526" t="n">
-        <v>15970</v>
-      </c>
-      <c r="F526" t="n">
-        <v>66.83</v>
-      </c>
-      <c r="G526" t="n">
-        <v>-11224.35321549181</v>
-      </c>
-      <c r="H526" t="n">
-        <v>1</v>
-      </c>
-      <c r="I526" t="n">
-        <v>15980</v>
-      </c>
-      <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L526" t="n">
-        <v>1</v>
-      </c>
-      <c r="M526" t="inlineStr"/>
-    </row>
-    <row r="527">
-      <c r="A527" s="1" t="n">
-        <v>525</v>
-      </c>
-      <c r="B527" t="n">
-        <v>16000</v>
-      </c>
-      <c r="C527" t="n">
-        <v>15980</v>
-      </c>
-      <c r="D527" t="n">
-        <v>16000</v>
-      </c>
-      <c r="E527" t="n">
-        <v>15970</v>
-      </c>
-      <c r="F527" t="n">
-        <v>26.9881</v>
-      </c>
-      <c r="G527" t="n">
-        <v>-11197.36511549181</v>
-      </c>
-      <c r="H527" t="n">
-        <v>1</v>
-      </c>
-      <c r="I527" t="n">
-        <v>15970</v>
-      </c>
-      <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L527" t="n">
-        <v>1</v>
-      </c>
-      <c r="M527" t="inlineStr"/>
-    </row>
-    <row r="528">
-      <c r="A528" s="1" t="n">
-        <v>526</v>
-      </c>
-      <c r="B528" t="n">
-        <v>15960</v>
-      </c>
-      <c r="C528" t="n">
-        <v>15960</v>
-      </c>
-      <c r="D528" t="n">
-        <v>15960</v>
-      </c>
-      <c r="E528" t="n">
-        <v>15960</v>
-      </c>
-      <c r="F528" t="n">
-        <v>25.42</v>
-      </c>
-      <c r="G528" t="n">
-        <v>-11222.78511549181</v>
-      </c>
-      <c r="H528" t="n">
-        <v>1</v>
-      </c>
-      <c r="I528" t="n">
-        <v>15980</v>
-      </c>
-      <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L528" t="n">
-        <v>1</v>
-      </c>
-      <c r="M528" t="inlineStr"/>
-    </row>
-    <row r="529">
-      <c r="A529" s="1" t="n">
-        <v>527</v>
-      </c>
-      <c r="B529" t="n">
-        <v>15960</v>
-      </c>
-      <c r="C529" t="n">
-        <v>15930</v>
-      </c>
-      <c r="D529" t="n">
-        <v>15980</v>
-      </c>
-      <c r="E529" t="n">
-        <v>15930</v>
-      </c>
-      <c r="F529" t="n">
-        <v>181.7386</v>
-      </c>
-      <c r="G529" t="n">
-        <v>-11404.52371549181</v>
-      </c>
-      <c r="H529" t="n">
-        <v>1</v>
-      </c>
-      <c r="I529" t="n">
-        <v>15960</v>
-      </c>
-      <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L529" t="n">
-        <v>1</v>
-      </c>
-      <c r="M529" t="inlineStr"/>
-    </row>
-    <row r="530">
-      <c r="A530" s="1" t="n">
-        <v>528</v>
-      </c>
-      <c r="B530" t="n">
-        <v>15930</v>
-      </c>
-      <c r="C530" t="n">
-        <v>15900</v>
-      </c>
-      <c r="D530" t="n">
-        <v>15930</v>
-      </c>
-      <c r="E530" t="n">
-        <v>15860</v>
-      </c>
-      <c r="F530" t="n">
-        <v>587.1608</v>
-      </c>
-      <c r="G530" t="n">
-        <v>-11991.68451549181</v>
-      </c>
-      <c r="H530" t="n">
-        <v>1</v>
-      </c>
-      <c r="I530" t="n">
-        <v>15930</v>
-      </c>
-      <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L530" t="n">
-        <v>1</v>
-      </c>
-      <c r="M530" t="inlineStr"/>
-    </row>
-    <row r="531">
-      <c r="A531" s="1" t="n">
-        <v>529</v>
-      </c>
-      <c r="B531" t="n">
-        <v>15960</v>
-      </c>
-      <c r="C531" t="n">
-        <v>15960</v>
-      </c>
-      <c r="D531" t="n">
-        <v>15960</v>
-      </c>
-      <c r="E531" t="n">
-        <v>15960</v>
-      </c>
-      <c r="F531" t="n">
-        <v>9.9055</v>
-      </c>
-      <c r="G531" t="n">
-        <v>-11981.77901549181</v>
-      </c>
-      <c r="H531" t="n">
-        <v>1</v>
-      </c>
-      <c r="I531" t="n">
-        <v>15900</v>
-      </c>
-      <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L531" t="n">
-        <v>1</v>
-      </c>
-      <c r="M531" t="inlineStr"/>
-    </row>
-    <row r="532">
-      <c r="A532" s="1" t="n">
-        <v>530</v>
-      </c>
-      <c r="B532" t="n">
-        <v>15990</v>
-      </c>
-      <c r="C532" t="n">
-        <v>15980</v>
-      </c>
-      <c r="D532" t="n">
-        <v>15990</v>
-      </c>
-      <c r="E532" t="n">
-        <v>15970</v>
-      </c>
-      <c r="F532" t="n">
-        <v>30.1245</v>
-      </c>
-      <c r="G532" t="n">
-        <v>-11951.65451549181</v>
-      </c>
-      <c r="H532" t="n">
-        <v>1</v>
-      </c>
-      <c r="I532" t="n">
-        <v>15960</v>
-      </c>
-      <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L532" t="n">
-        <v>1</v>
-      </c>
-      <c r="M532" t="inlineStr"/>
-    </row>
-    <row r="533">
-      <c r="A533" s="1" t="n">
-        <v>531</v>
-      </c>
-      <c r="B533" t="n">
-        <v>15870</v>
-      </c>
-      <c r="C533" t="n">
-        <v>16000</v>
-      </c>
-      <c r="D533" t="n">
-        <v>16000</v>
-      </c>
-      <c r="E533" t="n">
-        <v>15870</v>
-      </c>
-      <c r="F533" t="n">
-        <v>181.3816</v>
-      </c>
-      <c r="G533" t="n">
-        <v>-11770.27291549181</v>
-      </c>
-      <c r="H533" t="n">
-        <v>1</v>
-      </c>
-      <c r="I533" t="n">
-        <v>15980</v>
-      </c>
-      <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L533" t="n">
-        <v>1</v>
-      </c>
-      <c r="M533" t="inlineStr"/>
-    </row>
-    <row r="534">
-      <c r="A534" s="1" t="n">
-        <v>532</v>
-      </c>
-      <c r="B534" t="n">
-        <v>16000</v>
-      </c>
-      <c r="C534" t="n">
-        <v>16000</v>
-      </c>
-      <c r="D534" t="n">
-        <v>16000</v>
-      </c>
-      <c r="E534" t="n">
-        <v>16000</v>
-      </c>
-      <c r="F534" t="n">
-        <v>92.9958</v>
-      </c>
-      <c r="G534" t="n">
-        <v>-11770.27291549181</v>
-      </c>
-      <c r="H534" t="n">
-        <v>1</v>
-      </c>
-      <c r="I534" t="n">
-        <v>16000</v>
-      </c>
-      <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L534" t="n">
-        <v>1</v>
-      </c>
-      <c r="M534" t="inlineStr"/>
-    </row>
-    <row r="535">
-      <c r="A535" s="1" t="n">
-        <v>533</v>
-      </c>
-      <c r="B535" t="n">
-        <v>16000</v>
-      </c>
-      <c r="C535" t="n">
-        <v>15990</v>
-      </c>
-      <c r="D535" t="n">
-        <v>16000</v>
-      </c>
-      <c r="E535" t="n">
-        <v>15990</v>
-      </c>
-      <c r="F535" t="n">
-        <v>29.1362</v>
-      </c>
-      <c r="G535" t="n">
-        <v>-11799.40911549181</v>
-      </c>
-      <c r="H535" t="n">
-        <v>1</v>
-      </c>
-      <c r="I535" t="n">
-        <v>16000</v>
-      </c>
-      <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L535" t="n">
-        <v>1</v>
-      </c>
-      <c r="M535" t="inlineStr"/>
-    </row>
-    <row r="536">
-      <c r="A536" s="1" t="n">
-        <v>534</v>
-      </c>
-      <c r="B536" t="n">
-        <v>15900</v>
-      </c>
-      <c r="C536" t="n">
-        <v>15890</v>
-      </c>
-      <c r="D536" t="n">
-        <v>15900</v>
-      </c>
-      <c r="E536" t="n">
-        <v>15890</v>
-      </c>
-      <c r="F536" t="n">
-        <v>87.05629999999999</v>
-      </c>
-      <c r="G536" t="n">
-        <v>-11886.46541549181</v>
-      </c>
-      <c r="H536" t="n">
-        <v>1</v>
-      </c>
-      <c r="I536" t="n">
-        <v>15990</v>
-      </c>
-      <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L536" t="n">
-        <v>1</v>
-      </c>
-      <c r="M536" t="inlineStr"/>
-    </row>
-    <row r="537">
-      <c r="A537" s="1" t="n">
-        <v>535</v>
-      </c>
-      <c r="B537" t="n">
-        <v>15900</v>
-      </c>
-      <c r="C537" t="n">
-        <v>15900</v>
-      </c>
-      <c r="D537" t="n">
-        <v>15980</v>
-      </c>
-      <c r="E537" t="n">
-        <v>15900</v>
-      </c>
-      <c r="F537" t="n">
-        <v>504.8477</v>
-      </c>
-      <c r="G537" t="n">
-        <v>-11381.61771549181</v>
-      </c>
-      <c r="H537" t="n">
-        <v>1</v>
-      </c>
-      <c r="I537" t="n">
-        <v>15890</v>
-      </c>
-      <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L537" t="n">
-        <v>1</v>
-      </c>
-      <c r="M537" t="inlineStr"/>
-    </row>
-    <row r="538">
-      <c r="A538" s="1" t="n">
-        <v>536</v>
-      </c>
-      <c r="B538" t="n">
-        <v>15880</v>
-      </c>
-      <c r="C538" t="n">
-        <v>15950</v>
-      </c>
-      <c r="D538" t="n">
-        <v>15960</v>
-      </c>
-      <c r="E538" t="n">
-        <v>15880</v>
-      </c>
-      <c r="F538" t="n">
-        <v>56.1212</v>
-      </c>
-      <c r="G538" t="n">
-        <v>-11325.49651549181</v>
-      </c>
-      <c r="H538" t="n">
-        <v>1</v>
-      </c>
-      <c r="I538" t="n">
-        <v>15900</v>
-      </c>
-      <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L538" t="n">
-        <v>1</v>
-      </c>
-      <c r="M538" t="inlineStr"/>
-    </row>
-    <row r="539">
-      <c r="A539" s="1" t="n">
-        <v>537</v>
-      </c>
-      <c r="B539" t="n">
-        <v>15950</v>
-      </c>
-      <c r="C539" t="n">
-        <v>15960</v>
-      </c>
-      <c r="D539" t="n">
-        <v>15960</v>
-      </c>
-      <c r="E539" t="n">
-        <v>15950</v>
-      </c>
-      <c r="F539" t="n">
-        <v>250.8698</v>
-      </c>
-      <c r="G539" t="n">
-        <v>-11074.62671549181</v>
-      </c>
-      <c r="H539" t="n">
-        <v>1</v>
-      </c>
-      <c r="I539" t="n">
-        <v>15950</v>
-      </c>
-      <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L539" t="n">
-        <v>1</v>
-      </c>
-      <c r="M539" t="inlineStr"/>
-    </row>
-    <row r="540">
-      <c r="A540" s="1" t="n">
-        <v>538</v>
-      </c>
-      <c r="B540" t="n">
-        <v>15960</v>
-      </c>
-      <c r="C540" t="n">
-        <v>15950</v>
-      </c>
-      <c r="D540" t="n">
-        <v>15960</v>
-      </c>
-      <c r="E540" t="n">
-        <v>15950</v>
-      </c>
-      <c r="F540" t="n">
-        <v>58.9059</v>
-      </c>
-      <c r="G540" t="n">
-        <v>-11133.53261549181</v>
-      </c>
-      <c r="H540" t="n">
-        <v>1</v>
-      </c>
-      <c r="I540" t="n">
-        <v>15960</v>
-      </c>
-      <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L540" t="n">
-        <v>1</v>
-      </c>
-      <c r="M540" t="inlineStr"/>
-    </row>
-    <row r="541">
-      <c r="A541" s="1" t="n">
-        <v>539</v>
-      </c>
-      <c r="B541" t="n">
-        <v>15950</v>
-      </c>
-      <c r="C541" t="n">
-        <v>15950</v>
-      </c>
-      <c r="D541" t="n">
-        <v>15950</v>
-      </c>
-      <c r="E541" t="n">
-        <v>15950</v>
-      </c>
-      <c r="F541" t="n">
-        <v>13.3122</v>
-      </c>
-      <c r="G541" t="n">
-        <v>-11133.53261549181</v>
-      </c>
-      <c r="H541" t="n">
-        <v>1</v>
-      </c>
-      <c r="I541" t="n">
-        <v>15950</v>
-      </c>
-      <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L541" t="n">
-        <v>1</v>
-      </c>
-      <c r="M541" t="inlineStr"/>
-    </row>
-    <row r="542">
-      <c r="A542" s="1" t="n">
-        <v>540</v>
-      </c>
-      <c r="B542" t="n">
-        <v>15950</v>
-      </c>
-      <c r="C542" t="n">
-        <v>15950</v>
-      </c>
-      <c r="D542" t="n">
-        <v>15950</v>
-      </c>
-      <c r="E542" t="n">
-        <v>15950</v>
-      </c>
-      <c r="F542" t="n">
-        <v>103.592</v>
-      </c>
-      <c r="G542" t="n">
-        <v>-11133.53261549181</v>
-      </c>
-      <c r="H542" t="n">
-        <v>1</v>
-      </c>
-      <c r="I542" t="n">
-        <v>15950</v>
-      </c>
-      <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L542" t="n">
-        <v>1</v>
-      </c>
-      <c r="M542" t="inlineStr"/>
-    </row>
-    <row r="543">
-      <c r="A543" s="1" t="n">
-        <v>541</v>
-      </c>
-      <c r="B543" t="n">
-        <v>15950</v>
-      </c>
-      <c r="C543" t="n">
-        <v>15950</v>
-      </c>
-      <c r="D543" t="n">
-        <v>15950</v>
-      </c>
-      <c r="E543" t="n">
-        <v>15950</v>
-      </c>
-      <c r="F543" t="n">
-        <v>201.4573</v>
-      </c>
-      <c r="G543" t="n">
-        <v>-11133.53261549181</v>
-      </c>
-      <c r="H543" t="n">
-        <v>1</v>
-      </c>
-      <c r="I543" t="n">
-        <v>15950</v>
-      </c>
-      <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L543" t="n">
-        <v>1</v>
-      </c>
-      <c r="M543" t="inlineStr"/>
-    </row>
-    <row r="544">
-      <c r="A544" s="1" t="n">
-        <v>542</v>
-      </c>
-      <c r="B544" t="n">
-        <v>15960</v>
-      </c>
-      <c r="C544" t="n">
-        <v>15990</v>
-      </c>
-      <c r="D544" t="n">
-        <v>15990</v>
-      </c>
-      <c r="E544" t="n">
-        <v>15960</v>
-      </c>
-      <c r="F544" t="n">
-        <v>165.4876</v>
-      </c>
-      <c r="G544" t="n">
-        <v>-10968.04501549181</v>
-      </c>
-      <c r="H544" t="n">
-        <v>1</v>
-      </c>
-      <c r="I544" t="n">
-        <v>15950</v>
-      </c>
-      <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L544" t="n">
-        <v>1</v>
-      </c>
-      <c r="M544" t="inlineStr"/>
-    </row>
-    <row r="545">
-      <c r="A545" s="1" t="n">
-        <v>543</v>
-      </c>
-      <c r="B545" t="n">
-        <v>16000</v>
-      </c>
-      <c r="C545" t="n">
-        <v>16000</v>
-      </c>
-      <c r="D545" t="n">
-        <v>16000</v>
-      </c>
-      <c r="E545" t="n">
-        <v>16000</v>
-      </c>
-      <c r="F545" t="n">
-        <v>143.7004</v>
-      </c>
-      <c r="G545" t="n">
-        <v>-10824.34461549181</v>
-      </c>
-      <c r="H545" t="n">
-        <v>1</v>
-      </c>
-      <c r="I545" t="n">
-        <v>15990</v>
-      </c>
-      <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L545" t="n">
-        <v>1</v>
-      </c>
-      <c r="M545" t="inlineStr"/>
-    </row>
-    <row r="546">
-      <c r="A546" s="1" t="n">
-        <v>544</v>
-      </c>
-      <c r="B546" t="n">
-        <v>16010</v>
-      </c>
-      <c r="C546" t="n">
-        <v>16000</v>
-      </c>
-      <c r="D546" t="n">
-        <v>16010</v>
-      </c>
-      <c r="E546" t="n">
-        <v>16000</v>
-      </c>
-      <c r="F546" t="n">
-        <v>85.2152</v>
-      </c>
-      <c r="G546" t="n">
-        <v>-10824.34461549181</v>
-      </c>
-      <c r="H546" t="n">
-        <v>1</v>
-      </c>
-      <c r="I546" t="n">
-        <v>16000</v>
-      </c>
-      <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L546" t="n">
-        <v>1</v>
-      </c>
-      <c r="M546" t="inlineStr"/>
-    </row>
-    <row r="547">
-      <c r="A547" s="1" t="n">
-        <v>545</v>
-      </c>
-      <c r="B547" t="n">
-        <v>16010</v>
-      </c>
-      <c r="C547" t="n">
-        <v>16000</v>
-      </c>
-      <c r="D547" t="n">
-        <v>16010</v>
-      </c>
-      <c r="E547" t="n">
-        <v>16000</v>
-      </c>
-      <c r="F547" t="n">
-        <v>200</v>
-      </c>
-      <c r="G547" t="n">
-        <v>-10824.34461549181</v>
-      </c>
-      <c r="H547" t="n">
-        <v>1</v>
-      </c>
-      <c r="I547" t="n">
-        <v>16000</v>
-      </c>
-      <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L547" t="n">
-        <v>1</v>
-      </c>
-      <c r="M547" t="inlineStr"/>
-    </row>
-    <row r="548">
-      <c r="A548" s="1" t="n">
-        <v>546</v>
-      </c>
-      <c r="B548" t="n">
-        <v>16090</v>
-      </c>
-      <c r="C548" t="n">
-        <v>16090</v>
-      </c>
-      <c r="D548" t="n">
-        <v>16090</v>
-      </c>
-      <c r="E548" t="n">
-        <v>16090</v>
-      </c>
-      <c r="F548" t="n">
-        <v>6.5465</v>
-      </c>
-      <c r="G548" t="n">
-        <v>-10817.79811549181</v>
-      </c>
-      <c r="H548" t="n">
-        <v>1</v>
-      </c>
-      <c r="I548" t="n">
-        <v>16000</v>
-      </c>
-      <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L548" t="n">
-        <v>1</v>
-      </c>
-      <c r="M548" t="inlineStr"/>
-    </row>
-    <row r="549">
-      <c r="A549" s="1" t="n">
-        <v>547</v>
-      </c>
-      <c r="B549" t="n">
-        <v>16020</v>
-      </c>
-      <c r="C549" t="n">
-        <v>16020</v>
-      </c>
-      <c r="D549" t="n">
-        <v>16020</v>
-      </c>
-      <c r="E549" t="n">
-        <v>16020</v>
-      </c>
-      <c r="F549" t="n">
-        <v>164.1993</v>
-      </c>
-      <c r="G549" t="n">
-        <v>-10981.99741549181</v>
-      </c>
-      <c r="H549" t="n">
-        <v>1</v>
-      </c>
-      <c r="I549" t="n">
-        <v>16090</v>
-      </c>
-      <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L549" t="n">
-        <v>1</v>
-      </c>
-      <c r="M549" t="inlineStr"/>
-    </row>
-    <row r="550">
-      <c r="A550" s="1" t="n">
-        <v>548</v>
-      </c>
-      <c r="B550" t="n">
-        <v>15980</v>
-      </c>
-      <c r="C550" t="n">
-        <v>16020</v>
-      </c>
-      <c r="D550" t="n">
-        <v>16020</v>
-      </c>
-      <c r="E550" t="n">
-        <v>15970</v>
-      </c>
-      <c r="F550" t="n">
-        <v>140.8007</v>
-      </c>
-      <c r="G550" t="n">
-        <v>-10981.99741549181</v>
-      </c>
-      <c r="H550" t="n">
-        <v>1</v>
-      </c>
-      <c r="I550" t="n">
-        <v>16020</v>
-      </c>
-      <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L550" t="n">
-        <v>1</v>
-      </c>
-      <c r="M550" t="inlineStr"/>
-    </row>
-    <row r="551">
-      <c r="A551" s="1" t="n">
-        <v>549</v>
-      </c>
-      <c r="B551" t="n">
-        <v>16020</v>
-      </c>
-      <c r="C551" t="n">
-        <v>16020</v>
-      </c>
-      <c r="D551" t="n">
-        <v>16020</v>
-      </c>
-      <c r="E551" t="n">
-        <v>16020</v>
-      </c>
-      <c r="F551" t="n">
-        <v>179.214</v>
-      </c>
-      <c r="G551" t="n">
-        <v>-10981.99741549181</v>
-      </c>
-      <c r="H551" t="n">
-        <v>1</v>
-      </c>
-      <c r="I551" t="n">
-        <v>16020</v>
-      </c>
-      <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L551" t="n">
-        <v>1</v>
-      </c>
-      <c r="M551" t="inlineStr"/>
-    </row>
-    <row r="552">
-      <c r="A552" s="1" t="n">
-        <v>550</v>
-      </c>
-      <c r="B552" t="n">
-        <v>16020</v>
-      </c>
-      <c r="C552" t="n">
-        <v>16020</v>
-      </c>
-      <c r="D552" t="n">
-        <v>16020</v>
-      </c>
-      <c r="E552" t="n">
-        <v>16010</v>
-      </c>
-      <c r="F552" t="n">
-        <v>585.2866</v>
-      </c>
-      <c r="G552" t="n">
-        <v>-10981.99741549181</v>
-      </c>
-      <c r="H552" t="n">
-        <v>1</v>
-      </c>
-      <c r="I552" t="n">
-        <v>16020</v>
-      </c>
-      <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -18958,12 +18662,12 @@
         <v>-10926.38911549181</v>
       </c>
       <c r="H553" t="n">
-        <v>1</v>
-      </c>
-      <c r="I553" t="n">
+        <v>0</v>
+      </c>
+      <c r="I553" t="inlineStr"/>
+      <c r="J553" t="n">
         <v>16020</v>
       </c>
-      <c r="J553" t="inlineStr"/>
       <c r="K553" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18997,12 +18701,12 @@
         <v>-10932.86211549181</v>
       </c>
       <c r="H554" t="n">
-        <v>1</v>
-      </c>
-      <c r="I554" t="n">
-        <v>16100</v>
-      </c>
-      <c r="J554" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I554" t="inlineStr"/>
+      <c r="J554" t="n">
+        <v>16020</v>
+      </c>
       <c r="K554" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19036,12 +18740,12 @@
         <v>-10932.86211549181</v>
       </c>
       <c r="H555" t="n">
-        <v>1</v>
-      </c>
-      <c r="I555" t="n">
-        <v>16090</v>
-      </c>
-      <c r="J555" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I555" t="inlineStr"/>
+      <c r="J555" t="n">
+        <v>16020</v>
+      </c>
       <c r="K555" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19075,12 +18779,12 @@
         <v>-10934.77201549181</v>
       </c>
       <c r="H556" t="n">
-        <v>1</v>
-      </c>
-      <c r="I556" t="n">
-        <v>16090</v>
-      </c>
-      <c r="J556" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>16020</v>
+      </c>
       <c r="K556" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19114,12 +18818,12 @@
         <v>-10924.77201549181</v>
       </c>
       <c r="H557" t="n">
-        <v>1</v>
-      </c>
-      <c r="I557" t="n">
-        <v>16080</v>
-      </c>
-      <c r="J557" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>16020</v>
+      </c>
       <c r="K557" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19153,12 +18857,12 @@
         <v>-10924.77201549181</v>
       </c>
       <c r="H558" t="n">
-        <v>1</v>
-      </c>
-      <c r="I558" t="n">
-        <v>16090</v>
-      </c>
-      <c r="J558" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>16020</v>
+      </c>
       <c r="K558" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19192,12 +18896,12 @@
         <v>-10959.64281549181</v>
       </c>
       <c r="H559" t="n">
-        <v>1</v>
-      </c>
-      <c r="I559" t="n">
-        <v>16090</v>
-      </c>
-      <c r="J559" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I559" t="inlineStr"/>
+      <c r="J559" t="n">
+        <v>16020</v>
+      </c>
       <c r="K559" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19231,12 +18935,12 @@
         <v>-11159.64281549181</v>
       </c>
       <c r="H560" t="n">
-        <v>1</v>
-      </c>
-      <c r="I560" t="n">
-        <v>16030</v>
-      </c>
-      <c r="J560" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I560" t="inlineStr"/>
+      <c r="J560" t="n">
+        <v>16020</v>
+      </c>
       <c r="K560" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19270,12 +18974,12 @@
         <v>-11513.83131549181</v>
       </c>
       <c r="H561" t="n">
-        <v>1</v>
-      </c>
-      <c r="I561" t="n">
+        <v>0</v>
+      </c>
+      <c r="I561" t="inlineStr"/>
+      <c r="J561" t="n">
         <v>16020</v>
       </c>
-      <c r="J561" t="inlineStr"/>
       <c r="K561" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19309,12 +19013,12 @@
         <v>-11596.17241549181</v>
       </c>
       <c r="H562" t="n">
-        <v>1</v>
-      </c>
-      <c r="I562" t="n">
-        <v>16010</v>
-      </c>
-      <c r="J562" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I562" t="inlineStr"/>
+      <c r="J562" t="n">
+        <v>16020</v>
+      </c>
       <c r="K562" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19353,7 +19057,9 @@
       <c r="I563" t="n">
         <v>16000</v>
       </c>
-      <c r="J563" t="inlineStr"/>
+      <c r="J563" t="n">
+        <v>16020</v>
+      </c>
       <c r="K563" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19392,7 +19098,9 @@
       <c r="I564" t="n">
         <v>16060</v>
       </c>
-      <c r="J564" t="inlineStr"/>
+      <c r="J564" t="n">
+        <v>16020</v>
+      </c>
       <c r="K564" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19426,12 +19134,12 @@
         <v>-11351.95851549181</v>
       </c>
       <c r="H565" t="n">
-        <v>1</v>
-      </c>
-      <c r="I565" t="n">
-        <v>16070</v>
-      </c>
-      <c r="J565" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I565" t="inlineStr"/>
+      <c r="J565" t="n">
+        <v>16020</v>
+      </c>
       <c r="K565" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19470,7 +19178,9 @@
       <c r="I566" t="n">
         <v>16010</v>
       </c>
-      <c r="J566" t="inlineStr"/>
+      <c r="J566" t="n">
+        <v>16020</v>
+      </c>
       <c r="K566" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19509,7 +19219,9 @@
       <c r="I567" t="n">
         <v>16020</v>
       </c>
-      <c r="J567" t="inlineStr"/>
+      <c r="J567" t="n">
+        <v>16020</v>
+      </c>
       <c r="K567" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19548,7 +19260,9 @@
       <c r="I568" t="n">
         <v>16000</v>
       </c>
-      <c r="J568" t="inlineStr"/>
+      <c r="J568" t="n">
+        <v>16020</v>
+      </c>
       <c r="K568" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19587,7 +19301,9 @@
       <c r="I569" t="n">
         <v>16000</v>
       </c>
-      <c r="J569" t="inlineStr"/>
+      <c r="J569" t="n">
+        <v>16020</v>
+      </c>
       <c r="K569" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19626,7 +19342,9 @@
       <c r="I570" t="n">
         <v>16000</v>
       </c>
-      <c r="J570" t="inlineStr"/>
+      <c r="J570" t="n">
+        <v>16020</v>
+      </c>
       <c r="K570" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19665,7 +19383,9 @@
       <c r="I571" t="n">
         <v>16000</v>
       </c>
-      <c r="J571" t="inlineStr"/>
+      <c r="J571" t="n">
+        <v>16020</v>
+      </c>
       <c r="K571" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19704,7 +19424,9 @@
       <c r="I572" t="n">
         <v>16060</v>
       </c>
-      <c r="J572" t="inlineStr"/>
+      <c r="J572" t="n">
+        <v>16020</v>
+      </c>
       <c r="K572" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19743,7 +19465,9 @@
       <c r="I573" t="n">
         <v>16000</v>
       </c>
-      <c r="J573" t="inlineStr"/>
+      <c r="J573" t="n">
+        <v>16020</v>
+      </c>
       <c r="K573" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19782,7 +19506,9 @@
       <c r="I574" t="n">
         <v>15990</v>
       </c>
-      <c r="J574" t="inlineStr"/>
+      <c r="J574" t="n">
+        <v>16020</v>
+      </c>
       <c r="K574" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19821,7 +19547,9 @@
       <c r="I575" t="n">
         <v>16060</v>
       </c>
-      <c r="J575" t="inlineStr"/>
+      <c r="J575" t="n">
+        <v>16020</v>
+      </c>
       <c r="K575" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19855,12 +19583,12 @@
         <v>-10955.00233778321</v>
       </c>
       <c r="H576" t="n">
-        <v>1</v>
-      </c>
-      <c r="I576" t="n">
-        <v>16100</v>
-      </c>
-      <c r="J576" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I576" t="inlineStr"/>
+      <c r="J576" t="n">
+        <v>16020</v>
+      </c>
       <c r="K576" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19894,12 +19622,12 @@
         <v>-10966.09203778321</v>
       </c>
       <c r="H577" t="n">
-        <v>1</v>
-      </c>
-      <c r="I577" t="n">
-        <v>16090</v>
-      </c>
-      <c r="J577" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I577" t="inlineStr"/>
+      <c r="J577" t="n">
+        <v>16020</v>
+      </c>
       <c r="K577" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19936,7 +19664,9 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
+      <c r="J578" t="n">
+        <v>16020</v>
+      </c>
       <c r="K578" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19970,12 +19700,12 @@
         <v>-10866.65413778321</v>
       </c>
       <c r="H579" t="n">
-        <v>1</v>
-      </c>
-      <c r="I579" t="n">
-        <v>16050</v>
-      </c>
-      <c r="J579" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I579" t="inlineStr"/>
+      <c r="J579" t="n">
+        <v>16020</v>
+      </c>
       <c r="K579" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20012,7 +19742,9 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
+      <c r="J580" t="n">
+        <v>16020</v>
+      </c>
       <c r="K580" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20046,12 +19778,12 @@
         <v>-11263.10813778321</v>
       </c>
       <c r="H581" t="n">
-        <v>1</v>
-      </c>
-      <c r="I581" t="n">
-        <v>16050</v>
-      </c>
-      <c r="J581" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I581" t="inlineStr"/>
+      <c r="J581" t="n">
+        <v>16020</v>
+      </c>
       <c r="K581" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20085,12 +19817,12 @@
         <v>-11159.01533778321</v>
       </c>
       <c r="H582" t="n">
-        <v>1</v>
-      </c>
-      <c r="I582" t="n">
-        <v>16040</v>
-      </c>
-      <c r="J582" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I582" t="inlineStr"/>
+      <c r="J582" t="n">
+        <v>16020</v>
+      </c>
       <c r="K582" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20124,12 +19856,12 @@
         <v>-11159.74033778321</v>
       </c>
       <c r="H583" t="n">
-        <v>1</v>
-      </c>
-      <c r="I583" t="n">
-        <v>16090</v>
-      </c>
-      <c r="J583" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I583" t="inlineStr"/>
+      <c r="J583" t="n">
+        <v>16020</v>
+      </c>
       <c r="K583" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20163,12 +19895,12 @@
         <v>-11204.17423778321</v>
       </c>
       <c r="H584" t="n">
-        <v>1</v>
-      </c>
-      <c r="I584" t="n">
-        <v>16080</v>
-      </c>
-      <c r="J584" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I584" t="inlineStr"/>
+      <c r="J584" t="n">
+        <v>16020</v>
+      </c>
       <c r="K584" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20202,12 +19934,12 @@
         <v>-11254.63813778321</v>
       </c>
       <c r="H585" t="n">
-        <v>1</v>
-      </c>
-      <c r="I585" t="n">
-        <v>16040</v>
-      </c>
-      <c r="J585" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I585" t="inlineStr"/>
+      <c r="J585" t="n">
+        <v>16020</v>
+      </c>
       <c r="K585" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20246,7 +19978,9 @@
       <c r="I586" t="n">
         <v>16020</v>
       </c>
-      <c r="J586" t="inlineStr"/>
+      <c r="J586" t="n">
+        <v>16020</v>
+      </c>
       <c r="K586" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20285,7 +20019,9 @@
       <c r="I587" t="n">
         <v>16050</v>
       </c>
-      <c r="J587" t="inlineStr"/>
+      <c r="J587" t="n">
+        <v>16020</v>
+      </c>
       <c r="K587" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20324,7 +20060,9 @@
       <c r="I588" t="n">
         <v>16020</v>
       </c>
-      <c r="J588" t="inlineStr"/>
+      <c r="J588" t="n">
+        <v>16020</v>
+      </c>
       <c r="K588" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20363,7 +20101,9 @@
       <c r="I589" t="n">
         <v>16020</v>
       </c>
-      <c r="J589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>16020</v>
+      </c>
       <c r="K589" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20402,7 +20142,9 @@
       <c r="I590" t="n">
         <v>16020</v>
       </c>
-      <c r="J590" t="inlineStr"/>
+      <c r="J590" t="n">
+        <v>16020</v>
+      </c>
       <c r="K590" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20441,7 +20183,9 @@
       <c r="I591" t="n">
         <v>16030</v>
       </c>
-      <c r="J591" t="inlineStr"/>
+      <c r="J591" t="n">
+        <v>16020</v>
+      </c>
       <c r="K591" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20480,7 +20224,9 @@
       <c r="I592" t="n">
         <v>16030</v>
       </c>
-      <c r="J592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>16020</v>
+      </c>
       <c r="K592" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20519,7 +20265,9 @@
       <c r="I593" t="n">
         <v>16030</v>
       </c>
-      <c r="J593" t="inlineStr"/>
+      <c r="J593" t="n">
+        <v>16020</v>
+      </c>
       <c r="K593" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20558,7 +20306,9 @@
       <c r="I594" t="n">
         <v>16030</v>
       </c>
-      <c r="J594" t="inlineStr"/>
+      <c r="J594" t="n">
+        <v>16020</v>
+      </c>
       <c r="K594" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20597,7 +20347,9 @@
       <c r="I595" t="n">
         <v>16030</v>
       </c>
-      <c r="J595" t="inlineStr"/>
+      <c r="J595" t="n">
+        <v>16020</v>
+      </c>
       <c r="K595" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20636,7 +20388,9 @@
       <c r="I596" t="n">
         <v>16020</v>
       </c>
-      <c r="J596" t="inlineStr"/>
+      <c r="J596" t="n">
+        <v>16020</v>
+      </c>
       <c r="K596" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20675,7 +20429,9 @@
       <c r="I597" t="n">
         <v>16020</v>
       </c>
-      <c r="J597" t="inlineStr"/>
+      <c r="J597" t="n">
+        <v>16020</v>
+      </c>
       <c r="K597" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20714,7 +20470,9 @@
       <c r="I598" t="n">
         <v>15970</v>
       </c>
-      <c r="J598" t="inlineStr"/>
+      <c r="J598" t="n">
+        <v>16020</v>
+      </c>
       <c r="K598" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20753,7 +20511,9 @@
       <c r="I599" t="n">
         <v>15970</v>
       </c>
-      <c r="J599" t="inlineStr"/>
+      <c r="J599" t="n">
+        <v>16020</v>
+      </c>
       <c r="K599" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20792,7 +20552,9 @@
       <c r="I600" t="n">
         <v>15970</v>
       </c>
-      <c r="J600" t="inlineStr"/>
+      <c r="J600" t="n">
+        <v>16020</v>
+      </c>
       <c r="K600" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20831,7 +20593,9 @@
       <c r="I601" t="n">
         <v>15970</v>
       </c>
-      <c r="J601" t="inlineStr"/>
+      <c r="J601" t="n">
+        <v>16020</v>
+      </c>
       <c r="K601" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20870,7 +20634,9 @@
       <c r="I602" t="n">
         <v>16070</v>
       </c>
-      <c r="J602" t="inlineStr"/>
+      <c r="J602" t="n">
+        <v>16020</v>
+      </c>
       <c r="K602" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20909,7 +20675,9 @@
       <c r="I603" t="n">
         <v>16060</v>
       </c>
-      <c r="J603" t="inlineStr"/>
+      <c r="J603" t="n">
+        <v>16020</v>
+      </c>
       <c r="K603" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20948,7 +20716,9 @@
       <c r="I604" t="n">
         <v>16070</v>
       </c>
-      <c r="J604" t="inlineStr"/>
+      <c r="J604" t="n">
+        <v>16020</v>
+      </c>
       <c r="K604" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20987,7 +20757,9 @@
       <c r="I605" t="n">
         <v>16140</v>
       </c>
-      <c r="J605" t="inlineStr"/>
+      <c r="J605" t="n">
+        <v>16020</v>
+      </c>
       <c r="K605" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21021,12 +20793,12 @@
         <v>-11073.99332790667</v>
       </c>
       <c r="H606" t="n">
-        <v>1</v>
-      </c>
-      <c r="I606" t="n">
-        <v>16140</v>
-      </c>
-      <c r="J606" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I606" t="inlineStr"/>
+      <c r="J606" t="n">
+        <v>16020</v>
+      </c>
       <c r="K606" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21060,12 +20832,12 @@
         <v>-11080.87012790667</v>
       </c>
       <c r="H607" t="n">
-        <v>1</v>
-      </c>
-      <c r="I607" t="n">
-        <v>16200</v>
-      </c>
-      <c r="J607" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I607" t="inlineStr"/>
+      <c r="J607" t="n">
+        <v>16020</v>
+      </c>
       <c r="K607" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21099,12 +20871,12 @@
         <v>-11111.77172790667</v>
       </c>
       <c r="H608" t="n">
-        <v>1</v>
-      </c>
-      <c r="I608" t="n">
-        <v>16150</v>
-      </c>
-      <c r="J608" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I608" t="inlineStr"/>
+      <c r="J608" t="n">
+        <v>16020</v>
+      </c>
       <c r="K608" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21138,12 +20910,12 @@
         <v>-11165.94902790667</v>
       </c>
       <c r="H609" t="n">
-        <v>1</v>
-      </c>
-      <c r="I609" t="n">
-        <v>16120</v>
-      </c>
-      <c r="J609" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I609" t="inlineStr"/>
+      <c r="J609" t="n">
+        <v>16020</v>
+      </c>
       <c r="K609" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21177,12 +20949,12 @@
         <v>-11165.94902790667</v>
       </c>
       <c r="H610" t="n">
-        <v>1</v>
-      </c>
-      <c r="I610" t="n">
-        <v>16050</v>
-      </c>
-      <c r="J610" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I610" t="inlineStr"/>
+      <c r="J610" t="n">
+        <v>16020</v>
+      </c>
       <c r="K610" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21221,7 +20993,9 @@
       <c r="I611" t="n">
         <v>16050</v>
       </c>
-      <c r="J611" t="inlineStr"/>
+      <c r="J611" t="n">
+        <v>16020</v>
+      </c>
       <c r="K611" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21260,7 +21034,9 @@
       <c r="I612" t="n">
         <v>15960</v>
       </c>
-      <c r="J612" t="inlineStr"/>
+      <c r="J612" t="n">
+        <v>16020</v>
+      </c>
       <c r="K612" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21299,7 +21075,9 @@
       <c r="I613" t="n">
         <v>15960</v>
       </c>
-      <c r="J613" t="inlineStr"/>
+      <c r="J613" t="n">
+        <v>16020</v>
+      </c>
       <c r="K613" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21338,7 +21116,9 @@
       <c r="I614" t="n">
         <v>16000</v>
       </c>
-      <c r="J614" t="inlineStr"/>
+      <c r="J614" t="n">
+        <v>16020</v>
+      </c>
       <c r="K614" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21377,7 +21157,9 @@
       <c r="I615" t="n">
         <v>15960</v>
       </c>
-      <c r="J615" t="inlineStr"/>
+      <c r="J615" t="n">
+        <v>16020</v>
+      </c>
       <c r="K615" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21416,7 +21198,9 @@
       <c r="I616" t="n">
         <v>16000</v>
       </c>
-      <c r="J616" t="inlineStr"/>
+      <c r="J616" t="n">
+        <v>16020</v>
+      </c>
       <c r="K616" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21455,7 +21239,9 @@
       <c r="I617" t="n">
         <v>16000</v>
       </c>
-      <c r="J617" t="inlineStr"/>
+      <c r="J617" t="n">
+        <v>16020</v>
+      </c>
       <c r="K617" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21494,7 +21280,9 @@
       <c r="I618" t="n">
         <v>16000</v>
       </c>
-      <c r="J618" t="inlineStr"/>
+      <c r="J618" t="n">
+        <v>16020</v>
+      </c>
       <c r="K618" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21533,7 +21321,9 @@
       <c r="I619" t="n">
         <v>16000</v>
       </c>
-      <c r="J619" t="inlineStr"/>
+      <c r="J619" t="n">
+        <v>16020</v>
+      </c>
       <c r="K619" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21572,7 +21362,9 @@
       <c r="I620" t="n">
         <v>16030</v>
       </c>
-      <c r="J620" t="inlineStr"/>
+      <c r="J620" t="n">
+        <v>16020</v>
+      </c>
       <c r="K620" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21611,7 +21403,9 @@
       <c r="I621" t="n">
         <v>16000</v>
       </c>
-      <c r="J621" t="inlineStr"/>
+      <c r="J621" t="n">
+        <v>16020</v>
+      </c>
       <c r="K621" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21650,7 +21444,9 @@
       <c r="I622" t="n">
         <v>16000</v>
       </c>
-      <c r="J622" t="inlineStr"/>
+      <c r="J622" t="n">
+        <v>16020</v>
+      </c>
       <c r="K622" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21689,7 +21485,9 @@
       <c r="I623" t="n">
         <v>16000</v>
       </c>
-      <c r="J623" t="inlineStr"/>
+      <c r="J623" t="n">
+        <v>16020</v>
+      </c>
       <c r="K623" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21728,7 +21526,9 @@
       <c r="I624" t="n">
         <v>16000</v>
       </c>
-      <c r="J624" t="inlineStr"/>
+      <c r="J624" t="n">
+        <v>16020</v>
+      </c>
       <c r="K624" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21767,7 +21567,9 @@
       <c r="I625" t="n">
         <v>15950</v>
       </c>
-      <c r="J625" t="inlineStr"/>
+      <c r="J625" t="n">
+        <v>16020</v>
+      </c>
       <c r="K625" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21806,7 +21608,9 @@
       <c r="I626" t="n">
         <v>15950</v>
       </c>
-      <c r="J626" t="inlineStr"/>
+      <c r="J626" t="n">
+        <v>16020</v>
+      </c>
       <c r="K626" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21845,7 +21649,9 @@
       <c r="I627" t="n">
         <v>16030</v>
       </c>
-      <c r="J627" t="inlineStr"/>
+      <c r="J627" t="n">
+        <v>16020</v>
+      </c>
       <c r="K627" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21884,7 +21690,9 @@
       <c r="I628" t="n">
         <v>15900</v>
       </c>
-      <c r="J628" t="inlineStr"/>
+      <c r="J628" t="n">
+        <v>16020</v>
+      </c>
       <c r="K628" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21923,7 +21731,9 @@
       <c r="I629" t="n">
         <v>16040</v>
       </c>
-      <c r="J629" t="inlineStr"/>
+      <c r="J629" t="n">
+        <v>16020</v>
+      </c>
       <c r="K629" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21962,7 +21772,9 @@
       <c r="I630" t="n">
         <v>16030</v>
       </c>
-      <c r="J630" t="inlineStr"/>
+      <c r="J630" t="n">
+        <v>16020</v>
+      </c>
       <c r="K630" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22001,7 +21813,9 @@
       <c r="I631" t="n">
         <v>16040</v>
       </c>
-      <c r="J631" t="inlineStr"/>
+      <c r="J631" t="n">
+        <v>16020</v>
+      </c>
       <c r="K631" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22040,7 +21854,9 @@
       <c r="I632" t="n">
         <v>16040</v>
       </c>
-      <c r="J632" t="inlineStr"/>
+      <c r="J632" t="n">
+        <v>16020</v>
+      </c>
       <c r="K632" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22079,7 +21895,9 @@
       <c r="I633" t="n">
         <v>16090</v>
       </c>
-      <c r="J633" t="inlineStr"/>
+      <c r="J633" t="n">
+        <v>16020</v>
+      </c>
       <c r="K633" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22118,7 +21936,9 @@
       <c r="I634" t="n">
         <v>16080</v>
       </c>
-      <c r="J634" t="inlineStr"/>
+      <c r="J634" t="n">
+        <v>16020</v>
+      </c>
       <c r="K634" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22157,7 +21977,9 @@
       <c r="I635" t="n">
         <v>16110</v>
       </c>
-      <c r="J635" t="inlineStr"/>
+      <c r="J635" t="n">
+        <v>16020</v>
+      </c>
       <c r="K635" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22196,7 +22018,9 @@
       <c r="I636" t="n">
         <v>16090</v>
       </c>
-      <c r="J636" t="inlineStr"/>
+      <c r="J636" t="n">
+        <v>16020</v>
+      </c>
       <c r="K636" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22230,12 +22054,12 @@
         <v>-9974.812696380357</v>
       </c>
       <c r="H637" t="n">
-        <v>1</v>
-      </c>
-      <c r="I637" t="n">
-        <v>16110</v>
-      </c>
-      <c r="J637" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I637" t="inlineStr"/>
+      <c r="J637" t="n">
+        <v>16020</v>
+      </c>
       <c r="K637" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22269,12 +22093,12 @@
         <v>-10003.96329638036</v>
       </c>
       <c r="H638" t="n">
-        <v>1</v>
-      </c>
-      <c r="I638" t="n">
-        <v>16200</v>
-      </c>
-      <c r="J638" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I638" t="inlineStr"/>
+      <c r="J638" t="n">
+        <v>16020</v>
+      </c>
       <c r="K638" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22308,12 +22132,12 @@
         <v>-9989.387996380357</v>
       </c>
       <c r="H639" t="n">
-        <v>1</v>
-      </c>
-      <c r="I639" t="n">
-        <v>16120</v>
-      </c>
-      <c r="J639" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I639" t="inlineStr"/>
+      <c r="J639" t="n">
+        <v>16020</v>
+      </c>
       <c r="K639" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22347,12 +22171,12 @@
         <v>-9989.387996380357</v>
       </c>
       <c r="H640" t="n">
-        <v>1</v>
-      </c>
-      <c r="I640" t="n">
-        <v>16130</v>
-      </c>
-      <c r="J640" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I640" t="inlineStr"/>
+      <c r="J640" t="n">
+        <v>16020</v>
+      </c>
       <c r="K640" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22386,12 +22210,12 @@
         <v>-9956.225796380357</v>
       </c>
       <c r="H641" t="n">
-        <v>1</v>
-      </c>
-      <c r="I641" t="n">
-        <v>16130</v>
-      </c>
-      <c r="J641" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I641" t="inlineStr"/>
+      <c r="J641" t="n">
+        <v>16020</v>
+      </c>
       <c r="K641" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22425,12 +22249,12 @@
         <v>-9956.225796380357</v>
       </c>
       <c r="H642" t="n">
-        <v>1</v>
-      </c>
-      <c r="I642" t="n">
-        <v>16230</v>
-      </c>
-      <c r="J642" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I642" t="inlineStr"/>
+      <c r="J642" t="n">
+        <v>16020</v>
+      </c>
       <c r="K642" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22464,12 +22288,12 @@
         <v>-9956.225796380357</v>
       </c>
       <c r="H643" t="n">
-        <v>1</v>
-      </c>
-      <c r="I643" t="n">
-        <v>16230</v>
-      </c>
-      <c r="J643" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I643" t="inlineStr"/>
+      <c r="J643" t="n">
+        <v>16020</v>
+      </c>
       <c r="K643" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22503,12 +22327,12 @@
         <v>-10084.17579638036</v>
       </c>
       <c r="H644" t="n">
-        <v>1</v>
-      </c>
-      <c r="I644" t="n">
-        <v>16230</v>
-      </c>
-      <c r="J644" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I644" t="inlineStr"/>
+      <c r="J644" t="n">
+        <v>16020</v>
+      </c>
       <c r="K644" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22542,12 +22366,12 @@
         <v>-10040.93709638036</v>
       </c>
       <c r="H645" t="n">
-        <v>1</v>
-      </c>
-      <c r="I645" t="n">
-        <v>16220</v>
-      </c>
-      <c r="J645" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I645" t="inlineStr"/>
+      <c r="J645" t="n">
+        <v>16020</v>
+      </c>
       <c r="K645" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22581,12 +22405,12 @@
         <v>-10039.95919638036</v>
       </c>
       <c r="H646" t="n">
-        <v>1</v>
-      </c>
-      <c r="I646" t="n">
-        <v>16310</v>
-      </c>
-      <c r="J646" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I646" t="inlineStr"/>
+      <c r="J646" t="n">
+        <v>16020</v>
+      </c>
       <c r="K646" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22620,12 +22444,12 @@
         <v>-10039.95919638036</v>
       </c>
       <c r="H647" t="n">
-        <v>1</v>
-      </c>
-      <c r="I647" t="n">
-        <v>16320</v>
-      </c>
-      <c r="J647" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I647" t="inlineStr"/>
+      <c r="J647" t="n">
+        <v>16020</v>
+      </c>
       <c r="K647" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22662,7 +22486,9 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="inlineStr"/>
+      <c r="J648" t="n">
+        <v>16020</v>
+      </c>
       <c r="K648" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22696,12 +22522,12 @@
         <v>-10200.63319638036</v>
       </c>
       <c r="H649" t="n">
-        <v>1</v>
-      </c>
-      <c r="I649" t="n">
-        <v>16150</v>
-      </c>
-      <c r="J649" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I649" t="inlineStr"/>
+      <c r="J649" t="n">
+        <v>16020</v>
+      </c>
       <c r="K649" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22735,12 +22561,12 @@
         <v>-10200.63319638036</v>
       </c>
       <c r="H650" t="n">
-        <v>1</v>
-      </c>
-      <c r="I650" t="n">
-        <v>16180</v>
-      </c>
-      <c r="J650" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I650" t="inlineStr"/>
+      <c r="J650" t="n">
+        <v>16020</v>
+      </c>
       <c r="K650" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22777,7 +22603,9 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="inlineStr"/>
+      <c r="J651" t="n">
+        <v>16020</v>
+      </c>
       <c r="K651" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22814,7 +22642,9 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="inlineStr"/>
+      <c r="J652" t="n">
+        <v>16020</v>
+      </c>
       <c r="K652" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22848,12 +22678,12 @@
         <v>-10245.63319638036</v>
       </c>
       <c r="H653" t="n">
-        <v>1</v>
-      </c>
-      <c r="I653" t="n">
-        <v>16160</v>
-      </c>
-      <c r="J653" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I653" t="inlineStr"/>
+      <c r="J653" t="n">
+        <v>16020</v>
+      </c>
       <c r="K653" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22887,12 +22717,12 @@
         <v>-10225.20599638036</v>
       </c>
       <c r="H654" t="n">
-        <v>1</v>
-      </c>
-      <c r="I654" t="n">
-        <v>16160</v>
-      </c>
-      <c r="J654" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I654" t="inlineStr"/>
+      <c r="J654" t="n">
+        <v>16020</v>
+      </c>
       <c r="K654" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22926,12 +22756,12 @@
         <v>-11063.04899638036</v>
       </c>
       <c r="H655" t="n">
-        <v>1</v>
-      </c>
-      <c r="I655" t="n">
-        <v>16170</v>
-      </c>
-      <c r="J655" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I655" t="inlineStr"/>
+      <c r="J655" t="n">
+        <v>16020</v>
+      </c>
       <c r="K655" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22968,7 +22798,9 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="inlineStr"/>
+      <c r="J656" t="n">
+        <v>16020</v>
+      </c>
       <c r="K656" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23005,7 +22837,9 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="inlineStr"/>
+      <c r="J657" t="n">
+        <v>16020</v>
+      </c>
       <c r="K657" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23042,7 +22876,9 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="inlineStr"/>
+      <c r="J658" t="n">
+        <v>16020</v>
+      </c>
       <c r="K658" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23076,12 +22912,12 @@
         <v>-11115.46489638036</v>
       </c>
       <c r="H659" t="n">
-        <v>1</v>
-      </c>
-      <c r="I659" t="n">
-        <v>16110</v>
-      </c>
-      <c r="J659" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I659" t="inlineStr"/>
+      <c r="J659" t="n">
+        <v>16020</v>
+      </c>
       <c r="K659" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23115,12 +22951,12 @@
         <v>-11115.46489638036</v>
       </c>
       <c r="H660" t="n">
-        <v>1</v>
-      </c>
-      <c r="I660" t="n">
-        <v>16060</v>
-      </c>
-      <c r="J660" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I660" t="inlineStr"/>
+      <c r="J660" t="n">
+        <v>16020</v>
+      </c>
       <c r="K660" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23154,12 +22990,12 @@
         <v>-11116.59869638036</v>
       </c>
       <c r="H661" t="n">
-        <v>1</v>
-      </c>
-      <c r="I661" t="n">
-        <v>16060</v>
-      </c>
-      <c r="J661" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I661" t="inlineStr"/>
+      <c r="J661" t="n">
+        <v>16020</v>
+      </c>
       <c r="K661" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23193,12 +23029,12 @@
         <v>-11110.59869638036</v>
       </c>
       <c r="H662" t="n">
-        <v>1</v>
-      </c>
-      <c r="I662" t="n">
-        <v>15980</v>
-      </c>
-      <c r="J662" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I662" t="inlineStr"/>
+      <c r="J662" t="n">
+        <v>16020</v>
+      </c>
       <c r="K662" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23232,12 +23068,12 @@
         <v>-11110.59869638036</v>
       </c>
       <c r="H663" t="n">
-        <v>1</v>
-      </c>
-      <c r="I663" t="n">
-        <v>16000</v>
-      </c>
-      <c r="J663" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I663" t="inlineStr"/>
+      <c r="J663" t="n">
+        <v>16020</v>
+      </c>
       <c r="K663" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23271,12 +23107,12 @@
         <v>-11181.12709638036</v>
       </c>
       <c r="H664" t="n">
-        <v>1</v>
-      </c>
-      <c r="I664" t="n">
-        <v>16000</v>
-      </c>
-      <c r="J664" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I664" t="inlineStr"/>
+      <c r="J664" t="n">
+        <v>16020</v>
+      </c>
       <c r="K664" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23310,12 +23146,12 @@
         <v>-11120.76079638036</v>
       </c>
       <c r="H665" t="n">
-        <v>1</v>
-      </c>
-      <c r="I665" t="n">
-        <v>15950</v>
-      </c>
-      <c r="J665" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I665" t="inlineStr"/>
+      <c r="J665" t="n">
+        <v>16020</v>
+      </c>
       <c r="K665" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23349,12 +23185,12 @@
         <v>-11238.72219638036</v>
       </c>
       <c r="H666" t="n">
-        <v>1</v>
-      </c>
-      <c r="I666" t="n">
-        <v>16000</v>
-      </c>
-      <c r="J666" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I666" t="inlineStr"/>
+      <c r="J666" t="n">
+        <v>16020</v>
+      </c>
       <c r="K666" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23388,12 +23224,12 @@
         <v>-11238.72219638036</v>
       </c>
       <c r="H667" t="n">
-        <v>1</v>
-      </c>
-      <c r="I667" t="n">
-        <v>15960</v>
-      </c>
-      <c r="J667" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I667" t="inlineStr"/>
+      <c r="J667" t="n">
+        <v>16020</v>
+      </c>
       <c r="K667" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23427,12 +23263,12 @@
         <v>-11238.72219638036</v>
       </c>
       <c r="H668" t="n">
-        <v>1</v>
-      </c>
-      <c r="I668" t="n">
-        <v>15960</v>
-      </c>
-      <c r="J668" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I668" t="inlineStr"/>
+      <c r="J668" t="n">
+        <v>16020</v>
+      </c>
       <c r="K668" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23466,12 +23302,12 @@
         <v>-11047.55689638036</v>
       </c>
       <c r="H669" t="n">
-        <v>1</v>
-      </c>
-      <c r="I669" t="n">
-        <v>15960</v>
-      </c>
-      <c r="J669" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I669" t="inlineStr"/>
+      <c r="J669" t="n">
+        <v>16020</v>
+      </c>
       <c r="K669" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23505,12 +23341,12 @@
         <v>-11047.55689638036</v>
       </c>
       <c r="H670" t="n">
-        <v>1</v>
-      </c>
-      <c r="I670" t="n">
-        <v>15970</v>
-      </c>
-      <c r="J670" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I670" t="inlineStr"/>
+      <c r="J670" t="n">
+        <v>16020</v>
+      </c>
       <c r="K670" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23544,12 +23380,12 @@
         <v>-10978.13889638036</v>
       </c>
       <c r="H671" t="n">
-        <v>1</v>
-      </c>
-      <c r="I671" t="n">
-        <v>15970</v>
-      </c>
-      <c r="J671" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I671" t="inlineStr"/>
+      <c r="J671" t="n">
+        <v>16020</v>
+      </c>
       <c r="K671" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23583,12 +23419,12 @@
         <v>-10979.25869638036</v>
       </c>
       <c r="H672" t="n">
-        <v>1</v>
-      </c>
-      <c r="I672" t="n">
-        <v>16000</v>
-      </c>
-      <c r="J672" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I672" t="inlineStr"/>
+      <c r="J672" t="n">
+        <v>16020</v>
+      </c>
       <c r="K672" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23622,12 +23458,12 @@
         <v>-10979.25869638036</v>
       </c>
       <c r="H673" t="n">
-        <v>1</v>
-      </c>
-      <c r="I673" t="n">
-        <v>15960</v>
-      </c>
-      <c r="J673" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I673" t="inlineStr"/>
+      <c r="J673" t="n">
+        <v>16020</v>
+      </c>
       <c r="K673" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23661,12 +23497,12 @@
         <v>-11007.25869638036</v>
       </c>
       <c r="H674" t="n">
-        <v>1</v>
-      </c>
-      <c r="I674" t="n">
-        <v>15960</v>
-      </c>
-      <c r="J674" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I674" t="inlineStr"/>
+      <c r="J674" t="n">
+        <v>16020</v>
+      </c>
       <c r="K674" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23700,12 +23536,12 @@
         <v>-11007.25869638036</v>
       </c>
       <c r="H675" t="n">
-        <v>1</v>
-      </c>
-      <c r="I675" t="n">
-        <v>15950</v>
-      </c>
-      <c r="J675" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I675" t="inlineStr"/>
+      <c r="J675" t="n">
+        <v>16020</v>
+      </c>
       <c r="K675" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23739,12 +23575,12 @@
         <v>-11261.87129638036</v>
       </c>
       <c r="H676" t="n">
-        <v>1</v>
-      </c>
-      <c r="I676" t="n">
-        <v>15950</v>
-      </c>
-      <c r="J676" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I676" t="inlineStr"/>
+      <c r="J676" t="n">
+        <v>16020</v>
+      </c>
       <c r="K676" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23778,12 +23614,12 @@
         <v>-11168.90209638036</v>
       </c>
       <c r="H677" t="n">
-        <v>1</v>
-      </c>
-      <c r="I677" t="n">
-        <v>15850</v>
-      </c>
-      <c r="J677" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I677" t="inlineStr"/>
+      <c r="J677" t="n">
+        <v>16020</v>
+      </c>
       <c r="K677" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23817,12 +23653,12 @@
         <v>-11168.90209638036</v>
       </c>
       <c r="H678" t="n">
-        <v>1</v>
-      </c>
-      <c r="I678" t="n">
-        <v>15960</v>
-      </c>
-      <c r="J678" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I678" t="inlineStr"/>
+      <c r="J678" t="n">
+        <v>16020</v>
+      </c>
       <c r="K678" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23856,12 +23692,12 @@
         <v>-11180.33579638036</v>
       </c>
       <c r="H679" t="n">
-        <v>1</v>
-      </c>
-      <c r="I679" t="n">
-        <v>15960</v>
-      </c>
-      <c r="J679" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I679" t="inlineStr"/>
+      <c r="J679" t="n">
+        <v>16020</v>
+      </c>
       <c r="K679" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23900,7 +23736,9 @@
       <c r="I680" t="n">
         <v>15860</v>
       </c>
-      <c r="J680" t="inlineStr"/>
+      <c r="J680" t="n">
+        <v>16020</v>
+      </c>
       <c r="K680" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23939,7 +23777,9 @@
       <c r="I681" t="n">
         <v>15850</v>
       </c>
-      <c r="J681" t="inlineStr"/>
+      <c r="J681" t="n">
+        <v>16020</v>
+      </c>
       <c r="K681" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23973,12 +23813,12 @@
         <v>-11107.68019638036</v>
       </c>
       <c r="H682" t="n">
-        <v>1</v>
-      </c>
-      <c r="I682" t="n">
-        <v>15950</v>
-      </c>
-      <c r="J682" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I682" t="inlineStr"/>
+      <c r="J682" t="n">
+        <v>16020</v>
+      </c>
       <c r="K682" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24012,12 +23852,12 @@
         <v>-11155.26869638036</v>
       </c>
       <c r="H683" t="n">
-        <v>1</v>
-      </c>
-      <c r="I683" t="n">
-        <v>15960</v>
-      </c>
-      <c r="J683" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I683" t="inlineStr"/>
+      <c r="J683" t="n">
+        <v>16020</v>
+      </c>
       <c r="K683" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24051,12 +23891,12 @@
         <v>-11155.26869638036</v>
       </c>
       <c r="H684" t="n">
-        <v>1</v>
-      </c>
-      <c r="I684" t="n">
-        <v>15950</v>
-      </c>
-      <c r="J684" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I684" t="inlineStr"/>
+      <c r="J684" t="n">
+        <v>16020</v>
+      </c>
       <c r="K684" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24095,7 +23935,9 @@
       <c r="I685" t="n">
         <v>15950</v>
       </c>
-      <c r="J685" t="inlineStr"/>
+      <c r="J685" t="n">
+        <v>16020</v>
+      </c>
       <c r="K685" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24134,7 +23976,9 @@
       <c r="I686" t="n">
         <v>15870</v>
       </c>
-      <c r="J686" t="inlineStr"/>
+      <c r="J686" t="n">
+        <v>16020</v>
+      </c>
       <c r="K686" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24173,7 +24017,9 @@
       <c r="I687" t="n">
         <v>15870</v>
       </c>
-      <c r="J687" t="inlineStr"/>
+      <c r="J687" t="n">
+        <v>16020</v>
+      </c>
       <c r="K687" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24212,7 +24058,9 @@
       <c r="I688" t="n">
         <v>15870</v>
       </c>
-      <c r="J688" t="inlineStr"/>
+      <c r="J688" t="n">
+        <v>16020</v>
+      </c>
       <c r="K688" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24251,7 +24099,9 @@
       <c r="I689" t="n">
         <v>15860</v>
       </c>
-      <c r="J689" t="inlineStr"/>
+      <c r="J689" t="n">
+        <v>16020</v>
+      </c>
       <c r="K689" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24290,7 +24140,9 @@
       <c r="I690" t="n">
         <v>15950</v>
       </c>
-      <c r="J690" t="inlineStr"/>
+      <c r="J690" t="n">
+        <v>16020</v>
+      </c>
       <c r="K690" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24329,7 +24181,9 @@
       <c r="I691" t="n">
         <v>15890</v>
       </c>
-      <c r="J691" t="inlineStr"/>
+      <c r="J691" t="n">
+        <v>16020</v>
+      </c>
       <c r="K691" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24368,7 +24222,9 @@
       <c r="I692" t="n">
         <v>15890</v>
       </c>
-      <c r="J692" t="inlineStr"/>
+      <c r="J692" t="n">
+        <v>16020</v>
+      </c>
       <c r="K692" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24407,7 +24263,9 @@
       <c r="I693" t="n">
         <v>15890</v>
       </c>
-      <c r="J693" t="inlineStr"/>
+      <c r="J693" t="n">
+        <v>16020</v>
+      </c>
       <c r="K693" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24446,7 +24304,9 @@
       <c r="I694" t="n">
         <v>15860</v>
       </c>
-      <c r="J694" t="inlineStr"/>
+      <c r="J694" t="n">
+        <v>16020</v>
+      </c>
       <c r="K694" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24485,7 +24345,9 @@
       <c r="I695" t="n">
         <v>15850</v>
       </c>
-      <c r="J695" t="inlineStr"/>
+      <c r="J695" t="n">
+        <v>16020</v>
+      </c>
       <c r="K695" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24524,7 +24386,9 @@
       <c r="I696" t="n">
         <v>15850</v>
       </c>
-      <c r="J696" t="inlineStr"/>
+      <c r="J696" t="n">
+        <v>16020</v>
+      </c>
       <c r="K696" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24563,7 +24427,9 @@
       <c r="I697" t="n">
         <v>15820</v>
       </c>
-      <c r="J697" t="inlineStr"/>
+      <c r="J697" t="n">
+        <v>16020</v>
+      </c>
       <c r="K697" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24602,7 +24468,9 @@
       <c r="I698" t="n">
         <v>15800</v>
       </c>
-      <c r="J698" t="inlineStr"/>
+      <c r="J698" t="n">
+        <v>16020</v>
+      </c>
       <c r="K698" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24641,7 +24509,9 @@
       <c r="I699" t="n">
         <v>15810</v>
       </c>
-      <c r="J699" t="inlineStr"/>
+      <c r="J699" t="n">
+        <v>16020</v>
+      </c>
       <c r="K699" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24680,7 +24550,9 @@
       <c r="I700" t="n">
         <v>15820</v>
       </c>
-      <c r="J700" t="inlineStr"/>
+      <c r="J700" t="n">
+        <v>16020</v>
+      </c>
       <c r="K700" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24719,7 +24591,9 @@
       <c r="I701" t="n">
         <v>15900</v>
       </c>
-      <c r="J701" t="inlineStr"/>
+      <c r="J701" t="n">
+        <v>16020</v>
+      </c>
       <c r="K701" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24758,7 +24632,9 @@
       <c r="I702" t="n">
         <v>15810</v>
       </c>
-      <c r="J702" t="inlineStr"/>
+      <c r="J702" t="n">
+        <v>16020</v>
+      </c>
       <c r="K702" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24797,7 +24673,9 @@
       <c r="I703" t="n">
         <v>15900</v>
       </c>
-      <c r="J703" t="inlineStr"/>
+      <c r="J703" t="n">
+        <v>16020</v>
+      </c>
       <c r="K703" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24836,7 +24714,9 @@
       <c r="I704" t="n">
         <v>15900</v>
       </c>
-      <c r="J704" t="inlineStr"/>
+      <c r="J704" t="n">
+        <v>16020</v>
+      </c>
       <c r="K704" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24875,7 +24755,9 @@
       <c r="I705" t="n">
         <v>15930</v>
       </c>
-      <c r="J705" t="inlineStr"/>
+      <c r="J705" t="n">
+        <v>16020</v>
+      </c>
       <c r="K705" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24914,7 +24796,9 @@
       <c r="I706" t="n">
         <v>15930</v>
       </c>
-      <c r="J706" t="inlineStr"/>
+      <c r="J706" t="n">
+        <v>16020</v>
+      </c>
       <c r="K706" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24953,7 +24837,9 @@
       <c r="I707" t="n">
         <v>15920</v>
       </c>
-      <c r="J707" t="inlineStr"/>
+      <c r="J707" t="n">
+        <v>16020</v>
+      </c>
       <c r="K707" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24992,7 +24878,9 @@
       <c r="I708" t="n">
         <v>15910</v>
       </c>
-      <c r="J708" t="inlineStr"/>
+      <c r="J708" t="n">
+        <v>16020</v>
+      </c>
       <c r="K708" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25031,7 +24919,9 @@
       <c r="I709" t="n">
         <v>15830</v>
       </c>
-      <c r="J709" t="inlineStr"/>
+      <c r="J709" t="n">
+        <v>16020</v>
+      </c>
       <c r="K709" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25070,7 +24960,9 @@
       <c r="I710" t="n">
         <v>15890</v>
       </c>
-      <c r="J710" t="inlineStr"/>
+      <c r="J710" t="n">
+        <v>16020</v>
+      </c>
       <c r="K710" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25109,7 +25001,9 @@
       <c r="I711" t="n">
         <v>15970</v>
       </c>
-      <c r="J711" t="inlineStr"/>
+      <c r="J711" t="n">
+        <v>16020</v>
+      </c>
       <c r="K711" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25148,7 +25042,9 @@
       <c r="I712" t="n">
         <v>15990</v>
       </c>
-      <c r="J712" t="inlineStr"/>
+      <c r="J712" t="n">
+        <v>16020</v>
+      </c>
       <c r="K712" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25187,7 +25083,9 @@
       <c r="I713" t="n">
         <v>15990</v>
       </c>
-      <c r="J713" t="inlineStr"/>
+      <c r="J713" t="n">
+        <v>16020</v>
+      </c>
       <c r="K713" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25226,7 +25124,9 @@
       <c r="I714" t="n">
         <v>15990</v>
       </c>
-      <c r="J714" t="inlineStr"/>
+      <c r="J714" t="n">
+        <v>16020</v>
+      </c>
       <c r="K714" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25265,7 +25165,9 @@
       <c r="I715" t="n">
         <v>15900</v>
       </c>
-      <c r="J715" t="inlineStr"/>
+      <c r="J715" t="n">
+        <v>16020</v>
+      </c>
       <c r="K715" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25304,7 +25206,9 @@
       <c r="I716" t="n">
         <v>15890</v>
       </c>
-      <c r="J716" t="inlineStr"/>
+      <c r="J716" t="n">
+        <v>16020</v>
+      </c>
       <c r="K716" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25343,7 +25247,9 @@
       <c r="I717" t="n">
         <v>15890</v>
       </c>
-      <c r="J717" t="inlineStr"/>
+      <c r="J717" t="n">
+        <v>16020</v>
+      </c>
       <c r="K717" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25382,7 +25288,9 @@
       <c r="I718" t="n">
         <v>15840</v>
       </c>
-      <c r="J718" t="inlineStr"/>
+      <c r="J718" t="n">
+        <v>16020</v>
+      </c>
       <c r="K718" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25421,7 +25329,9 @@
       <c r="I719" t="n">
         <v>15900</v>
       </c>
-      <c r="J719" t="inlineStr"/>
+      <c r="J719" t="n">
+        <v>16020</v>
+      </c>
       <c r="K719" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25460,7 +25370,9 @@
       <c r="I720" t="n">
         <v>15930</v>
       </c>
-      <c r="J720" t="inlineStr"/>
+      <c r="J720" t="n">
+        <v>16020</v>
+      </c>
       <c r="K720" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25499,7 +25411,9 @@
       <c r="I721" t="n">
         <v>15910</v>
       </c>
-      <c r="J721" t="inlineStr"/>
+      <c r="J721" t="n">
+        <v>16020</v>
+      </c>
       <c r="K721" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25538,7 +25452,9 @@
       <c r="I722" t="n">
         <v>15870</v>
       </c>
-      <c r="J722" t="inlineStr"/>
+      <c r="J722" t="n">
+        <v>16020</v>
+      </c>
       <c r="K722" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25577,7 +25493,9 @@
       <c r="I723" t="n">
         <v>15870</v>
       </c>
-      <c r="J723" t="inlineStr"/>
+      <c r="J723" t="n">
+        <v>16020</v>
+      </c>
       <c r="K723" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25616,7 +25534,9 @@
       <c r="I724" t="n">
         <v>15990</v>
       </c>
-      <c r="J724" t="inlineStr"/>
+      <c r="J724" t="n">
+        <v>16020</v>
+      </c>
       <c r="K724" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25655,7 +25575,9 @@
       <c r="I725" t="n">
         <v>16040</v>
       </c>
-      <c r="J725" t="inlineStr"/>
+      <c r="J725" t="n">
+        <v>16020</v>
+      </c>
       <c r="K725" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25694,7 +25616,9 @@
       <c r="I726" t="n">
         <v>16040</v>
       </c>
-      <c r="J726" t="inlineStr"/>
+      <c r="J726" t="n">
+        <v>16020</v>
+      </c>
       <c r="K726" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25733,7 +25657,9 @@
       <c r="I727" t="n">
         <v>16040</v>
       </c>
-      <c r="J727" t="inlineStr"/>
+      <c r="J727" t="n">
+        <v>16020</v>
+      </c>
       <c r="K727" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25772,7 +25698,9 @@
       <c r="I728" t="n">
         <v>16040</v>
       </c>
-      <c r="J728" t="inlineStr"/>
+      <c r="J728" t="n">
+        <v>16020</v>
+      </c>
       <c r="K728" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25811,7 +25739,9 @@
       <c r="I729" t="n">
         <v>15980</v>
       </c>
-      <c r="J729" t="inlineStr"/>
+      <c r="J729" t="n">
+        <v>16020</v>
+      </c>
       <c r="K729" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25850,7 +25780,9 @@
       <c r="I730" t="n">
         <v>16040</v>
       </c>
-      <c r="J730" t="inlineStr"/>
+      <c r="J730" t="n">
+        <v>16020</v>
+      </c>
       <c r="K730" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25889,7 +25821,9 @@
       <c r="I731" t="n">
         <v>16040</v>
       </c>
-      <c r="J731" t="inlineStr"/>
+      <c r="J731" t="n">
+        <v>16020</v>
+      </c>
       <c r="K731" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25928,7 +25862,9 @@
       <c r="I732" t="n">
         <v>16040</v>
       </c>
-      <c r="J732" t="inlineStr"/>
+      <c r="J732" t="n">
+        <v>16020</v>
+      </c>
       <c r="K732" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25967,7 +25903,9 @@
       <c r="I733" t="n">
         <v>16050</v>
       </c>
-      <c r="J733" t="inlineStr"/>
+      <c r="J733" t="n">
+        <v>16020</v>
+      </c>
       <c r="K733" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26006,7 +25944,9 @@
       <c r="I734" t="n">
         <v>16050</v>
       </c>
-      <c r="J734" t="inlineStr"/>
+      <c r="J734" t="n">
+        <v>16020</v>
+      </c>
       <c r="K734" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26045,7 +25985,9 @@
       <c r="I735" t="n">
         <v>15980</v>
       </c>
-      <c r="J735" t="inlineStr"/>
+      <c r="J735" t="n">
+        <v>16020</v>
+      </c>
       <c r="K735" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26084,7 +26026,9 @@
       <c r="I736" t="n">
         <v>16000</v>
       </c>
-      <c r="J736" t="inlineStr"/>
+      <c r="J736" t="n">
+        <v>16020</v>
+      </c>
       <c r="K736" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26123,7 +26067,9 @@
       <c r="I737" t="n">
         <v>16050</v>
       </c>
-      <c r="J737" t="inlineStr"/>
+      <c r="J737" t="n">
+        <v>16020</v>
+      </c>
       <c r="K737" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26162,7 +26108,9 @@
       <c r="I738" t="n">
         <v>16010</v>
       </c>
-      <c r="J738" t="inlineStr"/>
+      <c r="J738" t="n">
+        <v>16020</v>
+      </c>
       <c r="K738" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26201,7 +26149,9 @@
       <c r="I739" t="n">
         <v>16060</v>
       </c>
-      <c r="J739" t="inlineStr"/>
+      <c r="J739" t="n">
+        <v>16020</v>
+      </c>
       <c r="K739" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26240,7 +26190,9 @@
       <c r="I740" t="n">
         <v>16050</v>
       </c>
-      <c r="J740" t="inlineStr"/>
+      <c r="J740" t="n">
+        <v>16020</v>
+      </c>
       <c r="K740" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26279,7 +26231,9 @@
       <c r="I741" t="n">
         <v>16160</v>
       </c>
-      <c r="J741" t="inlineStr"/>
+      <c r="J741" t="n">
+        <v>16020</v>
+      </c>
       <c r="K741" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26318,7 +26272,9 @@
       <c r="I742" t="n">
         <v>16150</v>
       </c>
-      <c r="J742" t="inlineStr"/>
+      <c r="J742" t="n">
+        <v>16020</v>
+      </c>
       <c r="K742" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26357,7 +26313,9 @@
       <c r="I743" t="n">
         <v>16000</v>
       </c>
-      <c r="J743" t="inlineStr"/>
+      <c r="J743" t="n">
+        <v>16020</v>
+      </c>
       <c r="K743" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26396,7 +26354,9 @@
       <c r="I744" t="n">
         <v>16000</v>
       </c>
-      <c r="J744" t="inlineStr"/>
+      <c r="J744" t="n">
+        <v>16020</v>
+      </c>
       <c r="K744" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26435,7 +26395,9 @@
       <c r="I745" t="n">
         <v>16010</v>
       </c>
-      <c r="J745" t="inlineStr"/>
+      <c r="J745" t="n">
+        <v>16020</v>
+      </c>
       <c r="K745" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26474,7 +26436,9 @@
       <c r="I746" t="n">
         <v>16090</v>
       </c>
-      <c r="J746" t="inlineStr"/>
+      <c r="J746" t="n">
+        <v>16020</v>
+      </c>
       <c r="K746" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26513,7 +26477,9 @@
       <c r="I747" t="n">
         <v>16010</v>
       </c>
-      <c r="J747" t="inlineStr"/>
+      <c r="J747" t="n">
+        <v>16020</v>
+      </c>
       <c r="K747" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26547,12 +26513,12 @@
         <v>-11107.29378817711</v>
       </c>
       <c r="H748" t="n">
-        <v>1</v>
-      </c>
-      <c r="I748" t="n">
-        <v>16100</v>
-      </c>
-      <c r="J748" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I748" t="inlineStr"/>
+      <c r="J748" t="n">
+        <v>16020</v>
+      </c>
       <c r="K748" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26586,12 +26552,12 @@
         <v>-11364.93898817711</v>
       </c>
       <c r="H749" t="n">
-        <v>1</v>
-      </c>
-      <c r="I749" t="n">
-        <v>16100</v>
-      </c>
-      <c r="J749" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I749" t="inlineStr"/>
+      <c r="J749" t="n">
+        <v>16020</v>
+      </c>
       <c r="K749" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26630,7 +26596,9 @@
       <c r="I750" t="n">
         <v>16000</v>
       </c>
-      <c r="J750" t="inlineStr"/>
+      <c r="J750" t="n">
+        <v>16020</v>
+      </c>
       <c r="K750" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26669,7 +26637,9 @@
       <c r="I751" t="n">
         <v>16100</v>
       </c>
-      <c r="J751" t="inlineStr"/>
+      <c r="J751" t="n">
+        <v>16020</v>
+      </c>
       <c r="K751" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26708,7 +26678,9 @@
       <c r="I752" t="n">
         <v>16030</v>
       </c>
-      <c r="J752" t="inlineStr"/>
+      <c r="J752" t="n">
+        <v>16020</v>
+      </c>
       <c r="K752" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26747,7 +26719,9 @@
       <c r="I753" t="n">
         <v>16030</v>
       </c>
-      <c r="J753" t="inlineStr"/>
+      <c r="J753" t="n">
+        <v>16020</v>
+      </c>
       <c r="K753" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26759,6 +26733,6 @@
       <c r="M753" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest REP.xlsx
+++ b/BackTest/2020-01-19 BackTest REP.xlsx
@@ -583,7 +583,7 @@
         <v>1234.920048636621</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>1.178548636621031</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-2175.773431583188</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-2175.773431583188</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-2175.773431583188</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-2175.773431583188</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-2189.041231583188</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-2198.780931583188</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-2198.780931583188</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-2071.825131583188</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-2067.502731583188</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-2580.012731583188</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-2685.042531583188</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-3344.200331583188</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-3577.127231583187</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-3577.127231583187</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-3599.062131583188</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-3577.866231583188</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-3433.164331583188</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-3507.630331583187</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-4139.797631583187</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-4770.014931583188</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-4705.007131583187</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-1238.563331583187</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-1254.980031583187</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-1185.807231583187</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>443.199246594621</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>426.873246594621</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>426.873246594621</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-102.8035285652987</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-116.3671285652987</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-1327.701528565299</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-1257.453528565299</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-1415.053028565299</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-1172.253728565299</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-1290.453328565299</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-1408.653028565299</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-1397.302928565299</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-1397.302928565299</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-1356.536528565299</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-1195.976828565299</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-1184.976828565299</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-1192.976828565299</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-1226.995028565299</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-1192.944728565299</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-1190.980028565299</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-1172.383828565299</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-1172.383828565299</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-1167.371748423873</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-1102.136348423873</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-1102.136348423873</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-1068.637048423873</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-1035.251694902746</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-1093.647294902746</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-839.7177949027462</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-789.6449949027461</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-821.4245949027461</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-814.3009949027461</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-816.3009949027461</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-816.2009949027461</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-813.6632949027461</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-796.2727985115936</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-758.8046985115935</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-692.8754985115935</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-640.1549985115935</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-629.3437985115935</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-319.1594985115935</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-815.9550985115934</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-774.9381985115934</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-774.9381985115934</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-506.2835985115934</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-423.0279606019889</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-569.0800606019889</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-766.2096606019888</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-772.2840606019888</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-788.4099606019888</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-888.7627606019888</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-888.7627606019888</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-886.8520606019888</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-628.8822606019887</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-628.8822606019887</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-680.8856606019888</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-684.7653606019887</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-688.5922606019888</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-695.6010606019887</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-703.9122606019887</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-718.2186606019887</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-728.3552606019888</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-739.1664606019888</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-739.1664606019888</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-760.8228606019887</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-738.3103606019887</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-724.3103606019887</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-367.2440053840988</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-357.4375053840988</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-410.5807053840988</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-436.0987053840988</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-436.0987053840988</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-461.7835053840988</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-461.7835053840988</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-540.1456053840989</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-537.6245053840988</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-379.8978053840988</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-334.6799053840988</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-380.2753053840988</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-321.2274745970618</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-268.6794745970618</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-252.7356745970618</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-351.3455745970618</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-351.3455745970618</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-388.8136745970618</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-388.8136745970618</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-388.8136745970618</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-449.5136745970618</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-467.6312745970617</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-490.6320745970618</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-492.4989745970618</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-554.4181745970618</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-609.6787745970618</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-574.7886745970618</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-584.7536745970618</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-689.2661745970619</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-687.6986745970619</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-621.1354119506918</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-631.6630119506918</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-646.3864119506918</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-724.9784119506918</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-724.9784119506918</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-788.7225119506918</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-881.6899119506918</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-881.6899119506918</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-881.6899119506918</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-915.9004119506918</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-881.9614119506919</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-883.9005119506919</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-859.8413119506919</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-732.0118119506919</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-732.0118119506919</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-732.0118119506919</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-724.955911950692</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-724.955911950692</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-844.455911950692</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-963.2627119506919</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-963.2627119506919</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-937.3811119506919</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-937.3811119506919</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-1142.006011950692</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-1142.006011950692</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-1051.926711950692</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-1032.666011950692</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-1169.785311950692</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-1119.785311950692</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-1030.028611950692</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-940.6126396502224</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-1086.867939650222</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-1083.933639650222</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-1015.256088427871</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-1004.209988427871</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-1004.209988427871</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-997.4790163348475</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-1028.721116334847</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-1027.721116334847</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-1034.933216334847</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-1034.933216334847</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-1148.621516334847</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-1151.542077082511</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-1151.542077082511</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-1163.588177082511</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-1175.425077082511</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-1178.117577082511</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-1159.973577082511</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-1222.520377082511</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-1222.520377082511</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-1328.504577082511</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-1512.742677082511</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-1983.527277082511</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-1997.559177082511</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-1994.347277082511</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-1994.347277082511</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-1997.297277082511</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-2067.931977082511</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-2017.884977082511</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-2122.978077082511</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-2533.223977082511</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-2523.223977082511</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-2523.223977082511</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-2523.223977082511</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-2533.180477082511</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-2531.120577082511</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-2452.451377082511</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-2502.883177082511</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-2502.883177082511</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-2502.883177082511</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-2450.863177082511</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-2258.958577082511</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-2265.120577082511</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-2265.120577082511</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-2034.483077082511</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-2037.415577082511</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-2035.945577082511</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-2035.945577082511</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-2035.899677082511</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-2038.698477082511</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-2038.698477082511</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-2465.688477082511</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-3369.156577082511</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-3365.779977082511</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-3365.779977082511</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-3702.561677082511</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-3701.581677082511</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-3701.611677082511</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-3700.094777082511</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-3748.336877082511</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-3745.086877082511</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-3745.086877082511</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-3745.086877082511</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-3751.206977082511</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-3751.206977082511</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-3706.490277082511</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-3730.490277082511</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-3730.490277082511</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-3830.180277082511</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-3830.180277082511</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-3830.180277082511</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-3821.893877082511</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>-3821.893877082511</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>-3821.893877082511</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>-3823.103577082511</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>-3823.103577082511</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-4342.407377082511</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>-4342.407377082511</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>-4342.407377082511</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>-4370.417477082511</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>-4521.703477082511</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>-4186.675777082512</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>-4186.675777082512</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-4202.668677082512</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>-4197.553877082511</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-4155.102977082512</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-4155.102977082512</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>-4155.102977082512</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>-4155.102977082512</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-4300.316577082512</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>-4358.831277082511</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>-5774.845877082511</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>-5909.985877082511</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>-7045.994177082512</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-7045.994177082512</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -17314,11 +17314,17 @@
         <v>-10832.09781549181</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
-      </c>
-      <c r="I513" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I513" t="n">
+        <v>16000</v>
+      </c>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17351,7 +17357,11 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17380,11 +17390,17 @@
         <v>-10872.07371549181</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
-      </c>
-      <c r="I515" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I515" t="n">
+        <v>15980</v>
+      </c>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17413,11 +17429,17 @@
         <v>-10873.15551549181</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
-      </c>
-      <c r="I516" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I516" t="n">
+        <v>16080</v>
+      </c>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -17446,11 +17468,17 @@
         <v>-11089.24001549181</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
-      </c>
-      <c r="I517" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I517" t="n">
+        <v>16010</v>
+      </c>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -17479,11 +17507,17 @@
         <v>-11073.42861549181</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
-      </c>
-      <c r="I518" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I518" t="n">
+        <v>15960</v>
+      </c>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -17512,11 +17546,17 @@
         <v>-11100.71191549181</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
-      </c>
-      <c r="I519" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I519" t="n">
+        <v>16070</v>
+      </c>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -17545,11 +17585,17 @@
         <v>-11099.32131549181</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
-      </c>
-      <c r="I520" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I520" t="n">
+        <v>16020</v>
+      </c>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -17578,11 +17624,17 @@
         <v>-11099.32131549181</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
-      </c>
-      <c r="I521" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I521" t="n">
+        <v>16090</v>
+      </c>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -17611,11 +17663,17 @@
         <v>-11100.37131549181</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
-      </c>
-      <c r="I522" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I522" t="n">
+        <v>16090</v>
+      </c>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -17644,11 +17702,17 @@
         <v>-11163.33941549181</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
-      </c>
-      <c r="I523" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I523" t="n">
+        <v>16030</v>
+      </c>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -17677,11 +17741,17 @@
         <v>-11173.33941549181</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
-      </c>
-      <c r="I524" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I524" t="n">
+        <v>16020</v>
+      </c>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -17710,11 +17780,17 @@
         <v>-11157.52321549181</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
-      </c>
-      <c r="I525" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I525" t="n">
+        <v>15960</v>
+      </c>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -17743,11 +17819,17 @@
         <v>-11224.35321549181</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
-      </c>
-      <c r="I526" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I526" t="n">
+        <v>15980</v>
+      </c>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -17776,11 +17858,17 @@
         <v>-11197.36511549181</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
-      </c>
-      <c r="I527" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I527" t="n">
+        <v>15970</v>
+      </c>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -17809,11 +17897,17 @@
         <v>-11222.78511549181</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
-      </c>
-      <c r="I528" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I528" t="n">
+        <v>15980</v>
+      </c>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -17842,11 +17936,17 @@
         <v>-11404.52371549181</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
-      </c>
-      <c r="I529" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I529" t="n">
+        <v>15960</v>
+      </c>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -17875,11 +17975,17 @@
         <v>-11991.68451549181</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
-      </c>
-      <c r="I530" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I530" t="n">
+        <v>15930</v>
+      </c>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -17908,11 +18014,17 @@
         <v>-11981.77901549181</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
-      </c>
-      <c r="I531" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I531" t="n">
+        <v>15900</v>
+      </c>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -17941,11 +18053,17 @@
         <v>-11951.65451549181</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
-      </c>
-      <c r="I532" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I532" t="n">
+        <v>15960</v>
+      </c>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -17974,11 +18092,17 @@
         <v>-11770.27291549181</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
-      </c>
-      <c r="I533" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I533" t="n">
+        <v>15980</v>
+      </c>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18007,11 +18131,17 @@
         <v>-11770.27291549181</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
-      </c>
-      <c r="I534" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I534" t="n">
+        <v>16000</v>
+      </c>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18040,11 +18170,17 @@
         <v>-11799.40911549181</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
-      </c>
-      <c r="I535" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I535" t="n">
+        <v>16000</v>
+      </c>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18073,11 +18209,17 @@
         <v>-11886.46541549181</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
-      </c>
-      <c r="I536" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I536" t="n">
+        <v>15990</v>
+      </c>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18106,11 +18248,17 @@
         <v>-11381.61771549181</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
-      </c>
-      <c r="I537" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I537" t="n">
+        <v>15890</v>
+      </c>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18143,7 +18291,11 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18176,7 +18328,11 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18205,11 +18361,17 @@
         <v>-11133.53261549181</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
-      </c>
-      <c r="I540" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I540" t="n">
+        <v>15960</v>
+      </c>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18238,11 +18400,17 @@
         <v>-11133.53261549181</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
-      </c>
-      <c r="I541" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I541" t="n">
+        <v>15950</v>
+      </c>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18271,11 +18439,17 @@
         <v>-11133.53261549181</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
-      </c>
-      <c r="I542" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I542" t="n">
+        <v>15950</v>
+      </c>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18309,10 +18483,12 @@
       <c r="I543" t="n">
         <v>15950</v>
       </c>
-      <c r="J543" t="n">
-        <v>15950</v>
-      </c>
-      <c r="K543" t="inlineStr"/>
+      <c r="J543" t="inlineStr"/>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -18341,15 +18517,15 @@
         <v>-10968.04501549181</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
-      </c>
-      <c r="I544" t="inlineStr"/>
-      <c r="J544" t="n">
+        <v>1</v>
+      </c>
+      <c r="I544" t="n">
         <v>15950</v>
       </c>
+      <c r="J544" t="inlineStr"/>
       <c r="K544" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L544" t="n">
@@ -18380,15 +18556,15 @@
         <v>-10824.34461549181</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
-      </c>
-      <c r="I545" t="inlineStr"/>
-      <c r="J545" t="n">
-        <v>15950</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I545" t="n">
+        <v>15990</v>
+      </c>
+      <c r="J545" t="inlineStr"/>
       <c r="K545" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L545" t="n">
@@ -18423,7 +18599,11 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -18456,7 +18636,11 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -18489,7 +18673,11 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -18518,11 +18706,17 @@
         <v>-10981.99741549181</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
-      </c>
-      <c r="I549" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I549" t="n">
+        <v>16090</v>
+      </c>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -18551,11 +18745,17 @@
         <v>-10981.99741549181</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
-      </c>
-      <c r="I550" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I550" t="n">
+        <v>16020</v>
+      </c>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -18589,10 +18789,12 @@
       <c r="I551" t="n">
         <v>16020</v>
       </c>
-      <c r="J551" t="n">
-        <v>16020</v>
-      </c>
-      <c r="K551" t="inlineStr"/>
+      <c r="J551" t="inlineStr"/>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -18626,12 +18828,10 @@
       <c r="I552" t="n">
         <v>16020</v>
       </c>
-      <c r="J552" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J552" t="inlineStr"/>
       <c r="K552" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L552" t="n">
@@ -18665,9 +18865,7 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J553" t="inlineStr"/>
       <c r="K553" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18704,9 +18902,7 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J554" t="inlineStr"/>
       <c r="K554" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18743,9 +18939,7 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J555" t="inlineStr"/>
       <c r="K555" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18782,9 +18976,7 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J556" t="inlineStr"/>
       <c r="K556" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18821,9 +19013,7 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J557" t="inlineStr"/>
       <c r="K557" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18860,9 +19050,7 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J558" t="inlineStr"/>
       <c r="K558" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18899,9 +19087,7 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J559" t="inlineStr"/>
       <c r="K559" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18938,9 +19124,7 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J560" t="inlineStr"/>
       <c r="K560" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18977,9 +19161,7 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J561" t="inlineStr"/>
       <c r="K561" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19016,9 +19198,7 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J562" t="inlineStr"/>
       <c r="K562" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19052,14 +19232,10 @@
         <v>-11590.42121549181</v>
       </c>
       <c r="H563" t="n">
-        <v>1</v>
-      </c>
-      <c r="I563" t="n">
-        <v>16000</v>
-      </c>
-      <c r="J563" t="n">
-        <v>16020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I563" t="inlineStr"/>
+      <c r="J563" t="inlineStr"/>
       <c r="K563" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19093,14 +19269,10 @@
         <v>-11349.46161549181</v>
       </c>
       <c r="H564" t="n">
-        <v>1</v>
-      </c>
-      <c r="I564" t="n">
-        <v>16060</v>
-      </c>
-      <c r="J564" t="n">
-        <v>16020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I564" t="inlineStr"/>
+      <c r="J564" t="inlineStr"/>
       <c r="K564" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19137,9 +19309,7 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J565" t="inlineStr"/>
       <c r="K565" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19173,14 +19343,10 @@
         <v>-11264.58871549181</v>
       </c>
       <c r="H566" t="n">
-        <v>1</v>
-      </c>
-      <c r="I566" t="n">
-        <v>16010</v>
-      </c>
-      <c r="J566" t="n">
-        <v>16020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I566" t="inlineStr"/>
+      <c r="J566" t="inlineStr"/>
       <c r="K566" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19214,14 +19380,10 @@
         <v>-11267.30661549181</v>
       </c>
       <c r="H567" t="n">
-        <v>1</v>
-      </c>
-      <c r="I567" t="n">
-        <v>16020</v>
-      </c>
-      <c r="J567" t="n">
-        <v>16020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I567" t="inlineStr"/>
+      <c r="J567" t="inlineStr"/>
       <c r="K567" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19255,14 +19417,10 @@
         <v>-11267.30661549181</v>
       </c>
       <c r="H568" t="n">
-        <v>1</v>
-      </c>
-      <c r="I568" t="n">
-        <v>16000</v>
-      </c>
-      <c r="J568" t="n">
-        <v>16020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I568" t="inlineStr"/>
+      <c r="J568" t="inlineStr"/>
       <c r="K568" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19296,14 +19454,10 @@
         <v>-11267.30661549181</v>
       </c>
       <c r="H569" t="n">
-        <v>1</v>
-      </c>
-      <c r="I569" t="n">
-        <v>16000</v>
-      </c>
-      <c r="J569" t="n">
-        <v>16020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I569" t="inlineStr"/>
+      <c r="J569" t="inlineStr"/>
       <c r="K569" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19337,14 +19491,10 @@
         <v>-11267.30661549181</v>
       </c>
       <c r="H570" t="n">
-        <v>1</v>
-      </c>
-      <c r="I570" t="n">
-        <v>16000</v>
-      </c>
-      <c r="J570" t="n">
-        <v>16020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I570" t="inlineStr"/>
+      <c r="J570" t="inlineStr"/>
       <c r="K570" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19378,14 +19528,10 @@
         <v>-11262.05051549181</v>
       </c>
       <c r="H571" t="n">
-        <v>1</v>
-      </c>
-      <c r="I571" t="n">
-        <v>16000</v>
-      </c>
-      <c r="J571" t="n">
-        <v>16020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I571" t="inlineStr"/>
+      <c r="J571" t="inlineStr"/>
       <c r="K571" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19419,14 +19565,10 @@
         <v>-11581.76991549181</v>
       </c>
       <c r="H572" t="n">
-        <v>1</v>
-      </c>
-      <c r="I572" t="n">
-        <v>16060</v>
-      </c>
-      <c r="J572" t="n">
-        <v>16020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I572" t="inlineStr"/>
+      <c r="J572" t="inlineStr"/>
       <c r="K572" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19460,14 +19602,10 @@
         <v>-11586.22111549181</v>
       </c>
       <c r="H573" t="n">
-        <v>1</v>
-      </c>
-      <c r="I573" t="n">
-        <v>16000</v>
-      </c>
-      <c r="J573" t="n">
-        <v>16020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I573" t="inlineStr"/>
+      <c r="J573" t="inlineStr"/>
       <c r="K573" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19506,9 +19644,7 @@
       <c r="I574" t="n">
         <v>15990</v>
       </c>
-      <c r="J574" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J574" t="inlineStr"/>
       <c r="K574" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19547,9 +19683,7 @@
       <c r="I575" t="n">
         <v>16060</v>
       </c>
-      <c r="J575" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J575" t="inlineStr"/>
       <c r="K575" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19586,9 +19720,7 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J576" t="inlineStr"/>
       <c r="K576" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19625,9 +19757,7 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J577" t="inlineStr"/>
       <c r="K577" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19664,9 +19794,7 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J578" t="inlineStr"/>
       <c r="K578" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19703,9 +19831,7 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J579" t="inlineStr"/>
       <c r="K579" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19742,9 +19868,7 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J580" t="inlineStr"/>
       <c r="K580" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19781,9 +19905,7 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J581" t="inlineStr"/>
       <c r="K581" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19820,9 +19942,7 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J582" t="inlineStr"/>
       <c r="K582" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19859,9 +19979,7 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J583" t="inlineStr"/>
       <c r="K583" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19898,9 +20016,7 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J584" t="inlineStr"/>
       <c r="K584" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19934,12 +20050,12 @@
         <v>-11254.63813778321</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
-      </c>
-      <c r="I585" t="inlineStr"/>
-      <c r="J585" t="n">
-        <v>16020</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I585" t="n">
+        <v>16040</v>
+      </c>
+      <c r="J585" t="inlineStr"/>
       <c r="K585" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19978,9 +20094,7 @@
       <c r="I586" t="n">
         <v>16020</v>
       </c>
-      <c r="J586" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J586" t="inlineStr"/>
       <c r="K586" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20019,9 +20133,7 @@
       <c r="I587" t="n">
         <v>16050</v>
       </c>
-      <c r="J587" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J587" t="inlineStr"/>
       <c r="K587" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20060,9 +20172,7 @@
       <c r="I588" t="n">
         <v>16020</v>
       </c>
-      <c r="J588" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J588" t="inlineStr"/>
       <c r="K588" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20101,9 +20211,7 @@
       <c r="I589" t="n">
         <v>16020</v>
       </c>
-      <c r="J589" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J589" t="inlineStr"/>
       <c r="K589" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20142,9 +20250,7 @@
       <c r="I590" t="n">
         <v>16020</v>
       </c>
-      <c r="J590" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J590" t="inlineStr"/>
       <c r="K590" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20183,9 +20289,7 @@
       <c r="I591" t="n">
         <v>16030</v>
       </c>
-      <c r="J591" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J591" t="inlineStr"/>
       <c r="K591" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20224,9 +20328,7 @@
       <c r="I592" t="n">
         <v>16030</v>
       </c>
-      <c r="J592" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J592" t="inlineStr"/>
       <c r="K592" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20265,9 +20367,7 @@
       <c r="I593" t="n">
         <v>16030</v>
       </c>
-      <c r="J593" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J593" t="inlineStr"/>
       <c r="K593" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20306,9 +20406,7 @@
       <c r="I594" t="n">
         <v>16030</v>
       </c>
-      <c r="J594" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J594" t="inlineStr"/>
       <c r="K594" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20347,9 +20445,7 @@
       <c r="I595" t="n">
         <v>16030</v>
       </c>
-      <c r="J595" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J595" t="inlineStr"/>
       <c r="K595" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20388,9 +20484,7 @@
       <c r="I596" t="n">
         <v>16020</v>
       </c>
-      <c r="J596" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J596" t="inlineStr"/>
       <c r="K596" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20429,9 +20523,7 @@
       <c r="I597" t="n">
         <v>16020</v>
       </c>
-      <c r="J597" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J597" t="inlineStr"/>
       <c r="K597" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20470,9 +20562,7 @@
       <c r="I598" t="n">
         <v>15970</v>
       </c>
-      <c r="J598" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J598" t="inlineStr"/>
       <c r="K598" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20511,9 +20601,7 @@
       <c r="I599" t="n">
         <v>15970</v>
       </c>
-      <c r="J599" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J599" t="inlineStr"/>
       <c r="K599" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20552,9 +20640,7 @@
       <c r="I600" t="n">
         <v>15970</v>
       </c>
-      <c r="J600" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J600" t="inlineStr"/>
       <c r="K600" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20593,9 +20679,7 @@
       <c r="I601" t="n">
         <v>15970</v>
       </c>
-      <c r="J601" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J601" t="inlineStr"/>
       <c r="K601" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20634,9 +20718,7 @@
       <c r="I602" t="n">
         <v>16070</v>
       </c>
-      <c r="J602" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J602" t="inlineStr"/>
       <c r="K602" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20675,9 +20757,7 @@
       <c r="I603" t="n">
         <v>16060</v>
       </c>
-      <c r="J603" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J603" t="inlineStr"/>
       <c r="K603" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20716,9 +20796,7 @@
       <c r="I604" t="n">
         <v>16070</v>
       </c>
-      <c r="J604" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J604" t="inlineStr"/>
       <c r="K604" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20757,9 +20835,7 @@
       <c r="I605" t="n">
         <v>16140</v>
       </c>
-      <c r="J605" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J605" t="inlineStr"/>
       <c r="K605" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20793,12 +20869,12 @@
         <v>-11073.99332790667</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
-      </c>
-      <c r="I606" t="inlineStr"/>
-      <c r="J606" t="n">
-        <v>16020</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I606" t="n">
+        <v>16140</v>
+      </c>
+      <c r="J606" t="inlineStr"/>
       <c r="K606" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20832,12 +20908,12 @@
         <v>-11080.87012790667</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
-      </c>
-      <c r="I607" t="inlineStr"/>
-      <c r="J607" t="n">
-        <v>16020</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I607" t="n">
+        <v>16200</v>
+      </c>
+      <c r="J607" t="inlineStr"/>
       <c r="K607" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20871,12 +20947,12 @@
         <v>-11111.77172790667</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
-      </c>
-      <c r="I608" t="inlineStr"/>
-      <c r="J608" t="n">
-        <v>16020</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I608" t="n">
+        <v>16150</v>
+      </c>
+      <c r="J608" t="inlineStr"/>
       <c r="K608" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20910,12 +20986,12 @@
         <v>-11165.94902790667</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
-      </c>
-      <c r="I609" t="inlineStr"/>
-      <c r="J609" t="n">
-        <v>16020</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I609" t="n">
+        <v>16120</v>
+      </c>
+      <c r="J609" t="inlineStr"/>
       <c r="K609" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20949,12 +21025,12 @@
         <v>-11165.94902790667</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
-      </c>
-      <c r="I610" t="inlineStr"/>
-      <c r="J610" t="n">
-        <v>16020</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I610" t="n">
+        <v>16050</v>
+      </c>
+      <c r="J610" t="inlineStr"/>
       <c r="K610" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20993,9 +21069,7 @@
       <c r="I611" t="n">
         <v>16050</v>
       </c>
-      <c r="J611" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J611" t="inlineStr"/>
       <c r="K611" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21034,9 +21108,7 @@
       <c r="I612" t="n">
         <v>15960</v>
       </c>
-      <c r="J612" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J612" t="inlineStr"/>
       <c r="K612" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21075,9 +21147,7 @@
       <c r="I613" t="n">
         <v>15960</v>
       </c>
-      <c r="J613" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21116,9 +21186,7 @@
       <c r="I614" t="n">
         <v>16000</v>
       </c>
-      <c r="J614" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J614" t="inlineStr"/>
       <c r="K614" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21157,9 +21225,7 @@
       <c r="I615" t="n">
         <v>15960</v>
       </c>
-      <c r="J615" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J615" t="inlineStr"/>
       <c r="K615" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21198,9 +21264,7 @@
       <c r="I616" t="n">
         <v>16000</v>
       </c>
-      <c r="J616" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J616" t="inlineStr"/>
       <c r="K616" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21239,9 +21303,7 @@
       <c r="I617" t="n">
         <v>16000</v>
       </c>
-      <c r="J617" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J617" t="inlineStr"/>
       <c r="K617" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21280,9 +21342,7 @@
       <c r="I618" t="n">
         <v>16000</v>
       </c>
-      <c r="J618" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J618" t="inlineStr"/>
       <c r="K618" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21321,9 +21381,7 @@
       <c r="I619" t="n">
         <v>16000</v>
       </c>
-      <c r="J619" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J619" t="inlineStr"/>
       <c r="K619" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21362,9 +21420,7 @@
       <c r="I620" t="n">
         <v>16030</v>
       </c>
-      <c r="J620" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J620" t="inlineStr"/>
       <c r="K620" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21403,9 +21459,7 @@
       <c r="I621" t="n">
         <v>16000</v>
       </c>
-      <c r="J621" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J621" t="inlineStr"/>
       <c r="K621" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21444,9 +21498,7 @@
       <c r="I622" t="n">
         <v>16000</v>
       </c>
-      <c r="J622" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21485,9 +21537,7 @@
       <c r="I623" t="n">
         <v>16000</v>
       </c>
-      <c r="J623" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21526,9 +21576,7 @@
       <c r="I624" t="n">
         <v>16000</v>
       </c>
-      <c r="J624" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J624" t="inlineStr"/>
       <c r="K624" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21567,9 +21615,7 @@
       <c r="I625" t="n">
         <v>15950</v>
       </c>
-      <c r="J625" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J625" t="inlineStr"/>
       <c r="K625" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21608,9 +21654,7 @@
       <c r="I626" t="n">
         <v>15950</v>
       </c>
-      <c r="J626" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J626" t="inlineStr"/>
       <c r="K626" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21649,9 +21693,7 @@
       <c r="I627" t="n">
         <v>16030</v>
       </c>
-      <c r="J627" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J627" t="inlineStr"/>
       <c r="K627" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21690,9 +21732,7 @@
       <c r="I628" t="n">
         <v>15900</v>
       </c>
-      <c r="J628" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21731,9 +21771,7 @@
       <c r="I629" t="n">
         <v>16040</v>
       </c>
-      <c r="J629" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J629" t="inlineStr"/>
       <c r="K629" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21772,9 +21810,7 @@
       <c r="I630" t="n">
         <v>16030</v>
       </c>
-      <c r="J630" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J630" t="inlineStr"/>
       <c r="K630" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21813,9 +21849,7 @@
       <c r="I631" t="n">
         <v>16040</v>
       </c>
-      <c r="J631" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J631" t="inlineStr"/>
       <c r="K631" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21854,9 +21888,7 @@
       <c r="I632" t="n">
         <v>16040</v>
       </c>
-      <c r="J632" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J632" t="inlineStr"/>
       <c r="K632" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21895,9 +21927,7 @@
       <c r="I633" t="n">
         <v>16090</v>
       </c>
-      <c r="J633" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21936,9 +21966,7 @@
       <c r="I634" t="n">
         <v>16080</v>
       </c>
-      <c r="J634" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J634" t="inlineStr"/>
       <c r="K634" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21977,9 +22005,7 @@
       <c r="I635" t="n">
         <v>16110</v>
       </c>
-      <c r="J635" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J635" t="inlineStr"/>
       <c r="K635" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22018,9 +22044,7 @@
       <c r="I636" t="n">
         <v>16090</v>
       </c>
-      <c r="J636" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J636" t="inlineStr"/>
       <c r="K636" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22057,9 +22081,7 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J637" t="inlineStr"/>
       <c r="K637" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22096,9 +22118,7 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J638" t="inlineStr"/>
       <c r="K638" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22135,9 +22155,7 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J639" t="inlineStr"/>
       <c r="K639" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22174,9 +22192,7 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J640" t="inlineStr"/>
       <c r="K640" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22213,9 +22229,7 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J641" t="inlineStr"/>
       <c r="K641" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22252,9 +22266,7 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J642" t="inlineStr"/>
       <c r="K642" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22291,9 +22303,7 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J643" t="inlineStr"/>
       <c r="K643" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22330,9 +22340,7 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J644" t="inlineStr"/>
       <c r="K644" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22369,9 +22377,7 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J645" t="inlineStr"/>
       <c r="K645" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22408,9 +22414,7 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J646" t="inlineStr"/>
       <c r="K646" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22447,9 +22451,7 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J647" t="inlineStr"/>
       <c r="K647" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22486,9 +22488,7 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J648" t="inlineStr"/>
       <c r="K648" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22525,9 +22525,7 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J649" t="inlineStr"/>
       <c r="K649" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22564,9 +22562,7 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J650" t="inlineStr"/>
       <c r="K650" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22603,9 +22599,7 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J651" t="inlineStr"/>
       <c r="K651" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22642,9 +22636,7 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J652" t="inlineStr"/>
       <c r="K652" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22681,9 +22673,7 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J653" t="inlineStr"/>
       <c r="K653" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22720,9 +22710,7 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J654" t="inlineStr"/>
       <c r="K654" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22759,9 +22747,7 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J655" t="inlineStr"/>
       <c r="K655" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22798,9 +22784,7 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J656" t="inlineStr"/>
       <c r="K656" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22837,9 +22821,7 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J657" t="inlineStr"/>
       <c r="K657" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22876,9 +22858,7 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J658" t="inlineStr"/>
       <c r="K658" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22915,9 +22895,7 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J659" t="inlineStr"/>
       <c r="K659" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22954,9 +22932,7 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J660" t="inlineStr"/>
       <c r="K660" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22993,9 +22969,7 @@
         <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J661" t="inlineStr"/>
       <c r="K661" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23032,9 +23006,7 @@
         <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J662" t="inlineStr"/>
       <c r="K662" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23071,9 +23043,7 @@
         <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J663" t="inlineStr"/>
       <c r="K663" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23110,9 +23080,7 @@
         <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J664" t="inlineStr"/>
       <c r="K664" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23146,12 +23114,12 @@
         <v>-11120.76079638036</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
-      </c>
-      <c r="I665" t="inlineStr"/>
-      <c r="J665" t="n">
-        <v>16020</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I665" t="n">
+        <v>15950</v>
+      </c>
+      <c r="J665" t="inlineStr"/>
       <c r="K665" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23185,12 +23153,12 @@
         <v>-11238.72219638036</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
-      </c>
-      <c r="I666" t="inlineStr"/>
-      <c r="J666" t="n">
-        <v>16020</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I666" t="n">
+        <v>16000</v>
+      </c>
+      <c r="J666" t="inlineStr"/>
       <c r="K666" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23224,12 +23192,12 @@
         <v>-11238.72219638036</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
-      </c>
-      <c r="I667" t="inlineStr"/>
-      <c r="J667" t="n">
-        <v>16020</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I667" t="n">
+        <v>15960</v>
+      </c>
+      <c r="J667" t="inlineStr"/>
       <c r="K667" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23263,12 +23231,12 @@
         <v>-11238.72219638036</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
-      </c>
-      <c r="I668" t="inlineStr"/>
-      <c r="J668" t="n">
-        <v>16020</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I668" t="n">
+        <v>15960</v>
+      </c>
+      <c r="J668" t="inlineStr"/>
       <c r="K668" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23302,12 +23270,12 @@
         <v>-11047.55689638036</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
-      </c>
-      <c r="I669" t="inlineStr"/>
-      <c r="J669" t="n">
-        <v>16020</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I669" t="n">
+        <v>15960</v>
+      </c>
+      <c r="J669" t="inlineStr"/>
       <c r="K669" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23341,12 +23309,12 @@
         <v>-11047.55689638036</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
-      </c>
-      <c r="I670" t="inlineStr"/>
-      <c r="J670" t="n">
-        <v>16020</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I670" t="n">
+        <v>15970</v>
+      </c>
+      <c r="J670" t="inlineStr"/>
       <c r="K670" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23380,12 +23348,12 @@
         <v>-10978.13889638036</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
-      </c>
-      <c r="I671" t="inlineStr"/>
-      <c r="J671" t="n">
-        <v>16020</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I671" t="n">
+        <v>15970</v>
+      </c>
+      <c r="J671" t="inlineStr"/>
       <c r="K671" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23419,12 +23387,12 @@
         <v>-10979.25869638036</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
-      </c>
-      <c r="I672" t="inlineStr"/>
-      <c r="J672" t="n">
-        <v>16020</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I672" t="n">
+        <v>16000</v>
+      </c>
+      <c r="J672" t="inlineStr"/>
       <c r="K672" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23458,12 +23426,12 @@
         <v>-10979.25869638036</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
-      </c>
-      <c r="I673" t="inlineStr"/>
-      <c r="J673" t="n">
-        <v>16020</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I673" t="n">
+        <v>15960</v>
+      </c>
+      <c r="J673" t="inlineStr"/>
       <c r="K673" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23497,12 +23465,12 @@
         <v>-11007.25869638036</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
-      </c>
-      <c r="I674" t="inlineStr"/>
-      <c r="J674" t="n">
-        <v>16020</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I674" t="n">
+        <v>15960</v>
+      </c>
+      <c r="J674" t="inlineStr"/>
       <c r="K674" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23536,12 +23504,12 @@
         <v>-11007.25869638036</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
-      </c>
-      <c r="I675" t="inlineStr"/>
-      <c r="J675" t="n">
-        <v>16020</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I675" t="n">
+        <v>15950</v>
+      </c>
+      <c r="J675" t="inlineStr"/>
       <c r="K675" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23575,12 +23543,12 @@
         <v>-11261.87129638036</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
-      </c>
-      <c r="I676" t="inlineStr"/>
-      <c r="J676" t="n">
-        <v>16020</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I676" t="n">
+        <v>15950</v>
+      </c>
+      <c r="J676" t="inlineStr"/>
       <c r="K676" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23614,12 +23582,12 @@
         <v>-11168.90209638036</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
-      </c>
-      <c r="I677" t="inlineStr"/>
-      <c r="J677" t="n">
-        <v>16020</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I677" t="n">
+        <v>15850</v>
+      </c>
+      <c r="J677" t="inlineStr"/>
       <c r="K677" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23653,12 +23621,12 @@
         <v>-11168.90209638036</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
-      </c>
-      <c r="I678" t="inlineStr"/>
-      <c r="J678" t="n">
-        <v>16020</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I678" t="n">
+        <v>15960</v>
+      </c>
+      <c r="J678" t="inlineStr"/>
       <c r="K678" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23692,12 +23660,12 @@
         <v>-11180.33579638036</v>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
-      </c>
-      <c r="I679" t="inlineStr"/>
-      <c r="J679" t="n">
-        <v>16020</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I679" t="n">
+        <v>15960</v>
+      </c>
+      <c r="J679" t="inlineStr"/>
       <c r="K679" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23736,9 +23704,7 @@
       <c r="I680" t="n">
         <v>15860</v>
       </c>
-      <c r="J680" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J680" t="inlineStr"/>
       <c r="K680" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23777,9 +23743,7 @@
       <c r="I681" t="n">
         <v>15850</v>
       </c>
-      <c r="J681" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J681" t="inlineStr"/>
       <c r="K681" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23813,12 +23777,12 @@
         <v>-11107.68019638036</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
-      </c>
-      <c r="I682" t="inlineStr"/>
-      <c r="J682" t="n">
-        <v>16020</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I682" t="n">
+        <v>15950</v>
+      </c>
+      <c r="J682" t="inlineStr"/>
       <c r="K682" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23852,12 +23816,12 @@
         <v>-11155.26869638036</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
-      </c>
-      <c r="I683" t="inlineStr"/>
-      <c r="J683" t="n">
-        <v>16020</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I683" t="n">
+        <v>15960</v>
+      </c>
+      <c r="J683" t="inlineStr"/>
       <c r="K683" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23891,12 +23855,12 @@
         <v>-11155.26869638036</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
-      </c>
-      <c r="I684" t="inlineStr"/>
-      <c r="J684" t="n">
-        <v>16020</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I684" t="n">
+        <v>15950</v>
+      </c>
+      <c r="J684" t="inlineStr"/>
       <c r="K684" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23935,9 +23899,7 @@
       <c r="I685" t="n">
         <v>15950</v>
       </c>
-      <c r="J685" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J685" t="inlineStr"/>
       <c r="K685" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23976,9 +23938,7 @@
       <c r="I686" t="n">
         <v>15870</v>
       </c>
-      <c r="J686" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J686" t="inlineStr"/>
       <c r="K686" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24017,9 +23977,7 @@
       <c r="I687" t="n">
         <v>15870</v>
       </c>
-      <c r="J687" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J687" t="inlineStr"/>
       <c r="K687" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24058,9 +24016,7 @@
       <c r="I688" t="n">
         <v>15870</v>
       </c>
-      <c r="J688" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J688" t="inlineStr"/>
       <c r="K688" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24099,9 +24055,7 @@
       <c r="I689" t="n">
         <v>15860</v>
       </c>
-      <c r="J689" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J689" t="inlineStr"/>
       <c r="K689" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24140,9 +24094,7 @@
       <c r="I690" t="n">
         <v>15950</v>
       </c>
-      <c r="J690" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J690" t="inlineStr"/>
       <c r="K690" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24181,9 +24133,7 @@
       <c r="I691" t="n">
         <v>15890</v>
       </c>
-      <c r="J691" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J691" t="inlineStr"/>
       <c r="K691" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24222,9 +24172,7 @@
       <c r="I692" t="n">
         <v>15890</v>
       </c>
-      <c r="J692" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J692" t="inlineStr"/>
       <c r="K692" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24263,9 +24211,7 @@
       <c r="I693" t="n">
         <v>15890</v>
       </c>
-      <c r="J693" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J693" t="inlineStr"/>
       <c r="K693" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24304,9 +24250,7 @@
       <c r="I694" t="n">
         <v>15860</v>
       </c>
-      <c r="J694" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J694" t="inlineStr"/>
       <c r="K694" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24345,9 +24289,7 @@
       <c r="I695" t="n">
         <v>15850</v>
       </c>
-      <c r="J695" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J695" t="inlineStr"/>
       <c r="K695" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24386,9 +24328,7 @@
       <c r="I696" t="n">
         <v>15850</v>
       </c>
-      <c r="J696" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J696" t="inlineStr"/>
       <c r="K696" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24427,9 +24367,7 @@
       <c r="I697" t="n">
         <v>15820</v>
       </c>
-      <c r="J697" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J697" t="inlineStr"/>
       <c r="K697" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24468,9 +24406,7 @@
       <c r="I698" t="n">
         <v>15800</v>
       </c>
-      <c r="J698" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J698" t="inlineStr"/>
       <c r="K698" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24509,9 +24445,7 @@
       <c r="I699" t="n">
         <v>15810</v>
       </c>
-      <c r="J699" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J699" t="inlineStr"/>
       <c r="K699" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24550,9 +24484,7 @@
       <c r="I700" t="n">
         <v>15820</v>
       </c>
-      <c r="J700" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J700" t="inlineStr"/>
       <c r="K700" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24591,9 +24523,7 @@
       <c r="I701" t="n">
         <v>15900</v>
       </c>
-      <c r="J701" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J701" t="inlineStr"/>
       <c r="K701" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24632,9 +24562,7 @@
       <c r="I702" t="n">
         <v>15810</v>
       </c>
-      <c r="J702" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J702" t="inlineStr"/>
       <c r="K702" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24673,9 +24601,7 @@
       <c r="I703" t="n">
         <v>15900</v>
       </c>
-      <c r="J703" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J703" t="inlineStr"/>
       <c r="K703" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24714,9 +24640,7 @@
       <c r="I704" t="n">
         <v>15900</v>
       </c>
-      <c r="J704" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J704" t="inlineStr"/>
       <c r="K704" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24755,9 +24679,7 @@
       <c r="I705" t="n">
         <v>15930</v>
       </c>
-      <c r="J705" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J705" t="inlineStr"/>
       <c r="K705" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24796,9 +24718,7 @@
       <c r="I706" t="n">
         <v>15930</v>
       </c>
-      <c r="J706" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J706" t="inlineStr"/>
       <c r="K706" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24837,9 +24757,7 @@
       <c r="I707" t="n">
         <v>15920</v>
       </c>
-      <c r="J707" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J707" t="inlineStr"/>
       <c r="K707" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24878,9 +24796,7 @@
       <c r="I708" t="n">
         <v>15910</v>
       </c>
-      <c r="J708" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J708" t="inlineStr"/>
       <c r="K708" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24919,9 +24835,7 @@
       <c r="I709" t="n">
         <v>15830</v>
       </c>
-      <c r="J709" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J709" t="inlineStr"/>
       <c r="K709" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24960,9 +24874,7 @@
       <c r="I710" t="n">
         <v>15890</v>
       </c>
-      <c r="J710" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J710" t="inlineStr"/>
       <c r="K710" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25001,9 +24913,7 @@
       <c r="I711" t="n">
         <v>15970</v>
       </c>
-      <c r="J711" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J711" t="inlineStr"/>
       <c r="K711" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25042,9 +24952,7 @@
       <c r="I712" t="n">
         <v>15990</v>
       </c>
-      <c r="J712" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J712" t="inlineStr"/>
       <c r="K712" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25083,9 +24991,7 @@
       <c r="I713" t="n">
         <v>15990</v>
       </c>
-      <c r="J713" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J713" t="inlineStr"/>
       <c r="K713" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25124,9 +25030,7 @@
       <c r="I714" t="n">
         <v>15990</v>
       </c>
-      <c r="J714" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J714" t="inlineStr"/>
       <c r="K714" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25165,9 +25069,7 @@
       <c r="I715" t="n">
         <v>15900</v>
       </c>
-      <c r="J715" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J715" t="inlineStr"/>
       <c r="K715" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25206,9 +25108,7 @@
       <c r="I716" t="n">
         <v>15890</v>
       </c>
-      <c r="J716" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J716" t="inlineStr"/>
       <c r="K716" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25247,9 +25147,7 @@
       <c r="I717" t="n">
         <v>15890</v>
       </c>
-      <c r="J717" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J717" t="inlineStr"/>
       <c r="K717" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25288,9 +25186,7 @@
       <c r="I718" t="n">
         <v>15840</v>
       </c>
-      <c r="J718" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J718" t="inlineStr"/>
       <c r="K718" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25329,9 +25225,7 @@
       <c r="I719" t="n">
         <v>15900</v>
       </c>
-      <c r="J719" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J719" t="inlineStr"/>
       <c r="K719" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25370,9 +25264,7 @@
       <c r="I720" t="n">
         <v>15930</v>
       </c>
-      <c r="J720" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J720" t="inlineStr"/>
       <c r="K720" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25411,9 +25303,7 @@
       <c r="I721" t="n">
         <v>15910</v>
       </c>
-      <c r="J721" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J721" t="inlineStr"/>
       <c r="K721" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25452,9 +25342,7 @@
       <c r="I722" t="n">
         <v>15870</v>
       </c>
-      <c r="J722" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J722" t="inlineStr"/>
       <c r="K722" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25493,9 +25381,7 @@
       <c r="I723" t="n">
         <v>15870</v>
       </c>
-      <c r="J723" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J723" t="inlineStr"/>
       <c r="K723" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25534,9 +25420,7 @@
       <c r="I724" t="n">
         <v>15990</v>
       </c>
-      <c r="J724" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J724" t="inlineStr"/>
       <c r="K724" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25575,9 +25459,7 @@
       <c r="I725" t="n">
         <v>16040</v>
       </c>
-      <c r="J725" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J725" t="inlineStr"/>
       <c r="K725" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25616,9 +25498,7 @@
       <c r="I726" t="n">
         <v>16040</v>
       </c>
-      <c r="J726" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J726" t="inlineStr"/>
       <c r="K726" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25657,9 +25537,7 @@
       <c r="I727" t="n">
         <v>16040</v>
       </c>
-      <c r="J727" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J727" t="inlineStr"/>
       <c r="K727" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25698,9 +25576,7 @@
       <c r="I728" t="n">
         <v>16040</v>
       </c>
-      <c r="J728" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J728" t="inlineStr"/>
       <c r="K728" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25739,9 +25615,7 @@
       <c r="I729" t="n">
         <v>15980</v>
       </c>
-      <c r="J729" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J729" t="inlineStr"/>
       <c r="K729" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25780,9 +25654,7 @@
       <c r="I730" t="n">
         <v>16040</v>
       </c>
-      <c r="J730" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J730" t="inlineStr"/>
       <c r="K730" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25821,9 +25693,7 @@
       <c r="I731" t="n">
         <v>16040</v>
       </c>
-      <c r="J731" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J731" t="inlineStr"/>
       <c r="K731" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25862,9 +25732,7 @@
       <c r="I732" t="n">
         <v>16040</v>
       </c>
-      <c r="J732" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J732" t="inlineStr"/>
       <c r="K732" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25903,9 +25771,7 @@
       <c r="I733" t="n">
         <v>16050</v>
       </c>
-      <c r="J733" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J733" t="inlineStr"/>
       <c r="K733" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25944,9 +25810,7 @@
       <c r="I734" t="n">
         <v>16050</v>
       </c>
-      <c r="J734" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J734" t="inlineStr"/>
       <c r="K734" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25985,9 +25849,7 @@
       <c r="I735" t="n">
         <v>15980</v>
       </c>
-      <c r="J735" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J735" t="inlineStr"/>
       <c r="K735" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26026,9 +25888,7 @@
       <c r="I736" t="n">
         <v>16000</v>
       </c>
-      <c r="J736" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J736" t="inlineStr"/>
       <c r="K736" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26067,9 +25927,7 @@
       <c r="I737" t="n">
         <v>16050</v>
       </c>
-      <c r="J737" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J737" t="inlineStr"/>
       <c r="K737" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26108,9 +25966,7 @@
       <c r="I738" t="n">
         <v>16010</v>
       </c>
-      <c r="J738" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J738" t="inlineStr"/>
       <c r="K738" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26149,9 +26005,7 @@
       <c r="I739" t="n">
         <v>16060</v>
       </c>
-      <c r="J739" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J739" t="inlineStr"/>
       <c r="K739" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26190,9 +26044,7 @@
       <c r="I740" t="n">
         <v>16050</v>
       </c>
-      <c r="J740" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J740" t="inlineStr"/>
       <c r="K740" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26231,9 +26083,7 @@
       <c r="I741" t="n">
         <v>16160</v>
       </c>
-      <c r="J741" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J741" t="inlineStr"/>
       <c r="K741" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26272,9 +26122,7 @@
       <c r="I742" t="n">
         <v>16150</v>
       </c>
-      <c r="J742" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J742" t="inlineStr"/>
       <c r="K742" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26313,9 +26161,7 @@
       <c r="I743" t="n">
         <v>16000</v>
       </c>
-      <c r="J743" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J743" t="inlineStr"/>
       <c r="K743" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26354,9 +26200,7 @@
       <c r="I744" t="n">
         <v>16000</v>
       </c>
-      <c r="J744" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J744" t="inlineStr"/>
       <c r="K744" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26395,9 +26239,7 @@
       <c r="I745" t="n">
         <v>16010</v>
       </c>
-      <c r="J745" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J745" t="inlineStr"/>
       <c r="K745" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26431,14 +26273,10 @@
         <v>-11107.37638817711</v>
       </c>
       <c r="H746" t="n">
-        <v>1</v>
-      </c>
-      <c r="I746" t="n">
-        <v>16090</v>
-      </c>
-      <c r="J746" t="n">
-        <v>16020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I746" t="inlineStr"/>
+      <c r="J746" t="inlineStr"/>
       <c r="K746" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26477,9 +26315,7 @@
       <c r="I747" t="n">
         <v>16010</v>
       </c>
-      <c r="J747" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J747" t="inlineStr"/>
       <c r="K747" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26516,9 +26352,7 @@
         <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
-      <c r="J748" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J748" t="inlineStr"/>
       <c r="K748" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26555,9 +26389,7 @@
         <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
-      <c r="J749" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J749" t="inlineStr"/>
       <c r="K749" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26591,14 +26423,10 @@
         <v>-11364.61898817711</v>
       </c>
       <c r="H750" t="n">
-        <v>1</v>
-      </c>
-      <c r="I750" t="n">
-        <v>16000</v>
-      </c>
-      <c r="J750" t="n">
-        <v>16020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I750" t="inlineStr"/>
+      <c r="J750" t="inlineStr"/>
       <c r="K750" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26632,14 +26460,10 @@
         <v>-11365.83538817711</v>
       </c>
       <c r="H751" t="n">
-        <v>1</v>
-      </c>
-      <c r="I751" t="n">
-        <v>16100</v>
-      </c>
-      <c r="J751" t="n">
-        <v>16020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I751" t="inlineStr"/>
+      <c r="J751" t="inlineStr"/>
       <c r="K751" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26678,9 +26502,7 @@
       <c r="I752" t="n">
         <v>16030</v>
       </c>
-      <c r="J752" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J752" t="inlineStr"/>
       <c r="K752" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26719,9 +26541,7 @@
       <c r="I753" t="n">
         <v>16030</v>
       </c>
-      <c r="J753" t="n">
-        <v>16020</v>
-      </c>
+      <c r="J753" t="inlineStr"/>
       <c r="K753" t="inlineStr">
         <is>
           <t>매도 대기</t>
